--- a/leave/src/main/resources/Sanity.xlsx
+++ b/leave/src/main/resources/Sanity.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project_sikhar\leave\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CF2696-A948-4E1F-832A-52C2A92E492E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62A306A-4F73-40CB-9F82-1C78EDDCF911}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCaseMaster" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="147">
   <si>
     <t>TCID</t>
   </si>
@@ -355,9 +361,6 @@
     <t>com.darwinbox.leaves.LeaveSettings.FieldSettings.Verify_LeaveSetting_Restrict_WeekDays</t>
   </si>
   <si>
-    <t>com.darwinbox.leaves.LeaveSettings.FieldSettings.Over_Utilization.Create_LeavePolicy</t>
-  </si>
-  <si>
     <t>com.darwinbox.leaves.LeaveSettings.FieldSettings.Over_Utilization.Verify_OverUtilization</t>
   </si>
   <si>
@@ -372,6 +375,123 @@
       </rPr>
       <t>Verify_FieldSetting_Max_Leaves_per_Month</t>
     </r>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.LeaveSettings.Over_Utilization.Create_LeavePolicy</t>
+  </si>
+  <si>
+    <t>LeaveApplicaton</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Application//LeaveApplication.xlsx</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Application.Restrictions</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Application.MandatoryFields</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Application.LeaveApplicationLimitations</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Application.LeaveValidity</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>10,11,12,14</t>
+  </si>
+  <si>
+    <t>Allow Half Day</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Application.HalfDay</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>21,22,23,24,25,26</t>
+  </si>
+  <si>
+    <t>15,16,17,18,19,20,21</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>Clubbing</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Application.Clubbing</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Application.CountIntervening</t>
+  </si>
+  <si>
+    <t>Count Intervening</t>
+  </si>
+  <si>
+    <t>CountIntervening</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Application.OverUtilization</t>
+  </si>
+  <si>
+    <t>OverUtilizationScenarioes</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>Prefix Suffix</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Application.Prefix_Suffix</t>
+  </si>
+  <si>
+    <t>PrefixSuffix</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>SandwitchLeaves</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Application.SandwitchLeaves</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>LeaveApprovalFlow</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.LeavesApprovalFlow</t>
+  </si>
+  <si>
+    <t>ApprovalFlow//ApprovalFlow.xlsx</t>
+  </si>
+  <si>
+    <t>CreateApprovalFlow</t>
   </si>
 </sst>
 </file>
@@ -411,8 +531,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -727,27 +848,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.21875"/>
+    <col min="1" max="1" width="8.21875" style="1"/>
     <col min="2" max="2" width="44.44140625" customWidth="1"/>
     <col min="3" max="3" width="45.44140625" customWidth="1"/>
     <col min="4" max="4" width="93.33203125" customWidth="1"/>
     <col min="5" max="5" width="40.6640625"/>
     <col min="6" max="6" width="25.33203125" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875"/>
+    <col min="7" max="7" width="11.6640625" style="1" customWidth="1"/>
     <col min="8" max="1023" width="8.21875"/>
     <col min="1024" max="1025" width="8.5546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -765,12 +886,12 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
@@ -788,12 +909,12 @@
       <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B3" t="s">
@@ -811,12 +932,12 @@
       <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B4" t="s">
@@ -834,12 +955,12 @@
       <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B5" t="s">
@@ -857,12 +978,12 @@
       <c r="F5" t="s">
         <v>25</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B6" t="s">
@@ -880,12 +1001,12 @@
       <c r="F6" t="s">
         <v>25</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B7" t="s">
@@ -903,12 +1024,12 @@
       <c r="F7" t="s">
         <v>25</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B8" t="s">
@@ -926,12 +1047,12 @@
       <c r="F8" t="s">
         <v>25</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B9" t="s">
@@ -949,12 +1070,12 @@
       <c r="F9" t="s">
         <v>25</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B10" t="s">
@@ -972,12 +1093,12 @@
       <c r="F10" t="s">
         <v>25</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B11" t="s">
@@ -995,12 +1116,12 @@
       <c r="F11" t="s">
         <v>72</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B12" t="s">
@@ -1018,12 +1139,12 @@
       <c r="F12" t="s">
         <v>12</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B13" t="s">
@@ -1041,12 +1162,12 @@
       <c r="F13" t="s">
         <v>12</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B14" t="s">
@@ -1064,12 +1185,12 @@
       <c r="F14" t="s">
         <v>50</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B15" t="s">
@@ -1087,12 +1208,12 @@
       <c r="F15" t="s">
         <v>50</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B16" t="s">
@@ -1110,12 +1231,12 @@
       <c r="F16" t="s">
         <v>50</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B17" t="s">
@@ -1133,12 +1254,12 @@
       <c r="F17" t="s">
         <v>50</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B18" t="s">
@@ -1156,12 +1277,12 @@
       <c r="F18" t="s">
         <v>61</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B19" t="s">
@@ -1179,12 +1300,12 @@
       <c r="F19" t="s">
         <v>75</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B20" t="s">
@@ -1194,7 +1315,7 @@
         <v>76</v>
       </c>
       <c r="D20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E20" t="s">
         <v>100</v>
@@ -1202,12 +1323,12 @@
       <c r="F20" t="s">
         <v>77</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B21" t="s">
@@ -1225,12 +1346,12 @@
       <c r="F21" t="s">
         <v>79</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B22" t="s">
@@ -1248,12 +1369,12 @@
       <c r="F22" t="s">
         <v>82</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B23" t="s">
@@ -1271,12 +1392,12 @@
       <c r="F23" t="s">
         <v>84</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B24" t="s">
@@ -1294,12 +1415,12 @@
       <c r="F24" t="s">
         <v>86</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B25" t="s">
@@ -1309,7 +1430,7 @@
         <v>74</v>
       </c>
       <c r="D25" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E25" t="s">
         <v>88</v>
@@ -1317,12 +1438,12 @@
       <c r="F25" t="s">
         <v>89</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B26" t="s">
@@ -1332,7 +1453,7 @@
         <v>90</v>
       </c>
       <c r="D26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E26" t="s">
         <v>88</v>
@@ -1340,7 +1461,260 @@
       <c r="F26" t="s">
         <v>91</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" t="s">
+        <v>111</v>
+      </c>
+      <c r="F27" t="s">
+        <v>89</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28" t="s">
+        <v>111</v>
+      </c>
+      <c r="F28" t="s">
+        <v>89</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" t="s">
+        <v>89</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E30" t="s">
+        <v>111</v>
+      </c>
+      <c r="F30" t="s">
+        <v>89</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31" t="s">
+        <v>111</v>
+      </c>
+      <c r="F31" t="s">
+        <v>89</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" t="s">
+        <v>111</v>
+      </c>
+      <c r="F32" t="s">
+        <v>126</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" t="s">
+        <v>129</v>
+      </c>
+      <c r="E33" t="s">
+        <v>111</v>
+      </c>
+      <c r="F33" t="s">
+        <v>131</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" t="s">
+        <v>136</v>
+      </c>
+      <c r="D34" t="s">
+        <v>137</v>
+      </c>
+      <c r="E34" t="s">
+        <v>111</v>
+      </c>
+      <c r="F34" t="s">
+        <v>138</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" t="s">
+        <v>133</v>
+      </c>
+      <c r="E35" t="s">
+        <v>111</v>
+      </c>
+      <c r="F35" t="s">
+        <v>134</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" t="s">
+        <v>140</v>
+      </c>
+      <c r="D36" t="s">
+        <v>141</v>
+      </c>
+      <c r="E36" t="s">
+        <v>111</v>
+      </c>
+      <c r="F36" t="s">
+        <v>140</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" t="s">
+        <v>143</v>
+      </c>
+      <c r="D37" t="s">
+        <v>144</v>
+      </c>
+      <c r="E37" t="s">
+        <v>145</v>
+      </c>
+      <c r="F37" t="s">
+        <v>146</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/leave/src/main/resources/Sanity.xlsx
+++ b/leave/src/main/resources/Sanity.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Master\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62A306A-4F73-40CB-9F82-1C78EDDCF911}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2691F851-7473-4880-A25D-7E8A5FFD4068}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -850,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/leave/src/main/resources/Sanity.xlsx
+++ b/leave/src/main/resources/Sanity.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Master\Automation_Project\leave\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\OneDrive\Desktop\Backup\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2691F851-7473-4880-A25D-7E8A5FFD4068}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{A62A306A-4F73-40CB-9F82-1C78EDDCF911}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{4067A018-5F84-45A0-B8C0-379E92AF4047}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="151">
   <si>
     <t>TCID</t>
   </si>
@@ -492,6 +492,18 @@
   </si>
   <si>
     <t>CreateApprovalFlow</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>LeaveBalance</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.Custom.LeaveBalance</t>
+  </si>
+  <si>
+    <t>Accural//LeaveBalance.xlsx</t>
   </si>
 </sst>
 </file>
@@ -848,10 +860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="D20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1718,6 +1730,29 @@
         <v>13</v>
       </c>
     </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" t="s">
+        <v>148</v>
+      </c>
+      <c r="D38" t="s">
+        <v>149</v>
+      </c>
+      <c r="E38" t="s">
+        <v>150</v>
+      </c>
+      <c r="F38" t="s">
+        <v>148</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>

--- a/leave/src/main/resources/Sanity.xlsx
+++ b/leave/src/main/resources/Sanity.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\OneDrive\Desktop\Backup\Automation_Project\leave\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{A62A306A-4F73-40CB-9F82-1C78EDDCF911}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{4067A018-5F84-45A0-B8C0-379E92AF4047}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F10BA4-DA7F-4511-BF6A-29AD4213A9EB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="168">
   <si>
     <t>TCID</t>
   </si>
@@ -504,6 +504,57 @@
   </si>
   <si>
     <t>Accural//LeaveBalance.xlsx</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>DeactivationLeaveBalance</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.Custom.DeactivationBalance</t>
+  </si>
+  <si>
+    <t>deactivation//Leave_Scenarios_Without_Creation.xlsx</t>
+  </si>
+  <si>
+    <t>All_without_Creation</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>CarryForwardBalance</t>
+  </si>
+  <si>
+    <t>Carry Forward Balance -Custom Leave Cycle</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.Custom.CarryForwardBalance</t>
+  </si>
+  <si>
+    <t>Accural//CarryForward.xlsx</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Tenure</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.TenureLeave.Verify_Tenure_Leave_Balance_of_an_employee</t>
+  </si>
+  <si>
+    <t>TenureLeaveBalance//Tenure_Leave_Scenarios.xlsx</t>
+  </si>
+  <si>
+    <t>All_Without_Probation</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.Custom.LeaveBalance_48EmployeeCreation</t>
+  </si>
+  <si>
+    <t>42</t>
   </si>
 </sst>
 </file>
@@ -860,10 +911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1753,6 +1804,98 @@
         <v>13</v>
       </c>
     </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B39" t="s">
+        <v>152</v>
+      </c>
+      <c r="C39" t="s">
+        <v>152</v>
+      </c>
+      <c r="D39" t="s">
+        <v>153</v>
+      </c>
+      <c r="E39" t="s">
+        <v>154</v>
+      </c>
+      <c r="F39" t="s">
+        <v>155</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B40" t="s">
+        <v>157</v>
+      </c>
+      <c r="C40" t="s">
+        <v>158</v>
+      </c>
+      <c r="D40" t="s">
+        <v>159</v>
+      </c>
+      <c r="E40" t="s">
+        <v>160</v>
+      </c>
+      <c r="F40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B41" t="s">
+        <v>162</v>
+      </c>
+      <c r="C41" t="s">
+        <v>162</v>
+      </c>
+      <c r="D41" t="s">
+        <v>163</v>
+      </c>
+      <c r="E41" t="s">
+        <v>164</v>
+      </c>
+      <c r="F41" t="s">
+        <v>165</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B42" t="s">
+        <v>148</v>
+      </c>
+      <c r="C42" t="s">
+        <v>148</v>
+      </c>
+      <c r="D42" t="s">
+        <v>166</v>
+      </c>
+      <c r="E42" t="s">
+        <v>150</v>
+      </c>
+      <c r="F42" t="s">
+        <v>148</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>

--- a/leave/src/main/resources/Sanity.xlsx
+++ b/leave/src/main/resources/Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F10BA4-DA7F-4511-BF6A-29AD4213A9EB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BFCDC4A-E594-4396-9AD9-F1DAF7FA34CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -914,7 +914,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/leave/src/main/resources/Sanity.xlsx
+++ b/leave/src/main/resources/Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BFCDC4A-E594-4396-9AD9-F1DAF7FA34CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3BA71B-8A35-4D38-95D0-CA6F1C8E0105}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="171">
   <si>
     <t>TCID</t>
   </si>
@@ -555,6 +555,15 @@
   </si>
   <si>
     <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.Custom.WorkingDays</t>
+  </si>
+  <si>
+    <t>Accural//WorkingDays.xlsx</t>
   </si>
 </sst>
 </file>
@@ -911,10 +920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="C17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1896,6 +1905,29 @@
         <v>13</v>
       </c>
     </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" t="s">
+        <v>169</v>
+      </c>
+      <c r="E43" t="s">
+        <v>170</v>
+      </c>
+      <c r="F43" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>

--- a/leave/src/main/resources/Sanity.xlsx
+++ b/leave/src/main/resources/Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3BA71B-8A35-4D38-95D0-CA6F1C8E0105}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32106CFB-42B8-45DF-8AAD-7C4ACAFF5444}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -506,18 +506,9 @@
     <t>Accural//LeaveBalance.xlsx</t>
   </si>
   <si>
-    <t>39</t>
-  </si>
-  <si>
     <t>DeactivationLeaveBalance</t>
   </si>
   <si>
-    <t>com.darwinbox.leaves.Accural.Custom.DeactivationBalance</t>
-  </si>
-  <si>
-    <t>deactivation//Leave_Scenarios_Without_Creation.xlsx</t>
-  </si>
-  <si>
     <t>All_without_Creation</t>
   </si>
   <si>
@@ -564,6 +555,15 @@
   </si>
   <si>
     <t>Accural//WorkingDays.xlsx</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.Custom.Deactivation</t>
+  </si>
+  <si>
+    <t>Accural//Deactivation.xlsx</t>
   </si>
 </sst>
 </file>
@@ -922,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1815,22 +1815,22 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B39" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C39" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D39" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E39" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F39" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>13</v>
@@ -1838,22 +1838,22 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B40" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C40" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D40" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E40" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>13</v>
@@ -1861,22 +1861,22 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B41" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="C41" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="D41" t="s">
         <v>163</v>
       </c>
       <c r="E41" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="F41" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>13</v>
@@ -1884,22 +1884,22 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B42" t="s">
-        <v>148</v>
+        <v>21</v>
       </c>
       <c r="C42" t="s">
-        <v>148</v>
+        <v>21</v>
       </c>
       <c r="D42" t="s">
         <v>166</v>
       </c>
       <c r="E42" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="F42" t="s">
-        <v>148</v>
+        <v>25</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>13</v>
@@ -1910,10 +1910,10 @@
         <v>168</v>
       </c>
       <c r="B43" t="s">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="C43" t="s">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="D43" t="s">
         <v>169</v>
@@ -1922,7 +1922,7 @@
         <v>170</v>
       </c>
       <c r="F43" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>13</v>

--- a/leave/src/main/resources/Sanity.xlsx
+++ b/leave/src/main/resources/Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32106CFB-42B8-45DF-8AAD-7C4ACAFF5444}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887AEED9-5848-4A76-AB3A-219EAE7F8D58}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="172">
   <si>
     <t>TCID</t>
   </si>
@@ -564,6 +564,9 @@
   </si>
   <si>
     <t>Accural//Deactivation.xlsx</t>
+  </si>
+  <si>
+    <t>dummySheet</t>
   </si>
 </sst>
 </file>
@@ -922,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD39"/>
+    <sheetView tabSelected="1" topLeftCell="D28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1876,7 +1879,7 @@
         <v>150</v>
       </c>
       <c r="F41" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>13</v>

--- a/leave/src/main/resources/Sanity.xlsx
+++ b/leave/src/main/resources/Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887AEED9-5848-4A76-AB3A-219EAE7F8D58}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E528E1-EFBF-49F0-8C9B-6EC4F2642E5A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -521,9 +521,6 @@
     <t>Carry Forward Balance -Custom Leave Cycle</t>
   </si>
   <si>
-    <t>com.darwinbox.leaves.Accural.Custom.CarryForwardBalance</t>
-  </si>
-  <si>
     <t>Accural//CarryForward.xlsx</t>
   </si>
   <si>
@@ -567,6 +564,9 @@
   </si>
   <si>
     <t>dummySheet</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.Custom.CarryForward</t>
   </si>
 </sst>
 </file>
@@ -926,7 +926,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1827,10 +1827,10 @@
         <v>155</v>
       </c>
       <c r="D39" t="s">
+        <v>171</v>
+      </c>
+      <c r="E39" t="s">
         <v>156</v>
-      </c>
-      <c r="E39" t="s">
-        <v>157</v>
       </c>
       <c r="F39" t="s">
         <v>12</v>
@@ -1841,22 +1841,22 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B40" t="s">
         <v>158</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
+        <v>158</v>
+      </c>
+      <c r="D40" t="s">
         <v>159</v>
       </c>
-      <c r="C40" t="s">
-        <v>159</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>160</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>161</v>
-      </c>
-      <c r="F40" t="s">
-        <v>162</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>13</v>
@@ -1864,7 +1864,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B41" t="s">
         <v>148</v>
@@ -1873,13 +1873,13 @@
         <v>148</v>
       </c>
       <c r="D41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E41" t="s">
         <v>150</v>
       </c>
       <c r="F41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>13</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B42" t="s">
         <v>21</v>
@@ -1896,10 +1896,10 @@
         <v>21</v>
       </c>
       <c r="D42" t="s">
+        <v>165</v>
+      </c>
+      <c r="E42" t="s">
         <v>166</v>
-      </c>
-      <c r="E42" t="s">
-        <v>167</v>
       </c>
       <c r="F42" t="s">
         <v>25</v>
@@ -1910,7 +1910,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B43" t="s">
         <v>151</v>
@@ -1919,10 +1919,10 @@
         <v>151</v>
       </c>
       <c r="D43" t="s">
+        <v>168</v>
+      </c>
+      <c r="E43" t="s">
         <v>169</v>
-      </c>
-      <c r="E43" t="s">
-        <v>170</v>
       </c>
       <c r="F43" t="s">
         <v>152</v>

--- a/leave/src/main/resources/Sanity.xlsx
+++ b/leave/src/main/resources/Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E528E1-EFBF-49F0-8C9B-6EC4F2642E5A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E1FA73-FC22-4336-8B14-B06ADA0EB5B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -530,12 +530,6 @@
     <t>Tenure</t>
   </si>
   <si>
-    <t>com.darwinbox.leaves.TenureLeave.Verify_Tenure_Leave_Balance_of_an_employee</t>
-  </si>
-  <si>
-    <t>TenureLeaveBalance//Tenure_Leave_Scenarios.xlsx</t>
-  </si>
-  <si>
     <t>All_Without_Probation</t>
   </si>
   <si>
@@ -567,6 +561,12 @@
   </si>
   <si>
     <t>com.darwinbox.leaves.Accural.Custom.CarryForward</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.Custom.Tenure</t>
+  </si>
+  <si>
+    <t>Accural//Tenure_Leave_Scenarios.xlsx</t>
   </si>
 </sst>
 </file>
@@ -925,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="C28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1827,7 +1827,7 @@
         <v>155</v>
       </c>
       <c r="D39" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E39" t="s">
         <v>156</v>
@@ -1850,13 +1850,13 @@
         <v>158</v>
       </c>
       <c r="D40" t="s">
+        <v>170</v>
+      </c>
+      <c r="E40" t="s">
+        <v>171</v>
+      </c>
+      <c r="F40" t="s">
         <v>159</v>
-      </c>
-      <c r="E40" t="s">
-        <v>160</v>
-      </c>
-      <c r="F40" t="s">
-        <v>161</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>13</v>
@@ -1864,7 +1864,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B41" t="s">
         <v>148</v>
@@ -1873,13 +1873,13 @@
         <v>148</v>
       </c>
       <c r="D41" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E41" t="s">
         <v>150</v>
       </c>
       <c r="F41" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>13</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B42" t="s">
         <v>21</v>
@@ -1896,10 +1896,10 @@
         <v>21</v>
       </c>
       <c r="D42" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E42" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F42" t="s">
         <v>25</v>
@@ -1910,7 +1910,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B43" t="s">
         <v>151</v>
@@ -1919,10 +1919,10 @@
         <v>151</v>
       </c>
       <c r="D43" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E43" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F43" t="s">
         <v>152</v>

--- a/leave/src/main/resources/Sanity.xlsx
+++ b/leave/src/main/resources/Sanity.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E1FA73-FC22-4336-8B14-B06ADA0EB5B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6760CEF4-7137-4A13-81C1-77D1420E3005}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="170">
   <si>
     <t>TCID</t>
   </si>
@@ -177,36 +177,12 @@
     <t>Multiple Allotment</t>
   </si>
   <si>
-    <t>com.darwinbox.leaves.MultipleAllotment.Verify_Multiple_Allotment_Leave_Transfer_Balance_of_an_employee</t>
-  </si>
-  <si>
-    <t>MultipleAllotment//MultipleLeaveAllotment.xlsx</t>
-  </si>
-  <si>
-    <t>Run_All</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
-    <t>com.darwinbox.leaves.MultipleAllotment.Verify_Multiple_Allotment_Leave_Transfer_Balance_on_Day_Of_Transfer</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
-    <t>com.darwinbox.leaves.MultipleAllotment.Create_Leaves_for_Multiple_Allotment_Leave_Transfer</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>com.darwinbox.leaves.MultipleAllotment.Verify_Multiple_Allotment_Leave_Transfer_Balance_In_MultipleTransfers</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>Leave Transfer</t>
   </si>
   <si>
@@ -217,21 +193,6 @@
   </si>
   <si>
     <t>All_Scenarios_LTB</t>
-  </si>
-  <si>
-    <t>Create Multiple Allotment Data</t>
-  </si>
-  <si>
-    <t>Multiple Transfer</t>
-  </si>
-  <si>
-    <t>Check on Day of Transfer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiple Allotment Leave Transfer </t>
-  </si>
-  <si>
-    <t>16</t>
   </si>
   <si>
     <t>Create Carry Forward Test Data</t>
@@ -568,12 +529,45 @@
   <si>
     <t>Accural//Tenure_Leave_Scenarios.xlsx</t>
   </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.Custom.MutlipleAllotment</t>
+  </si>
+  <si>
+    <t>Accural//MultipleLeaveAllotment.xlsx</t>
+  </si>
+  <si>
+    <t>Leave Encashment</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Application.LeaveEncashment</t>
+  </si>
+  <si>
+    <t>LeaveEncashment</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>Multiple Allotment_P</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.Custom.MutlipleAllotment_P</t>
+  </si>
+  <si>
+    <t>Accural//MultipleLeaveAllotment_P.xlsx</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -584,6 +578,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -923,10 +923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="D11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1177,19 +1177,19 @@
         <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
         <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>13</v>
@@ -1203,10 +1203,10 @@
         <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
         <v>45</v>
@@ -1220,7 +1220,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
         <v>42</v>
@@ -1243,22 +1243,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" t="s">
         <v>53</v>
-      </c>
-      <c r="B14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" t="s">
-        <v>50</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>13</v>
@@ -1266,22 +1266,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="F15" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>13</v>
@@ -1289,22 +1289,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="F16" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>13</v>
@@ -1312,22 +1312,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" t="s">
         <v>66</v>
-      </c>
-      <c r="B17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" t="s">
-        <v>50</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>13</v>
@@ -1335,22 +1335,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" t="s">
         <v>69</v>
-      </c>
-      <c r="B18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" t="s">
-        <v>61</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>13</v>
@@ -1358,22 +1358,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D19" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E19" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="F19" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>13</v>
@@ -1381,22 +1381,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" t="s">
         <v>73</v>
-      </c>
-      <c r="C20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" t="s">
-        <v>107</v>
-      </c>
-      <c r="E20" t="s">
-        <v>100</v>
-      </c>
-      <c r="F20" t="s">
-        <v>77</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>13</v>
@@ -1404,22 +1404,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E21" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F21" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>13</v>
@@ -1427,22 +1427,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D22" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E22" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F22" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>13</v>
@@ -1450,186 +1450,186 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" t="s">
         <v>96</v>
       </c>
-      <c r="B23" t="s">
-        <v>73</v>
-      </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D23" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F23" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D24" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F24" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" t="s">
         <v>98</v>
       </c>
-      <c r="B25" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" t="s">
-        <v>108</v>
-      </c>
-      <c r="E25" t="s">
-        <v>88</v>
-      </c>
       <c r="F25" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D26" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E26" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="F26" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="B27" t="s">
-        <v>109</v>
-      </c>
-      <c r="C27" t="s">
-        <v>109</v>
-      </c>
-      <c r="D27" t="s">
-        <v>112</v>
-      </c>
-      <c r="E27" t="s">
-        <v>111</v>
-      </c>
-      <c r="F27" t="s">
-        <v>89</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B28" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C28" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D28" t="s">
         <v>114</v>
       </c>
       <c r="E28" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="F28" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>119</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" t="s">
         <v>117</v>
       </c>
-      <c r="B29" t="s">
-        <v>109</v>
-      </c>
-      <c r="C29" t="s">
-        <v>109</v>
-      </c>
       <c r="D29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E29" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="F29" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>124</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B30" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C30" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="D30" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E30" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="F30" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1637,42 +1637,42 @@
         <v>122</v>
       </c>
       <c r="B31" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" t="s">
         <v>120</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31" t="s">
         <v>121</v>
       </c>
-      <c r="E31" t="s">
-        <v>111</v>
-      </c>
-      <c r="F31" t="s">
-        <v>89</v>
-      </c>
       <c r="G31" s="1" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B32" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C32" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D32" t="s">
+        <v>128</v>
+      </c>
+      <c r="E32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F32" t="s">
         <v>127</v>
-      </c>
-      <c r="E32" t="s">
-        <v>111</v>
-      </c>
-      <c r="F32" t="s">
-        <v>126</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>13</v>
@@ -1680,22 +1680,22 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B33" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="C33" t="s">
         <v>130</v>
       </c>
       <c r="D33" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E33" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="F33" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>13</v>
@@ -1703,22 +1703,22 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B34" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="C34" t="s">
+        <v>135</v>
+      </c>
+      <c r="D34" t="s">
         <v>136</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>137</v>
       </c>
-      <c r="E34" t="s">
-        <v>111</v>
-      </c>
       <c r="F34" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>13</v>
@@ -1726,22 +1726,22 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B35" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="C35" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="D35" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="E35" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="F35" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>13</v>
@@ -1749,22 +1749,22 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="C36" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D36" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="E36" t="s">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="F36" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>13</v>
@@ -1772,22 +1772,22 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B37" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C37" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D37" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E37" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F37" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>13</v>
@@ -1795,22 +1795,22 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B38" t="s">
-        <v>148</v>
+        <v>21</v>
       </c>
       <c r="C38" t="s">
-        <v>148</v>
+        <v>21</v>
       </c>
       <c r="D38" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E38" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F38" t="s">
-        <v>148</v>
+        <v>25</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>13</v>
@@ -1818,22 +1818,22 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B39" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39" t="s">
+        <v>138</v>
+      </c>
+      <c r="D39" t="s">
         <v>153</v>
       </c>
-      <c r="B39" t="s">
+      <c r="E39" t="s">
         <v>154</v>
       </c>
-      <c r="C39" t="s">
-        <v>155</v>
-      </c>
-      <c r="D39" t="s">
-        <v>169</v>
-      </c>
-      <c r="E39" t="s">
-        <v>156</v>
-      </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>13</v>
@@ -1841,22 +1841,22 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B40" t="s">
-        <v>158</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>158</v>
+        <v>47</v>
       </c>
       <c r="D40" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E40" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F40" t="s">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>13</v>
@@ -1864,22 +1864,22 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B41" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="C41" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="D41" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E41" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="F41" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>13</v>
@@ -1887,51 +1887,29 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B42" t="s">
-        <v>21</v>
+        <v>167</v>
       </c>
       <c r="C42" t="s">
-        <v>21</v>
+        <v>167</v>
       </c>
       <c r="D42" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E42" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="F42" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B43" t="s">
-        <v>151</v>
-      </c>
-      <c r="C43" t="s">
-        <v>151</v>
-      </c>
-      <c r="D43" t="s">
-        <v>166</v>
-      </c>
-      <c r="E43" t="s">
-        <v>167</v>
-      </c>
-      <c r="F43" t="s">
-        <v>152</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter>

--- a/leave/src/main/resources/Sanity.xlsx
+++ b/leave/src/main/resources/Sanity.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\OneDrive\Desktop\core-automation\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6760CEF4-7137-4A13-81C1-77D1420E3005}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{6760CEF4-7137-4A13-81C1-77D1420E3005}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D59E1B66-D26A-4F43-93E5-895EE609BE19}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="174">
   <si>
     <t>TCID</t>
   </si>
@@ -561,6 +561,18 @@
   </si>
   <si>
     <t>Accural//MultipleLeaveAllotment_P.xlsx</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>OverUtilization_Hourly</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Application.OverUtilization_Hourly</t>
+  </si>
+  <si>
+    <t>OverUtilizationScenarioesHourly</t>
   </si>
 </sst>
 </file>
@@ -923,10 +935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" topLeftCell="D14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -936,7 +948,7 @@
     <col min="3" max="3" width="45.44140625" customWidth="1"/>
     <col min="4" max="4" width="93.33203125" customWidth="1"/>
     <col min="5" max="5" width="40.6640625"/>
-    <col min="6" max="6" width="25.33203125" customWidth="1"/>
+    <col min="6" max="6" width="30.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" style="1" customWidth="1"/>
     <col min="8" max="1023" width="8.21875"/>
     <col min="1024" max="1025" width="8.5546875"/>
@@ -1905,6 +1917,29 @@
         <v>12</v>
       </c>
       <c r="G42" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" t="s">
+        <v>171</v>
+      </c>
+      <c r="D43" t="s">
+        <v>172</v>
+      </c>
+      <c r="E43" t="s">
+        <v>98</v>
+      </c>
+      <c r="F43" t="s">
+        <v>173</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/leave/src/main/resources/Sanity.xlsx
+++ b/leave/src/main/resources/Sanity.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\OneDrive\Desktop\core-automation\Automation_Project\leave\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Master\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{6760CEF4-7137-4A13-81C1-77D1420E3005}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D59E1B66-D26A-4F43-93E5-895EE609BE19}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4B28BA-1D9A-4DEF-B95F-588B39B2A68A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="178">
   <si>
     <t>TCID</t>
   </si>
@@ -573,6 +573,18 @@
   </si>
   <si>
     <t>OverUtilizationScenarioesHourly</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Application.TestLeavePolicyCreation</t>
+  </si>
+  <si>
+    <t>LeavePolicy Creation</t>
+  </si>
+  <si>
+    <t>Leave Policy Creation</t>
+  </si>
+  <si>
+    <t>49</t>
   </si>
 </sst>
 </file>
@@ -935,10 +947,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1943,6 +1955,29 @@
         <v>13</v>
       </c>
     </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B44" t="s">
+        <v>175</v>
+      </c>
+      <c r="C44" t="s">
+        <v>176</v>
+      </c>
+      <c r="D44" t="s">
+        <v>174</v>
+      </c>
+      <c r="E44" t="s">
+        <v>98</v>
+      </c>
+      <c r="F44" t="s">
+        <v>155</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/leave/src/main/resources/Sanity.xlsx
+++ b/leave/src/main/resources/Sanity.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Master\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4B28BA-1D9A-4DEF-B95F-588B39B2A68A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A6EA69-2999-45B7-86DA-AC17F14E43F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="184">
   <si>
     <t>TCID</t>
   </si>
@@ -494,9 +494,6 @@
     <t>All_Without_Probation</t>
   </si>
   <si>
-    <t>com.darwinbox.leaves.Accural.Custom.LeaveBalance_48EmployeeCreation</t>
-  </si>
-  <si>
     <t>42</t>
   </si>
   <si>
@@ -585,6 +582,27 @@
   </si>
   <si>
     <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.Custom.LeaveBalance_48EmployeeCreation_1_25</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.Custom.LeaveBalance_48EmployeeCreation_26_41</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.Custom.LeaveBalance_48EmployeeCreation_83_100</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.Custom.LeaveBalance_48EmployeeCreation_100_123</t>
   </si>
 </sst>
 </file>
@@ -947,10 +965,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1759,7 +1777,7 @@
         <v>142</v>
       </c>
       <c r="D35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E35" t="s">
         <v>143</v>
@@ -1782,10 +1800,10 @@
         <v>145</v>
       </c>
       <c r="D36" t="s">
+        <v>156</v>
+      </c>
+      <c r="E36" t="s">
         <v>157</v>
-      </c>
-      <c r="E36" t="s">
-        <v>158</v>
       </c>
       <c r="F36" t="s">
         <v>146</v>
@@ -1796,7 +1814,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B37" t="s">
         <v>135</v>
@@ -1805,13 +1823,13 @@
         <v>135</v>
       </c>
       <c r="D37" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="E37" t="s">
         <v>137</v>
       </c>
       <c r="F37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>13</v>
@@ -1819,22 +1837,22 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="C38" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="D38" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="E38" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="F38" t="s">
-        <v>25</v>
+        <v>154</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>13</v>
@@ -1842,22 +1860,22 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B39" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C39" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D39" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="E39" t="s">
+        <v>137</v>
+      </c>
+      <c r="F39" t="s">
         <v>154</v>
-      </c>
-      <c r="F39" t="s">
-        <v>139</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>13</v>
@@ -1865,22 +1883,22 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="C40" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="D40" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="E40" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>13</v>
@@ -1888,22 +1906,22 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B41" t="s">
-        <v>162</v>
+        <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="D41" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="E41" t="s">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="F41" t="s">
-        <v>164</v>
+        <v>25</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>13</v>
@@ -1911,22 +1929,22 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B42" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="C42" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="D42" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="E42" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>13</v>
@@ -1934,22 +1952,22 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B43" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>171</v>
+        <v>47</v>
       </c>
       <c r="D43" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="E43" t="s">
-        <v>98</v>
+        <v>160</v>
       </c>
       <c r="F43" t="s">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>13</v>
@@ -1957,24 +1975,93 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B44" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="C44" t="s">
-        <v>176</v>
+        <v>47</v>
       </c>
       <c r="D44" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="E44" t="s">
         <v>98</v>
       </c>
       <c r="F44" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="G44" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B45" t="s">
+        <v>166</v>
+      </c>
+      <c r="C45" t="s">
+        <v>166</v>
+      </c>
+      <c r="D45" t="s">
+        <v>167</v>
+      </c>
+      <c r="E45" t="s">
+        <v>168</v>
+      </c>
+      <c r="F45" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" t="s">
+        <v>170</v>
+      </c>
+      <c r="D46" t="s">
+        <v>171</v>
+      </c>
+      <c r="E46" t="s">
+        <v>98</v>
+      </c>
+      <c r="F46" t="s">
+        <v>172</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B47" t="s">
+        <v>174</v>
+      </c>
+      <c r="C47" t="s">
+        <v>175</v>
+      </c>
+      <c r="D47" t="s">
+        <v>173</v>
+      </c>
+      <c r="E47" t="s">
+        <v>98</v>
+      </c>
+      <c r="F47" t="s">
+        <v>154</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/leave/src/main/resources/Sanity.xlsx
+++ b/leave/src/main/resources/Sanity.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Master\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A6EA69-2999-45B7-86DA-AC17F14E43F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4B28BA-1D9A-4DEF-B95F-588B39B2A68A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="178">
   <si>
     <t>TCID</t>
   </si>
@@ -494,6 +494,9 @@
     <t>All_Without_Probation</t>
   </si>
   <si>
+    <t>com.darwinbox.leaves.Accural.Custom.LeaveBalance_48EmployeeCreation</t>
+  </si>
+  <si>
     <t>42</t>
   </si>
   <si>
@@ -582,27 +585,6 @@
   </si>
   <si>
     <t>49</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>com.darwinbox.leaves.Accural.Custom.LeaveBalance_48EmployeeCreation_1_25</t>
-  </si>
-  <si>
-    <t>com.darwinbox.leaves.Accural.Custom.LeaveBalance_48EmployeeCreation_26_41</t>
-  </si>
-  <si>
-    <t>com.darwinbox.leaves.Accural.Custom.LeaveBalance_48EmployeeCreation_83_100</t>
-  </si>
-  <si>
-    <t>com.darwinbox.leaves.Accural.Custom.LeaveBalance_48EmployeeCreation_100_123</t>
   </si>
 </sst>
 </file>
@@ -965,10 +947,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1777,7 +1759,7 @@
         <v>142</v>
       </c>
       <c r="D35" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E35" t="s">
         <v>143</v>
@@ -1800,10 +1782,10 @@
         <v>145</v>
       </c>
       <c r="D36" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E36" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F36" t="s">
         <v>146</v>
@@ -1814,7 +1796,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B37" t="s">
         <v>135</v>
@@ -1823,13 +1805,13 @@
         <v>135</v>
       </c>
       <c r="D37" t="s">
-        <v>180</v>
+        <v>147</v>
       </c>
       <c r="E37" t="s">
         <v>137</v>
       </c>
       <c r="F37" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>13</v>
@@ -1837,22 +1819,22 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B38" t="s">
-        <v>135</v>
+        <v>21</v>
       </c>
       <c r="C38" t="s">
-        <v>135</v>
+        <v>21</v>
       </c>
       <c r="D38" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="E38" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="F38" t="s">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>13</v>
@@ -1860,22 +1842,22 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B39" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C39" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D39" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="E39" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="F39" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>13</v>
@@ -1883,22 +1865,22 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B40" t="s">
-        <v>135</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>135</v>
+        <v>47</v>
       </c>
       <c r="D40" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="E40" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="F40" t="s">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>13</v>
@@ -1906,22 +1888,22 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B41" t="s">
+        <v>162</v>
+      </c>
+      <c r="C41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" t="s">
+        <v>163</v>
+      </c>
+      <c r="E41" t="s">
+        <v>98</v>
+      </c>
+      <c r="F41" t="s">
         <v>164</v>
-      </c>
-      <c r="B41" t="s">
-        <v>21</v>
-      </c>
-      <c r="C41" t="s">
-        <v>21</v>
-      </c>
-      <c r="D41" t="s">
-        <v>149</v>
-      </c>
-      <c r="E41" t="s">
-        <v>150</v>
-      </c>
-      <c r="F41" t="s">
-        <v>25</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>13</v>
@@ -1929,22 +1911,22 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B42" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="C42" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="D42" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="E42" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="F42" t="s">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>13</v>
@@ -1952,22 +1934,22 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="C43" t="s">
-        <v>47</v>
+        <v>171</v>
       </c>
       <c r="D43" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="E43" t="s">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>173</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>13</v>
@@ -1975,93 +1957,24 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B44" t="s">
+        <v>175</v>
+      </c>
+      <c r="C44" t="s">
         <v>176</v>
       </c>
-      <c r="B44" t="s">
-        <v>161</v>
-      </c>
-      <c r="C44" t="s">
-        <v>47</v>
-      </c>
       <c r="D44" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="E44" t="s">
         <v>98</v>
       </c>
       <c r="F44" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B45" t="s">
-        <v>166</v>
-      </c>
-      <c r="C45" t="s">
-        <v>166</v>
-      </c>
-      <c r="D45" t="s">
-        <v>167</v>
-      </c>
-      <c r="E45" t="s">
-        <v>168</v>
-      </c>
-      <c r="F45" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B46" t="s">
-        <v>96</v>
-      </c>
-      <c r="C46" t="s">
-        <v>170</v>
-      </c>
-      <c r="D46" t="s">
-        <v>171</v>
-      </c>
-      <c r="E46" t="s">
-        <v>98</v>
-      </c>
-      <c r="F46" t="s">
-        <v>172</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B47" t="s">
-        <v>174</v>
-      </c>
-      <c r="C47" t="s">
-        <v>175</v>
-      </c>
-      <c r="D47" t="s">
-        <v>173</v>
-      </c>
-      <c r="E47" t="s">
-        <v>98</v>
-      </c>
-      <c r="F47" t="s">
-        <v>154</v>
-      </c>
-      <c r="G47" s="1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/leave/src/main/resources/Sanity.xlsx
+++ b/leave/src/main/resources/Sanity.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Master\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4B28BA-1D9A-4DEF-B95F-588B39B2A68A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8177304C-83A7-485A-991F-707E651A5901}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="188">
   <si>
     <t>TCID</t>
   </si>
@@ -494,9 +494,6 @@
     <t>All_Without_Probation</t>
   </si>
   <si>
-    <t>com.darwinbox.leaves.Accural.Custom.LeaveBalance_48EmployeeCreation</t>
-  </si>
-  <si>
     <t>42</t>
   </si>
   <si>
@@ -585,6 +582,39 @@
   </si>
   <si>
     <t>49</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.Custom.LeaveBalance_48EmployeeCreation_1_25</t>
+  </si>
+  <si>
+    <t>LeaveBalance_1_25</t>
+  </si>
+  <si>
+    <t>LeaveBalance_26_41</t>
+  </si>
+  <si>
+    <t>LeaveBalance_83_100</t>
+  </si>
+  <si>
+    <t>LeaveBalance_101_123</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.Custom.LeaveBalance_48EmployeeCreation_26_41</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.Custom.LeaveBalance_48EmployeeCreation_83_100</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.Custom.LeaveBalance_48EmployeeCreation_101_123</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
   </si>
 </sst>
 </file>
@@ -947,10 +977,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1759,7 +1789,7 @@
         <v>142</v>
       </c>
       <c r="D35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E35" t="s">
         <v>143</v>
@@ -1782,10 +1812,10 @@
         <v>145</v>
       </c>
       <c r="D36" t="s">
+        <v>156</v>
+      </c>
+      <c r="E36" t="s">
         <v>157</v>
-      </c>
-      <c r="E36" t="s">
-        <v>158</v>
       </c>
       <c r="F36" t="s">
         <v>146</v>
@@ -1796,22 +1826,22 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B37" t="s">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="C37" t="s">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="D37" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="E37" t="s">
         <v>137</v>
       </c>
       <c r="F37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>13</v>
@@ -1819,22 +1849,22 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>179</v>
       </c>
       <c r="C38" t="s">
-        <v>21</v>
+        <v>179</v>
       </c>
       <c r="D38" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="E38" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="F38" t="s">
-        <v>25</v>
+        <v>154</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>13</v>
@@ -1842,22 +1872,22 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B39" t="s">
-        <v>138</v>
+        <v>180</v>
       </c>
       <c r="C39" t="s">
-        <v>138</v>
+        <v>180</v>
       </c>
       <c r="D39" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="E39" t="s">
+        <v>137</v>
+      </c>
+      <c r="F39" t="s">
         <v>154</v>
-      </c>
-      <c r="F39" t="s">
-        <v>139</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>13</v>
@@ -1865,22 +1895,22 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>181</v>
       </c>
       <c r="C40" t="s">
-        <v>47</v>
+        <v>181</v>
       </c>
       <c r="D40" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="E40" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>13</v>
@@ -1888,22 +1918,22 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B41" t="s">
-        <v>162</v>
+        <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="D41" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="E41" t="s">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="F41" t="s">
-        <v>164</v>
+        <v>25</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>13</v>
@@ -1911,22 +1941,22 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B42" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="C42" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="D42" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="E42" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>13</v>
@@ -1934,22 +1964,22 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B43" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>171</v>
+        <v>47</v>
       </c>
       <c r="D43" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="E43" t="s">
-        <v>98</v>
+        <v>160</v>
       </c>
       <c r="F43" t="s">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>13</v>
@@ -1957,24 +1987,93 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B44" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="C44" t="s">
-        <v>176</v>
+        <v>47</v>
       </c>
       <c r="D44" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="E44" t="s">
         <v>98</v>
       </c>
       <c r="F44" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="G44" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B45" t="s">
+        <v>166</v>
+      </c>
+      <c r="C45" t="s">
+        <v>166</v>
+      </c>
+      <c r="D45" t="s">
+        <v>167</v>
+      </c>
+      <c r="E45" t="s">
+        <v>168</v>
+      </c>
+      <c r="F45" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" t="s">
+        <v>170</v>
+      </c>
+      <c r="D46" t="s">
+        <v>171</v>
+      </c>
+      <c r="E46" t="s">
+        <v>98</v>
+      </c>
+      <c r="F46" t="s">
+        <v>172</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B47" t="s">
+        <v>174</v>
+      </c>
+      <c r="C47" t="s">
+        <v>175</v>
+      </c>
+      <c r="D47" t="s">
+        <v>173</v>
+      </c>
+      <c r="E47" t="s">
+        <v>98</v>
+      </c>
+      <c r="F47" t="s">
+        <v>154</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/leave/src/main/resources/Sanity.xlsx
+++ b/leave/src/main/resources/Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Master\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8177304C-83A7-485A-991F-707E651A5901}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2227DA76-26FE-4903-B5E3-12474C2E8704}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="189">
   <si>
     <t>TCID</t>
   </si>
@@ -584,9 +584,6 @@
     <t>49</t>
   </si>
   <si>
-    <t>com.darwinbox.leaves.Accural.Custom.LeaveBalance_48EmployeeCreation_1_25</t>
-  </si>
-  <si>
     <t>LeaveBalance_1_25</t>
   </si>
   <si>
@@ -599,15 +596,6 @@
     <t>LeaveBalance_101_123</t>
   </si>
   <si>
-    <t>com.darwinbox.leaves.Accural.Custom.LeaveBalance_48EmployeeCreation_26_41</t>
-  </si>
-  <si>
-    <t>com.darwinbox.leaves.Accural.Custom.LeaveBalance_48EmployeeCreation_83_100</t>
-  </si>
-  <si>
-    <t>com.darwinbox.leaves.Accural.Custom.LeaveBalance_48EmployeeCreation_101_123</t>
-  </si>
-  <si>
     <t>50</t>
   </si>
   <si>
@@ -615,6 +603,21 @@
   </si>
   <si>
     <t>52</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.Custom.LeaveBalanceTests.LeaveBalance_48EmployeeCreation_1_25</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.Custom.LeaveBalanceTests.LeaveBalance_48EmployeeCreation_26_41</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.Custom.LeaveBalanceTests.LeaveBalance_48EmployeeCreation_83_100</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.Custom.LeaveBalanceTests.LeaveBalance_48EmployeeCreation_101_123</t>
+  </si>
+  <si>
+    <t>Accural//LeaveBalanceTests.xlsx</t>
   </si>
 </sst>
 </file>
@@ -979,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="D21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1829,16 +1832,16 @@
         <v>147</v>
       </c>
       <c r="B37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D37" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="E37" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="F37" t="s">
         <v>154</v>
@@ -1852,16 +1855,16 @@
         <v>148</v>
       </c>
       <c r="B38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D38" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E38" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="F38" t="s">
         <v>154</v>
@@ -1875,16 +1878,16 @@
         <v>151</v>
       </c>
       <c r="B39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D39" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E39" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="F39" t="s">
         <v>154</v>
@@ -1898,16 +1901,16 @@
         <v>158</v>
       </c>
       <c r="B40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D40" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E40" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="F40" t="s">
         <v>154</v>
@@ -2010,7 +2013,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B45" t="s">
         <v>166</v>
@@ -2033,7 +2036,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B46" t="s">
         <v>96</v>
@@ -2056,7 +2059,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B47" t="s">
         <v>174</v>

--- a/leave/src/main/resources/Sanity.xlsx
+++ b/leave/src/main/resources/Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Master\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2227DA76-26FE-4903-B5E3-12474C2E8704}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BFD497-EAFC-47B7-8073-8E91B2823B4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="192">
   <si>
     <t>TCID</t>
   </si>
@@ -618,6 +618,15 @@
   </si>
   <si>
     <t>Accural//LeaveBalanceTests.xlsx</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>CarryForwardBalance_Total</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.Custom.CarryForwardTests.CarryForwardWithBalance</t>
   </si>
 </sst>
 </file>
@@ -980,10 +989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2080,6 +2089,29 @@
         <v>13</v>
       </c>
     </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B48" t="s">
+        <v>190</v>
+      </c>
+      <c r="C48" t="s">
+        <v>142</v>
+      </c>
+      <c r="D48" t="s">
+        <v>191</v>
+      </c>
+      <c r="E48" t="s">
+        <v>143</v>
+      </c>
+      <c r="F48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/leave/src/main/resources/Sanity.xlsx
+++ b/leave/src/main/resources/Sanity.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Master\Automation_Project\leave\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Master\LeaveBalanceNotice\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2227DA76-26FE-4903-B5E3-12474C2E8704}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC49326-186F-4F8F-8058-00EB3822EBF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="195">
   <si>
     <t>TCID</t>
   </si>
@@ -618,6 +618,24 @@
   </si>
   <si>
     <t>Accural//LeaveBalanceTests.xlsx</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>CarryForwardBalance_Total</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.Custom.CarryForwardTests.CarryForwardWithBalance</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.Custom.LeaveBalanceTests.LeaveBalance_48EmployeeCreation_42_82</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>LeaveBalance_42_82</t>
   </si>
 </sst>
 </file>
@@ -980,10 +998,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1878,13 +1896,13 @@
         <v>151</v>
       </c>
       <c r="B39" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="C39" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="D39" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="E39" t="s">
         <v>188</v>
@@ -1901,13 +1919,13 @@
         <v>158</v>
       </c>
       <c r="B40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E40" t="s">
         <v>188</v>
@@ -1924,19 +1942,19 @@
         <v>164</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
+        <v>180</v>
       </c>
       <c r="C41" t="s">
-        <v>21</v>
+        <v>180</v>
       </c>
       <c r="D41" t="s">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="E41" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="F41" t="s">
-        <v>25</v>
+        <v>154</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>13</v>
@@ -1947,19 +1965,19 @@
         <v>165</v>
       </c>
       <c r="B42" t="s">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="C42" t="s">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="D42" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E42" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F42" t="s">
-        <v>139</v>
+        <v>25</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>13</v>
@@ -1970,19 +1988,19 @@
         <v>169</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="C43" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="D43" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E43" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>13</v>
@@ -1993,19 +2011,19 @@
         <v>176</v>
       </c>
       <c r="B44" t="s">
-        <v>161</v>
+        <v>47</v>
       </c>
       <c r="C44" t="s">
         <v>47</v>
       </c>
       <c r="D44" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E44" t="s">
-        <v>98</v>
+        <v>160</v>
       </c>
       <c r="F44" t="s">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>13</v>
@@ -2016,19 +2034,19 @@
         <v>181</v>
       </c>
       <c r="B45" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C45" t="s">
-        <v>166</v>
+        <v>47</v>
       </c>
       <c r="D45" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E45" t="s">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>13</v>
@@ -2039,19 +2057,19 @@
         <v>182</v>
       </c>
       <c r="B46" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="C46" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D46" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E46" t="s">
-        <v>98</v>
+        <v>168</v>
       </c>
       <c r="F46" t="s">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>13</v>
@@ -2062,21 +2080,67 @@
         <v>183</v>
       </c>
       <c r="B47" t="s">
-        <v>174</v>
+        <v>96</v>
       </c>
       <c r="C47" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D47" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E47" t="s">
         <v>98</v>
       </c>
       <c r="F47" t="s">
+        <v>172</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B48" t="s">
+        <v>174</v>
+      </c>
+      <c r="C48" t="s">
+        <v>175</v>
+      </c>
+      <c r="D48" t="s">
+        <v>173</v>
+      </c>
+      <c r="E48" t="s">
+        <v>98</v>
+      </c>
+      <c r="F48" t="s">
         <v>154</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G48" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B49" t="s">
+        <v>190</v>
+      </c>
+      <c r="C49" t="s">
+        <v>142</v>
+      </c>
+      <c r="D49" t="s">
+        <v>191</v>
+      </c>
+      <c r="E49" t="s">
+        <v>143</v>
+      </c>
+      <c r="F49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/leave/src/main/resources/Sanity.xlsx
+++ b/leave/src/main/resources/Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Master\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2227DA76-26FE-4903-B5E3-12474C2E8704}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A433C4E6-DB48-47A1-8CF0-8200CF3C3C6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="195">
   <si>
     <t>TCID</t>
   </si>
@@ -618,6 +618,24 @@
   </si>
   <si>
     <t>Accural//LeaveBalanceTests.xlsx</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>CarryForwardBalance_Total</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.Custom.CarryForwardTests.CarryForwardWithBalance</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.Custom.LeaveBalanceTests.LeaveBalance_48EmployeeCreation_42_82</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>LeaveBalance_42_82</t>
   </si>
 </sst>
 </file>
@@ -980,10 +998,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1878,13 +1896,13 @@
         <v>151</v>
       </c>
       <c r="B39" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C39" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="D39" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="E39" t="s">
         <v>188</v>
@@ -1901,13 +1919,13 @@
         <v>158</v>
       </c>
       <c r="B40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E40" t="s">
         <v>188</v>
@@ -1924,19 +1942,19 @@
         <v>164</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
+        <v>180</v>
       </c>
       <c r="C41" t="s">
-        <v>21</v>
+        <v>180</v>
       </c>
       <c r="D41" t="s">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="E41" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="F41" t="s">
-        <v>25</v>
+        <v>154</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>13</v>
@@ -1947,19 +1965,19 @@
         <v>165</v>
       </c>
       <c r="B42" t="s">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="C42" t="s">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="D42" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E42" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F42" t="s">
-        <v>139</v>
+        <v>25</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>13</v>
@@ -1970,19 +1988,19 @@
         <v>169</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="C43" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="D43" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E43" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>13</v>
@@ -1993,19 +2011,19 @@
         <v>176</v>
       </c>
       <c r="B44" t="s">
-        <v>161</v>
+        <v>47</v>
       </c>
       <c r="C44" t="s">
         <v>47</v>
       </c>
       <c r="D44" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E44" t="s">
-        <v>98</v>
+        <v>160</v>
       </c>
       <c r="F44" t="s">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>13</v>
@@ -2016,19 +2034,19 @@
         <v>181</v>
       </c>
       <c r="B45" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C45" t="s">
-        <v>166</v>
+        <v>47</v>
       </c>
       <c r="D45" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E45" t="s">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>13</v>
@@ -2039,19 +2057,19 @@
         <v>182</v>
       </c>
       <c r="B46" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="C46" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D46" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E46" t="s">
-        <v>98</v>
+        <v>168</v>
       </c>
       <c r="F46" t="s">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>13</v>
@@ -2062,21 +2080,67 @@
         <v>183</v>
       </c>
       <c r="B47" t="s">
-        <v>174</v>
+        <v>96</v>
       </c>
       <c r="C47" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D47" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E47" t="s">
         <v>98</v>
       </c>
       <c r="F47" t="s">
+        <v>172</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B48" t="s">
+        <v>174</v>
+      </c>
+      <c r="C48" t="s">
+        <v>175</v>
+      </c>
+      <c r="D48" t="s">
+        <v>173</v>
+      </c>
+      <c r="E48" t="s">
+        <v>98</v>
+      </c>
+      <c r="F48" t="s">
         <v>154</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G48" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B49" t="s">
+        <v>190</v>
+      </c>
+      <c r="C49" t="s">
+        <v>142</v>
+      </c>
+      <c r="D49" t="s">
+        <v>191</v>
+      </c>
+      <c r="E49" t="s">
+        <v>143</v>
+      </c>
+      <c r="F49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/leave/src/main/resources/Sanity.xlsx
+++ b/leave/src/main/resources/Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Master\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A433C4E6-DB48-47A1-8CF0-8200CF3C3C6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC029F5-0410-4109-9A25-B7A8DD275B29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="197">
   <si>
     <t>TCID</t>
   </si>
@@ -636,6 +636,12 @@
   </si>
   <si>
     <t>LeaveBalance_42_82</t>
+  </si>
+  <si>
+    <t>CarryForwardBalanceHourly_Total</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.Custom.CarryForwardTests.CarryForwardWithBalance_Hourly</t>
   </si>
 </sst>
 </file>
@@ -998,10 +1004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="C21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2144,6 +2150,29 @@
         <v>13</v>
       </c>
     </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B50" t="s">
+        <v>195</v>
+      </c>
+      <c r="C50" t="s">
+        <v>195</v>
+      </c>
+      <c r="D50" t="s">
+        <v>196</v>
+      </c>
+      <c r="E50" t="s">
+        <v>143</v>
+      </c>
+      <c r="F50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/leave/src/main/resources/Sanity.xlsx
+++ b/leave/src/main/resources/Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Master\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC029F5-0410-4109-9A25-B7A8DD275B29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A592F5B9-FE61-4DB7-9839-E95D20327F9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="198">
   <si>
     <t>TCID</t>
   </si>
@@ -642,6 +642,9 @@
   </si>
   <si>
     <t>com.darwinbox.leaves.Accural.Custom.CarryForwardTests.CarryForwardWithBalance_Hourly</t>
+  </si>
+  <si>
+    <t>55</t>
   </si>
 </sst>
 </file>
@@ -1006,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2152,7 +2155,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B50" t="s">
         <v>195</v>

--- a/leave/src/main/resources/Sanity.xlsx
+++ b/leave/src/main/resources/Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Master\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A592F5B9-FE61-4DB7-9839-E95D20327F9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7919D6-F3B1-4EB6-9F8C-D8D2C8487C29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="212">
   <si>
     <t>TCID</t>
   </si>
@@ -605,18 +605,6 @@
     <t>52</t>
   </si>
   <si>
-    <t>com.darwinbox.leaves.Accural.Custom.LeaveBalanceTests.LeaveBalance_48EmployeeCreation_1_25</t>
-  </si>
-  <si>
-    <t>com.darwinbox.leaves.Accural.Custom.LeaveBalanceTests.LeaveBalance_48EmployeeCreation_26_41</t>
-  </si>
-  <si>
-    <t>com.darwinbox.leaves.Accural.Custom.LeaveBalanceTests.LeaveBalance_48EmployeeCreation_83_100</t>
-  </si>
-  <si>
-    <t>com.darwinbox.leaves.Accural.Custom.LeaveBalanceTests.LeaveBalance_48EmployeeCreation_101_123</t>
-  </si>
-  <si>
     <t>Accural//LeaveBalanceTests.xlsx</t>
   </si>
   <si>
@@ -629,9 +617,6 @@
     <t>com.darwinbox.leaves.Accural.Custom.CarryForwardTests.CarryForwardWithBalance</t>
   </si>
   <si>
-    <t>com.darwinbox.leaves.Accural.Custom.LeaveBalanceTests.LeaveBalance_48EmployeeCreation_42_82</t>
-  </si>
-  <si>
     <t>54</t>
   </si>
   <si>
@@ -645,6 +630,63 @@
   </si>
   <si>
     <t>55</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.Custom.LeaveBalanceTests.Daily.LeaveBalance_48EmployeeCreation_1_25</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.Custom.LeaveBalanceTests.Daily.LeaveBalance_48EmployeeCreation_26_41</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.Custom.LeaveBalanceTests.Daily.LeaveBalance_48EmployeeCreation_42_82</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.Custom.LeaveBalanceTests.Daily.LeaveBalance_48EmployeeCreation_83_100</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.Custom.LeaveBalanceTests.Daily.LeaveBalance_48EmployeeCreation_101_123</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.Custom.LeaveBalanceTests.Hourly.LeaveBalance_48EmployeeCreation_1_25</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.Custom.LeaveBalanceTests.Hourly.LeaveBalance_48EmployeeCreation_26_41</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.Custom.LeaveBalanceTests.Hourly.LeaveBalance_48EmployeeCreation_42_82</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.Custom.LeaveBalanceTests.Hourly.LeaveBalance_48EmployeeCreation_83_100</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.Custom.LeaveBalanceTests.Hourly.LeaveBalance_48EmployeeCreation_101_123</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>LeaveBalance_Hourly_1_25</t>
+  </si>
+  <si>
+    <t>LeaveBalance_Hourly_26_41</t>
+  </si>
+  <si>
+    <t>LeaveBalance_Hourly_83_100</t>
+  </si>
+  <si>
+    <t>LeaveBalance_Hourly_101_123</t>
   </si>
 </sst>
 </file>
@@ -1007,10 +1049,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51:C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1865,10 +1907,10 @@
         <v>177</v>
       </c>
       <c r="D37" t="s">
+        <v>193</v>
+      </c>
+      <c r="E37" t="s">
         <v>184</v>
-      </c>
-      <c r="E37" t="s">
-        <v>188</v>
       </c>
       <c r="F37" t="s">
         <v>154</v>
@@ -1888,10 +1930,10 @@
         <v>178</v>
       </c>
       <c r="D38" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="E38" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F38" t="s">
         <v>154</v>
@@ -1908,13 +1950,13 @@
         <v>178</v>
       </c>
       <c r="C39" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D39" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E39" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F39" t="s">
         <v>154</v>
@@ -1934,10 +1976,10 @@
         <v>179</v>
       </c>
       <c r="D40" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="E40" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F40" t="s">
         <v>154</v>
@@ -1957,10 +1999,10 @@
         <v>180</v>
       </c>
       <c r="D41" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="E41" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F41" t="s">
         <v>154</v>
@@ -2109,7 +2151,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B48" t="s">
         <v>174</v>
@@ -2132,16 +2174,16 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B49" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C49" t="s">
         <v>142</v>
       </c>
       <c r="D49" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E49" t="s">
         <v>143</v>
@@ -2155,16 +2197,16 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B50" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C50" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D50" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E50" t="s">
         <v>143</v>
@@ -2173,6 +2215,121 @@
         <v>12</v>
       </c>
       <c r="G50" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B51" t="s">
+        <v>208</v>
+      </c>
+      <c r="C51" t="s">
+        <v>208</v>
+      </c>
+      <c r="D51" t="s">
+        <v>198</v>
+      </c>
+      <c r="E51" t="s">
+        <v>184</v>
+      </c>
+      <c r="F51" t="s">
+        <v>154</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B52" t="s">
+        <v>209</v>
+      </c>
+      <c r="C52" t="s">
+        <v>209</v>
+      </c>
+      <c r="D52" t="s">
+        <v>199</v>
+      </c>
+      <c r="E52" t="s">
+        <v>184</v>
+      </c>
+      <c r="F52" t="s">
+        <v>154</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B53" t="s">
+        <v>209</v>
+      </c>
+      <c r="C53" t="s">
+        <v>209</v>
+      </c>
+      <c r="D53" t="s">
+        <v>200</v>
+      </c>
+      <c r="E53" t="s">
+        <v>184</v>
+      </c>
+      <c r="F53" t="s">
+        <v>154</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B54" t="s">
+        <v>210</v>
+      </c>
+      <c r="C54" t="s">
+        <v>210</v>
+      </c>
+      <c r="D54" t="s">
+        <v>201</v>
+      </c>
+      <c r="E54" t="s">
+        <v>184</v>
+      </c>
+      <c r="F54" t="s">
+        <v>154</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B55" t="s">
+        <v>211</v>
+      </c>
+      <c r="C55" t="s">
+        <v>211</v>
+      </c>
+      <c r="D55" t="s">
+        <v>202</v>
+      </c>
+      <c r="E55" t="s">
+        <v>184</v>
+      </c>
+      <c r="F55" t="s">
+        <v>154</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/leave/src/main/resources/Sanity.xlsx
+++ b/leave/src/main/resources/Sanity.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Master\Automation_Project\leave\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\Desktop\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7919D6-F3B1-4EB6-9F8C-D8D2C8487C29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3A6DE0-D0DC-49E4-81D8-ED91D4E54941}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="530">
   <si>
     <t>TCID</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>TestCaseDescription</t>
-  </si>
-  <si>
-    <t>ClassName</t>
   </si>
   <si>
     <t>FileName</t>
@@ -476,9 +473,6 @@
     <t>40</t>
   </si>
   <si>
-    <t>CarryForwardBalance</t>
-  </si>
-  <si>
     <t>Carry Forward Balance -Custom Leave Cycle</t>
   </si>
   <si>
@@ -500,27 +494,18 @@
     <t>43</t>
   </si>
   <si>
-    <t>com.darwinbox.leaves.Accural.Custom.WorkingDays</t>
-  </si>
-  <si>
     <t>Accural//WorkingDays.xlsx</t>
   </si>
   <si>
     <t>44</t>
   </si>
   <si>
-    <t>com.darwinbox.leaves.Accural.Custom.Deactivation</t>
-  </si>
-  <si>
     <t>Accural//Deactivation.xlsx</t>
   </si>
   <si>
     <t>dummySheet</t>
   </si>
   <si>
-    <t>com.darwinbox.leaves.Accural.Custom.CarryForward</t>
-  </si>
-  <si>
     <t>com.darwinbox.leaves.Accural.Custom.Tenure</t>
   </si>
   <si>
@@ -530,9 +515,6 @@
     <t>45</t>
   </si>
   <si>
-    <t>com.darwinbox.leaves.Accural.Custom.MutlipleAllotment</t>
-  </si>
-  <si>
     <t>Accural//MultipleLeaveAllotment.xlsx</t>
   </si>
   <si>
@@ -554,9 +536,6 @@
     <t>Multiple Allotment_P</t>
   </si>
   <si>
-    <t>com.darwinbox.leaves.Accural.Custom.MutlipleAllotment_P</t>
-  </si>
-  <si>
     <t>Accural//MultipleLeaveAllotment_P.xlsx</t>
   </si>
   <si>
@@ -614,9 +593,6 @@
     <t>CarryForwardBalance_Total</t>
   </si>
   <si>
-    <t>com.darwinbox.leaves.Accural.Custom.CarryForwardTests.CarryForwardWithBalance</t>
-  </si>
-  <si>
     <t>54</t>
   </si>
   <si>
@@ -687,6 +663,984 @@
   </si>
   <si>
     <t>LeaveBalance_Hourly_101_123</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.Custom.Daily.MutlipleAllotment_P</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.Custom.MultipleAllotment.Hourly.MutlipleAllotment</t>
+  </si>
+  <si>
+    <t>Leave Encashmnet</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.Custom.MultipleAllotment.Daily.MutlipleAllotment</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>CarryForwardWithWorkingDays</t>
+  </si>
+  <si>
+    <t>Carry Forward Balance With Working Days</t>
+  </si>
+  <si>
+    <t>CFWD_WD</t>
+  </si>
+  <si>
+    <t>Accural//CarryForwardWithWorkingDays.xlsx</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>Multiple Allotment With Carry Forward</t>
+  </si>
+  <si>
+    <t>Accural//MultipleLeaveAllotmentWithCarryForward.xlsx</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.Custom.CarryForwardTests.CarryForwardWithBalance.probation</t>
+  </si>
+  <si>
+    <t>Probation</t>
+  </si>
+  <si>
+    <t>CarryForward</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>Leave Adjustmwents - acticve Employee</t>
+  </si>
+  <si>
+    <t>LeaveAdjustments//LeaveAdjustmentTests.xlsx</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>Leave Adjustmwents - acticve Employee Over Utilization</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.LeaveAdjustments.ActiveEmployee.VerifyOverUtlizaionScenario</t>
+  </si>
+  <si>
+    <t>leaveBalanceTests</t>
+  </si>
+  <si>
+    <t>OverUtilizationTests</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.LeaveAdjustments.InActiveEmployee.CarryForwardScenario</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>Leave Adjustmwents -in  acticve Employee Carry Forward</t>
+  </si>
+  <si>
+    <t>Leave Adjustmwents -in  acticve Employee Carry Forward With Working Days</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.LeaveAdjustments.InActiveEmployee.CarryForwardWorkingDaysScenario</t>
+  </si>
+  <si>
+    <t>CarryForwardTests</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.LeaveAdjustments.ActiveEmployee.VerifyCFWithLeaveAdjustment</t>
+  </si>
+  <si>
+    <t>Sanity Check</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Sanity.Accural.CarryForwardChecks.CarryForwardWithLeavesApplied</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Sanity.Accural.CarryForwardChecks.CarryForwardWithLeaveEncashment</t>
+  </si>
+  <si>
+    <t>LeaveEncashmentSanity</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Sanity.Accural.CarryForwardChecks.CarryForwardWithLeaveEncashmentAndLeaves</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carry Forward With Leave Encashmnet </t>
+  </si>
+  <si>
+    <t>Carry Forward With Leave Encashmnet and Leaves</t>
+  </si>
+  <si>
+    <t>Carry Forward For two Cycles</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Sanity.Accural.CarryForwardChecks.CarryForwardBalanceForTwoCycles</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Sanity.Accural.CarryForwardChecks.CarryForwardBalanceForTwoCyclesWithLeaves</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>Carry Forward For two Cycles With Leaves Encashments and Adjustments</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Sanity.Accural.CarryForwardChecks.CarryForwardBalanceForTwoCyclesWithLeaveEncashmentAdjustment</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Sanity.Accural.CarryForwardChecks.CarryForwardCronCheck</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>Apply Adjusment In Past</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Sanity.Accural.AdjustmentChecks.ApplyAdjustmentInPast</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>Apply Adjusment In Future</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Sanity.Accural.AdjustmentChecks.ApplyAdjustmentInFuture</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>Production Bug - DBX -7557</t>
+  </si>
+  <si>
+    <t>CF_ALL</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>Carry forward With Tenure</t>
+  </si>
+  <si>
+    <t>Carry Forward Balance With Tenure</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.CarryForwardWithTenure</t>
+  </si>
+  <si>
+    <t>Accural//CarryForwardWithTenure.xlsx</t>
+  </si>
+  <si>
+    <t>CFWithTenure</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>DBX_7691_Scenario 1</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7691.CarryForwardWithLeaveEncashmentAndLeaves_S1</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Sanity.Accural.CarryForwardChecks.CarryForwardWithLeaveEncashmentAndLeaves.CalenderCycle</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Sanity.Accural.CarryForwardChecks.CarryForwardWithLeaveEncashmentAndLeaves.Febrauary</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Sanity.Accural.CarryForwardChecks.CarryForwardWithLeaveEncashmentAndLeaves.FinancialCycle</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Sanity.Accural.CarryForwardChecks.CarryForwardWithLeaveEncashmentAndLeaves.March</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Sanity.Accural.CarryForwardChecks.CarryForwardWithLeaveEncashmentAndLeaves.May</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Sanity.Accural.CarryForwardChecks.CarryForwardWithLeaveEncashmentAndLeaves.June</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Sanity.Accural.CarryForwardChecks.CarryForwardWithLeaveEncashmentAndLeaves.July</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Sanity.Accural.CarryForwardChecks.CarryForwardWithLeaveEncashmentAndLeaves.August</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Sanity.Accural.CarryForwardChecks.CarryForwardWithLeaveEncashmentAndLeaves.September</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Sanity.Accural.CarryForwardChecks.CarryForwardWithLeaveEncashmentAndLeaves.October</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Sanity.Accural.CarryForwardChecks.CarryForwardWithLeaveEncashmentAndLeaves.November</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Sanity.Accural.CarryForwardChecks.CarryForwardWithLeaveEncashmentAndLeaves.December</t>
+  </si>
+  <si>
+    <t>Carry Forward With Leave Encashmnet and Leaves-calendra</t>
+  </si>
+  <si>
+    <t>Carry Forward With Leave Encashmnet and Leaves-feb</t>
+  </si>
+  <si>
+    <t>Carry Forward With Leave Encashmnet and Leaves-march</t>
+  </si>
+  <si>
+    <t>Carry Forward With Leave Encashmnet and Leaves-fianancial</t>
+  </si>
+  <si>
+    <t>Carry Forward With Leave Encashmnet and Leaves-may</t>
+  </si>
+  <si>
+    <t>Carry Forward With Leave Encashmnet and Leaves-june</t>
+  </si>
+  <si>
+    <t>Carry Forward With Leave Encashmnet and Leaves-july</t>
+  </si>
+  <si>
+    <t>Carry Forward With Leave Encashmnet and Leaves-august</t>
+  </si>
+  <si>
+    <t>Carry Forward With Leave Encashmnet and Leaves-september</t>
+  </si>
+  <si>
+    <t>Carry Forward With Leave Encashmnet and Leaves-october</t>
+  </si>
+  <si>
+    <t>Carry Forward With Leave Encashmnet and Leaves-november</t>
+  </si>
+  <si>
+    <t>Carry Forward With Leave Encashmnet and Leaves-december</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7691.CarryForwardWithLeaveEncashmentAndLeaves_S2.August</t>
+  </si>
+  <si>
+    <t>DBX_7691_Scenario 1 August</t>
+  </si>
+  <si>
+    <t>DBX_7691_Scenario 1 Calender</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7691.CarryForwardWithLeaveEncashmentAndLeaves_S2.Calender</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7691.CarryForwardWithLeaveEncashmentAndLeaves_S2.December</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7691.CarryForwardWithLeaveEncashmentAndLeaves_S2.February</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7691.CarryForwardWithLeaveEncashmentAndLeaves_S2.Financial</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7691.CarryForwardWithLeaveEncashmentAndLeaves_S2.July</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7691.CarryForwardWithLeaveEncashmentAndLeaves_S2.June</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7691.CarryForwardWithLeaveEncashmentAndLeaves_S2.March</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7691.CarryForwardWithLeaveEncashmentAndLeaves_S2.May</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7691.CarryForwardWithLeaveEncashmentAndLeaves_S2.November</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7691.CarryForwardWithLeaveEncashmentAndLeaves_S2.October</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7691.CarryForwardWithLeaveEncashmentAndLeaves_S2.September</t>
+  </si>
+  <si>
+    <t>DBX_7691_Scenario 1 December</t>
+  </si>
+  <si>
+    <t>DBX_7691_Scenario 1 Febrauary</t>
+  </si>
+  <si>
+    <t>DBX_7691_Scenario 1 Financial</t>
+  </si>
+  <si>
+    <t>DBX_7691_Scenario 1 July</t>
+  </si>
+  <si>
+    <t>DBX_7691_Scenario 1 June</t>
+  </si>
+  <si>
+    <t>DBX_7691_Scenario 1 March</t>
+  </si>
+  <si>
+    <t>DBX_7691_Scenario 1 May</t>
+  </si>
+  <si>
+    <t>DBX_7691_Scenario 1 November</t>
+  </si>
+  <si>
+    <t>DBX_7691_Scenario 1 October</t>
+  </si>
+  <si>
+    <t>DBX_7691_Scenario 1 September</t>
+  </si>
+  <si>
+    <t>DBX_7692_Scenario 2 August</t>
+  </si>
+  <si>
+    <t>DBX_7692_Scenario 2 December</t>
+  </si>
+  <si>
+    <t>DBX_7692_Scenario 2 Febrauary</t>
+  </si>
+  <si>
+    <t>DBX_7692_Scenario 2 Financial</t>
+  </si>
+  <si>
+    <t>DBX_7692_Scenario 2 Calender</t>
+  </si>
+  <si>
+    <t>DBX_7692_Scenario 2 July</t>
+  </si>
+  <si>
+    <t>DBX_7692_Scenario 2 June</t>
+  </si>
+  <si>
+    <t>DBX_7692_Scenario 2 March</t>
+  </si>
+  <si>
+    <t>DBX_7692_Scenario 2 May</t>
+  </si>
+  <si>
+    <t>DBX_7692_Scenario 2 November</t>
+  </si>
+  <si>
+    <t>DBX_7692_Scenario 2 October</t>
+  </si>
+  <si>
+    <t>DBX_7692_Scenario 2 September</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7691.CarryForwardWithLeaveEncashmentAndLeaves_S1.August</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7691.CarryForwardWithLeaveEncashmentAndLeaves_S1.December</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7691.CarryForwardWithLeaveEncashmentAndLeaves_S1.February</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7691.CarryForwardWithLeaveEncashmentAndLeaves_S1.Financial</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7691.CarryForwardWithLeaveEncashmentAndLeaves_S1.Calender</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7691.CarryForwardWithLeaveEncashmentAndLeaves_S1.July</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7691.CarryForwardWithLeaveEncashmentAndLeaves_S1.June</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7691.CarryForwardWithLeaveEncashmentAndLeaves_S1.March</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7691.CarryForwardWithLeaveEncashmentAndLeaves_S1.May</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7691.CarryForwardWithLeaveEncashmentAndLeaves_S1.November</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7691.CarryForwardWithLeaveEncashmentAndLeaves_S1.October</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7691.CarryForwardWithLeaveEncashmentAndLeaves_S1.September</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>CarryForwardWithTenure Financial</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.TwoCycles.Financial</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>CarryForwardWithTenure August</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.TwoCycles.August</t>
+  </si>
+  <si>
+    <t>CarryForwardWithTenure Calender</t>
+  </si>
+  <si>
+    <t>CarryForwardWithTenure Febraury</t>
+  </si>
+  <si>
+    <t>CarryForwardWithTenure July</t>
+  </si>
+  <si>
+    <t>CarryForwardWithTenure June</t>
+  </si>
+  <si>
+    <t>CarryForwardWithTenure March</t>
+  </si>
+  <si>
+    <t>CarryForwardWithTenure May</t>
+  </si>
+  <si>
+    <t>CarryForwardWithTenure November</t>
+  </si>
+  <si>
+    <t>CarryForwardWithTenure October</t>
+  </si>
+  <si>
+    <t>CarryForwardWithTenure September</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.TwoCycles.Calender</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.TwoCycles.Febraury</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.TwoCycles.September</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.TwoCycles.July</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.TwoCycles.June</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.TwoCycles.March</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.TwoCycles.May</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.TwoCycles.November</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.TwoCycles.October</t>
+  </si>
+  <si>
+    <t>Financial</t>
+  </si>
+  <si>
+    <t>Calender</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>CarryForwardWithTenure December</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.TwoCycles.December</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>CarryForwardWithTenureWith Leaves August</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.TwoCyclesWithLeaves.August</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.TwoCyclesWithLeaves.Financial</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.TwoCyclesWithLeaves.Calender</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.TwoCyclesWithLeaves.Febraury</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.TwoCyclesWithLeaves.September</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.TwoCyclesWithLeaves.July</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.TwoCyclesWithLeaves.June</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.TwoCyclesWithLeaves.March</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.TwoCyclesWithLeaves.May</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.TwoCyclesWithLeaves.November</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.TwoCyclesWithLeaves.October</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.TwoCyclesWithLeaves.December</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.TestSelUtil</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>Carry Forward Tenure With Leave Encashment</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.TwoCyclesWithEncashment.August</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>Carry Forward Tenure With Leave Adjustment</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.TwoCyclesWithAdjustments.Financial</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7557 With CF Tenure </t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7557.CF_Tenure.One_One.Financial</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7557.CF_Tenure.One_Zero.Financial</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7557.CF_Tenure.Zero_One.Financial</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7557.CF_Tenure.Zero_Zero.Financial</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.MultipleAllotment.Daily.MultipleAllotmentWithDeactivation.SecondHalfTransferFirstHalfDeactivation</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.MultipleAllotment.Daily.MultipleAllotmentWithDeactivation.SecondHalfTranserSecondHalfDeactivate</t>
+  </si>
+  <si>
+    <t>Multiple Allotment With Tenure DBX 8440</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.MultipleAllotment.Daily.MultipleAllotmentWithDeactivation.FirstHalfTransferSecondHalfDeactivation</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>Query Dom</t>
+  </si>
+  <si>
+    <t>QueryDom.xlsx</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_8440.WorkingDays.SecondHalfTranserSecondHalfDeactivate</t>
+  </si>
+  <si>
+    <t>January_WD</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.Deactivation</t>
+  </si>
+  <si>
+    <t>F_1_41</t>
+  </si>
+  <si>
+    <t>F_42_80</t>
+  </si>
+  <si>
+    <t>F_81_121</t>
+  </si>
+  <si>
+    <t>F_121_164</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>Working Days With Deactivation</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.WorkingDays.WDWithDeactivation</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>Working Days With Multiple Allotment</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.WorkingDays.MultipleAllotment.WorkingDaysWithMultipleAllotment</t>
+  </si>
+  <si>
+    <t>WD_MultipleAllotment</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.WorkingDays.WorkingDays</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.WorkingDays.CarryForwardWithBalanceWorkingDays</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForward.Financial.CarryForward_1_41</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForward.Financial.CarryForward_42_80</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForward.Financial.CarryForward_81_121</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForward.Financial.CarryForward_121_164</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithBalance.CarryForwardWithBalance_1_41</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithBalance.CarryForwardWithBalance_42_80</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithBalance.CarryForwardWithBalance_81_121</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithBalance.CarryForwardWithBalance_121_164</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.MutlipleAllotmentWithCarryForward</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.TwoCyclesWithEncashment.Financial</t>
+  </si>
+  <si>
+    <t>ClassName</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7557.CarryForward_one_one</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7557.CarryForward_one_zero</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7557.CarryForward_zero_one</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7557.CarryForward_zero_zero</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_8440.MultipleAllotmentWithDeactivation.FirstHalfTransferFirstHalfDeactivation</t>
   </si>
 </sst>
 </file>
@@ -1049,10 +2003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51:C55"/>
+    <sheetView tabSelected="1" topLeftCell="B144" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D157" sqref="D157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1060,7 +2014,7 @@
     <col min="1" max="1" width="8.21875" style="1"/>
     <col min="2" max="2" width="44.44140625" customWidth="1"/>
     <col min="3" max="3" width="45.44140625" customWidth="1"/>
-    <col min="4" max="4" width="93.33203125" customWidth="1"/>
+    <col min="4" max="4" width="114.77734375" customWidth="1"/>
     <col min="5" max="5" width="40.6640625"/>
     <col min="6" max="6" width="30.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" style="1" customWidth="1"/>
@@ -1079,1258 +2033,3673 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
       <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
       <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>23</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>24</v>
       </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
       <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
         <v>24</v>
       </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
       <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
         <v>24</v>
       </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
         <v>32</v>
       </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>33</v>
       </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
       <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
         <v>24</v>
       </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
         <v>35</v>
       </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>36</v>
       </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
       <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
         <v>24</v>
       </c>
-      <c r="F9" t="s">
-        <v>25</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
         <v>38</v>
       </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>39</v>
       </c>
-      <c r="D10" t="s">
-        <v>40</v>
-      </c>
       <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
         <v>24</v>
       </c>
-      <c r="F10" t="s">
-        <v>25</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" t="s">
         <v>57</v>
       </c>
-      <c r="C11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
         <v>58</v>
       </c>
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" t="s">
-        <v>59</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
         <v>54</v>
       </c>
-      <c r="D12" t="s">
-        <v>55</v>
-      </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
         <v>42</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>43</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>44</v>
       </c>
-      <c r="E13" t="s">
-        <v>45</v>
-      </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
         <v>50</v>
       </c>
-      <c r="C14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>51</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>52</v>
       </c>
-      <c r="F14" t="s">
-        <v>53</v>
-      </c>
       <c r="G14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
         <v>60</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" t="s">
         <v>61</v>
       </c>
-      <c r="D15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" t="s">
-        <v>62</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" t="s">
         <v>63</v>
       </c>
-      <c r="D16" t="s">
-        <v>94</v>
-      </c>
-      <c r="E16" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" t="s">
-        <v>64</v>
-      </c>
       <c r="G16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" t="s">
         <v>65</v>
       </c>
-      <c r="D17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E17" t="s">
-        <v>87</v>
-      </c>
-      <c r="F17" t="s">
-        <v>66</v>
-      </c>
       <c r="G17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
         <v>67</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" t="s">
         <v>68</v>
       </c>
-      <c r="D18" t="s">
-        <v>90</v>
-      </c>
-      <c r="E18" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" t="s">
-        <v>69</v>
-      </c>
       <c r="G18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" t="s">
         <v>70</v>
       </c>
-      <c r="D19" t="s">
-        <v>91</v>
-      </c>
-      <c r="E19" t="s">
-        <v>87</v>
-      </c>
-      <c r="F19" t="s">
-        <v>71</v>
-      </c>
       <c r="G19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" t="s">
         <v>72</v>
       </c>
-      <c r="D20" t="s">
-        <v>92</v>
-      </c>
-      <c r="E20" t="s">
-        <v>87</v>
-      </c>
-      <c r="F20" t="s">
-        <v>73</v>
-      </c>
       <c r="G20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" t="s">
         <v>74</v>
       </c>
-      <c r="C21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" t="s">
-        <v>95</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>75</v>
       </c>
-      <c r="F21" t="s">
-        <v>76</v>
-      </c>
       <c r="G21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" t="s">
         <v>74</v>
       </c>
-      <c r="C22" t="s">
+      <c r="F22" t="s">
         <v>77</v>
       </c>
-      <c r="D22" t="s">
-        <v>93</v>
-      </c>
-      <c r="E22" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" t="s">
-        <v>78</v>
-      </c>
       <c r="G22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" t="s">
         <v>97</v>
       </c>
-      <c r="B23" t="s">
-        <v>96</v>
-      </c>
-      <c r="C23" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" t="s">
-        <v>99</v>
-      </c>
-      <c r="E23" t="s">
-        <v>98</v>
-      </c>
       <c r="F23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="B27" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" t="s">
-        <v>107</v>
-      </c>
-      <c r="D27" t="s">
-        <v>108</v>
-      </c>
-      <c r="E27" t="s">
-        <v>98</v>
-      </c>
-      <c r="F27" t="s">
-        <v>76</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" t="s">
         <v>112</v>
       </c>
-      <c r="B28" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>113</v>
       </c>
-      <c r="D28" t="s">
-        <v>114</v>
-      </c>
       <c r="E28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" t="s">
         <v>115</v>
       </c>
-      <c r="B29" t="s">
-        <v>96</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="E29" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" t="s">
         <v>117</v>
       </c>
-      <c r="D29" t="s">
-        <v>116</v>
-      </c>
-      <c r="E29" t="s">
-        <v>98</v>
-      </c>
-      <c r="F29" t="s">
-        <v>118</v>
-      </c>
       <c r="G29" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C30" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" t="s">
         <v>123</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30" t="s">
         <v>124</v>
       </c>
-      <c r="E30" t="s">
-        <v>98</v>
-      </c>
-      <c r="F30" t="s">
-        <v>125</v>
-      </c>
       <c r="G30" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D31" t="s">
+        <v>119</v>
+      </c>
+      <c r="E31" t="s">
+        <v>97</v>
+      </c>
+      <c r="F31" t="s">
         <v>120</v>
       </c>
-      <c r="E31" t="s">
-        <v>98</v>
-      </c>
-      <c r="F31" t="s">
-        <v>121</v>
-      </c>
       <c r="G31" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" t="s">
         <v>126</v>
       </c>
-      <c r="B32" t="s">
-        <v>96</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>127</v>
       </c>
-      <c r="D32" t="s">
-        <v>128</v>
-      </c>
       <c r="E32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33" t="s">
         <v>129</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
+        <v>129</v>
+      </c>
+      <c r="D33" t="s">
         <v>130</v>
       </c>
-      <c r="C33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>131</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>132</v>
       </c>
-      <c r="F33" t="s">
-        <v>133</v>
-      </c>
       <c r="G33" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34" t="s">
         <v>134</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" t="s">
         <v>135</v>
       </c>
-      <c r="C34" t="s">
-        <v>135</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>136</v>
       </c>
-      <c r="E34" t="s">
-        <v>137</v>
-      </c>
       <c r="F34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B35" t="s">
+        <v>222</v>
+      </c>
+      <c r="C35" t="s">
         <v>140</v>
       </c>
-      <c r="B35" t="s">
+      <c r="D35" t="s">
+        <v>511</v>
+      </c>
+      <c r="E35" t="s">
         <v>141</v>
       </c>
-      <c r="C35" t="s">
-        <v>142</v>
-      </c>
-      <c r="D35" t="s">
-        <v>155</v>
-      </c>
-      <c r="E35" t="s">
-        <v>143</v>
-      </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>498</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B36" t="s">
-        <v>145</v>
+        <v>222</v>
       </c>
       <c r="C36" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D36" t="s">
-        <v>156</v>
+        <v>512</v>
       </c>
       <c r="E36" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="F36" t="s">
-        <v>146</v>
+        <v>499</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B37" t="s">
-        <v>177</v>
+        <v>222</v>
       </c>
       <c r="C37" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="D37" t="s">
-        <v>193</v>
+        <v>513</v>
       </c>
       <c r="E37" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c r="F37" t="s">
-        <v>154</v>
+        <v>500</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B38" t="s">
-        <v>178</v>
+        <v>222</v>
       </c>
       <c r="C38" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="D38" t="s">
-        <v>194</v>
+        <v>514</v>
       </c>
       <c r="E38" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c r="F38" t="s">
-        <v>154</v>
+        <v>501</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B39" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" t="s">
+        <v>143</v>
+      </c>
+      <c r="D39" t="s">
         <v>151</v>
       </c>
-      <c r="B39" t="s">
-        <v>178</v>
-      </c>
-      <c r="C39" t="s">
-        <v>189</v>
-      </c>
-      <c r="D39" t="s">
-        <v>195</v>
-      </c>
       <c r="E39" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="F39" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B40" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C40" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D40" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="E40" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F40" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B41" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C41" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D41" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E41" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F41" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B42" t="s">
-        <v>21</v>
+        <v>171</v>
       </c>
       <c r="C42" t="s">
-        <v>21</v>
+        <v>181</v>
       </c>
       <c r="D42" t="s">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="E42" t="s">
+        <v>177</v>
+      </c>
+      <c r="F42" t="s">
         <v>150</v>
       </c>
-      <c r="F42" t="s">
-        <v>25</v>
-      </c>
       <c r="G42" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B43" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="C43" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="D43" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="E43" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="F43" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>173</v>
       </c>
       <c r="C44" t="s">
-        <v>47</v>
+        <v>173</v>
       </c>
       <c r="D44" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="E44" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B45" t="s">
-        <v>161</v>
+        <v>20</v>
       </c>
       <c r="C45" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="D45" t="s">
-        <v>162</v>
+        <v>509</v>
       </c>
       <c r="E45" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="F45" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B46" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="C46" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="D46" t="s">
-        <v>167</v>
+        <v>497</v>
       </c>
       <c r="E46" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>170</v>
+        <v>46</v>
       </c>
       <c r="D47" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="E47" t="s">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="F47" t="s">
-        <v>172</v>
+        <v>11</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B48" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="C48" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="D48" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="E48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F48" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B49" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="C49" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="D49" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="E49" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B50" t="s">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="C50" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="D50" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="E50" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B51" t="s">
-        <v>208</v>
+        <v>167</v>
       </c>
       <c r="C51" t="s">
-        <v>208</v>
+        <v>168</v>
       </c>
       <c r="D51" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="E51" t="s">
-        <v>184</v>
+        <v>97</v>
       </c>
       <c r="F51" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B52" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="C52" t="s">
-        <v>209</v>
+        <v>140</v>
       </c>
       <c r="D52" t="s">
-        <v>199</v>
+        <v>515</v>
       </c>
       <c r="E52" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c r="F52" t="s">
-        <v>154</v>
+        <v>498</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B53" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="C53" t="s">
-        <v>209</v>
+        <v>140</v>
       </c>
       <c r="D53" t="s">
-        <v>200</v>
+        <v>516</v>
       </c>
       <c r="E53" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c r="F53" t="s">
-        <v>154</v>
+        <v>499</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B54" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="C54" t="s">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="D54" t="s">
-        <v>201</v>
+        <v>517</v>
       </c>
       <c r="E54" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c r="F54" t="s">
-        <v>154</v>
+        <v>500</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B55" t="s">
+        <v>179</v>
+      </c>
+      <c r="C55" t="s">
+        <v>140</v>
+      </c>
+      <c r="D55" t="s">
+        <v>518</v>
+      </c>
+      <c r="E55" t="s">
+        <v>141</v>
+      </c>
+      <c r="F55" t="s">
+        <v>501</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B56" t="s">
+        <v>179</v>
+      </c>
+      <c r="C56" t="s">
+        <v>140</v>
+      </c>
+      <c r="D56" t="s">
+        <v>220</v>
+      </c>
+      <c r="E56" t="s">
+        <v>141</v>
+      </c>
+      <c r="F56" t="s">
+        <v>221</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B57" t="s">
+        <v>182</v>
+      </c>
+      <c r="C57" t="s">
+        <v>182</v>
+      </c>
+      <c r="D57" t="s">
+        <v>183</v>
+      </c>
+      <c r="E57" t="s">
+        <v>141</v>
+      </c>
+      <c r="F57" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B58" t="s">
+        <v>200</v>
+      </c>
+      <c r="C58" t="s">
+        <v>200</v>
+      </c>
+      <c r="D58" t="s">
+        <v>190</v>
+      </c>
+      <c r="E58" t="s">
+        <v>177</v>
+      </c>
+      <c r="F58" t="s">
+        <v>150</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B59" t="s">
+        <v>201</v>
+      </c>
+      <c r="C59" t="s">
+        <v>201</v>
+      </c>
+      <c r="D59" t="s">
+        <v>191</v>
+      </c>
+      <c r="E59" t="s">
+        <v>177</v>
+      </c>
+      <c r="F59" t="s">
+        <v>150</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B60" t="s">
+        <v>201</v>
+      </c>
+      <c r="C60" t="s">
+        <v>201</v>
+      </c>
+      <c r="D60" t="s">
+        <v>192</v>
+      </c>
+      <c r="E60" t="s">
+        <v>177</v>
+      </c>
+      <c r="F60" t="s">
+        <v>150</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B61" t="s">
+        <v>202</v>
+      </c>
+      <c r="C61" t="s">
+        <v>202</v>
+      </c>
+      <c r="D61" t="s">
+        <v>193</v>
+      </c>
+      <c r="E61" t="s">
+        <v>177</v>
+      </c>
+      <c r="F61" t="s">
+        <v>150</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B62" t="s">
+        <v>203</v>
+      </c>
+      <c r="C62" t="s">
+        <v>203</v>
+      </c>
+      <c r="D62" t="s">
+        <v>194</v>
+      </c>
+      <c r="E62" t="s">
+        <v>177</v>
+      </c>
+      <c r="F62" t="s">
+        <v>150</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B63" t="s">
+        <v>46</v>
+      </c>
+      <c r="C63" t="s">
+        <v>46</v>
+      </c>
+      <c r="D63" t="s">
+        <v>206</v>
+      </c>
+      <c r="E63" t="s">
+        <v>154</v>
+      </c>
+      <c r="F63" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B64" t="s">
+        <v>210</v>
+      </c>
+      <c r="C64" t="s">
         <v>211</v>
       </c>
-      <c r="C55" t="s">
-        <v>211</v>
-      </c>
-      <c r="D55" t="s">
-        <v>202</v>
-      </c>
-      <c r="E55" t="s">
-        <v>184</v>
-      </c>
-      <c r="F55" t="s">
+      <c r="D64" t="s">
+        <v>510</v>
+      </c>
+      <c r="E64" t="s">
+        <v>213</v>
+      </c>
+      <c r="F64" t="s">
+        <v>212</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B65" t="s">
+        <v>215</v>
+      </c>
+      <c r="C65" t="s">
+        <v>215</v>
+      </c>
+      <c r="D65" t="s">
+        <v>519</v>
+      </c>
+      <c r="E65" t="s">
+        <v>216</v>
+      </c>
+      <c r="F65" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B66" t="s">
+        <v>228</v>
+      </c>
+      <c r="C66" t="s">
+        <v>228</v>
+      </c>
+      <c r="D66" t="s">
+        <v>242</v>
+      </c>
+      <c r="E66" t="s">
+        <v>229</v>
+      </c>
+      <c r="F66" t="s">
+        <v>233</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B67" t="s">
+        <v>231</v>
+      </c>
+      <c r="C67" t="s">
+        <v>231</v>
+      </c>
+      <c r="D67" t="s">
+        <v>232</v>
+      </c>
+      <c r="E67" t="s">
+        <v>229</v>
+      </c>
+      <c r="F67" t="s">
+        <v>234</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B68" t="s">
+        <v>238</v>
+      </c>
+      <c r="C68" t="s">
+        <v>238</v>
+      </c>
+      <c r="D68" t="s">
+        <v>236</v>
+      </c>
+      <c r="E68" t="s">
+        <v>229</v>
+      </c>
+      <c r="F68" t="s">
+        <v>233</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B69" t="s">
+        <v>239</v>
+      </c>
+      <c r="C69" t="s">
+        <v>239</v>
+      </c>
+      <c r="D69" t="s">
+        <v>240</v>
+      </c>
+      <c r="E69" t="s">
+        <v>229</v>
+      </c>
+      <c r="F69" t="s">
+        <v>241</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B70" t="s">
+        <v>243</v>
+      </c>
+      <c r="C70" t="s">
+        <v>140</v>
+      </c>
+      <c r="D70" t="s">
+        <v>262</v>
+      </c>
+      <c r="E70" t="s">
+        <v>141</v>
+      </c>
+      <c r="F70" t="s">
+        <v>498</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B71" t="s">
+        <v>243</v>
+      </c>
+      <c r="C71" t="s">
+        <v>140</v>
+      </c>
+      <c r="D71" t="s">
+        <v>246</v>
+      </c>
+      <c r="E71" t="s">
+        <v>141</v>
+      </c>
+      <c r="F71" t="s">
+        <v>498</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B72" t="s">
+        <v>243</v>
+      </c>
+      <c r="C72" t="s">
+        <v>253</v>
+      </c>
+      <c r="D72" t="s">
+        <v>248</v>
+      </c>
+      <c r="E72" t="s">
+        <v>97</v>
+      </c>
+      <c r="F72" t="s">
+        <v>249</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B73" t="s">
+        <v>243</v>
+      </c>
+      <c r="C73" t="s">
+        <v>254</v>
+      </c>
+      <c r="D73" t="s">
+        <v>251</v>
+      </c>
+      <c r="E73" t="s">
+        <v>97</v>
+      </c>
+      <c r="F73" t="s">
+        <v>249</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B74" t="s">
+        <v>243</v>
+      </c>
+      <c r="C74" t="s">
+        <v>255</v>
+      </c>
+      <c r="D74" t="s">
+        <v>256</v>
+      </c>
+      <c r="E74" t="s">
+        <v>141</v>
+      </c>
+      <c r="F74" t="s">
+        <v>498</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B75" t="s">
+        <v>243</v>
+      </c>
+      <c r="C75" t="s">
+        <v>255</v>
+      </c>
+      <c r="D75" t="s">
+        <v>258</v>
+      </c>
+      <c r="E75" t="s">
+        <v>141</v>
+      </c>
+      <c r="F75" t="s">
+        <v>498</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B76" t="s">
+        <v>243</v>
+      </c>
+      <c r="C76" t="s">
+        <v>260</v>
+      </c>
+      <c r="D76" t="s">
+        <v>261</v>
+      </c>
+      <c r="E76" t="s">
+        <v>141</v>
+      </c>
+      <c r="F76" t="s">
+        <v>498</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B77" t="s">
+        <v>243</v>
+      </c>
+      <c r="C77" t="s">
+        <v>264</v>
+      </c>
+      <c r="D77" t="s">
+        <v>265</v>
+      </c>
+      <c r="E77" t="s">
+        <v>141</v>
+      </c>
+      <c r="F77" t="s">
+        <v>498</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B78" t="s">
+        <v>243</v>
+      </c>
+      <c r="C78" t="s">
+        <v>267</v>
+      </c>
+      <c r="D78" t="s">
+        <v>268</v>
+      </c>
+      <c r="E78" t="s">
+        <v>141</v>
+      </c>
+      <c r="F78" t="s">
+        <v>498</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B79" t="s">
+        <v>270</v>
+      </c>
+      <c r="C79" t="s">
+        <v>270</v>
+      </c>
+      <c r="D79" t="s">
+        <v>524</v>
+      </c>
+      <c r="E79" t="s">
+        <v>141</v>
+      </c>
+      <c r="F79" t="s">
+        <v>271</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B80" t="s">
+        <v>270</v>
+      </c>
+      <c r="C80" t="s">
+        <v>270</v>
+      </c>
+      <c r="D80" t="s">
+        <v>525</v>
+      </c>
+      <c r="E80" t="s">
+        <v>141</v>
+      </c>
+      <c r="F80" t="s">
+        <v>271</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B81" t="s">
+        <v>270</v>
+      </c>
+      <c r="C81" t="s">
+        <v>270</v>
+      </c>
+      <c r="D81" t="s">
+        <v>526</v>
+      </c>
+      <c r="E81" t="s">
+        <v>141</v>
+      </c>
+      <c r="F81" t="s">
+        <v>271</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B82" t="s">
+        <v>270</v>
+      </c>
+      <c r="C82" t="s">
+        <v>270</v>
+      </c>
+      <c r="D82" t="s">
+        <v>527</v>
+      </c>
+      <c r="E82" t="s">
+        <v>141</v>
+      </c>
+      <c r="F82" t="s">
+        <v>271</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B83" t="s">
+        <v>276</v>
+      </c>
+      <c r="C83" t="s">
+        <v>277</v>
+      </c>
+      <c r="D83" t="s">
+        <v>278</v>
+      </c>
+      <c r="E83" t="s">
+        <v>279</v>
+      </c>
+      <c r="F83" t="s">
+        <v>280</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B84" t="s">
+        <v>282</v>
+      </c>
+      <c r="C84" t="s">
+        <v>282</v>
+      </c>
+      <c r="D84" t="s">
+        <v>283</v>
+      </c>
+      <c r="E84" t="s">
+        <v>97</v>
+      </c>
+      <c r="F84" t="s">
+        <v>249</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B85" t="s">
+        <v>308</v>
+      </c>
+      <c r="C85" t="s">
+        <v>308</v>
+      </c>
+      <c r="D85" t="s">
+        <v>296</v>
+      </c>
+      <c r="E85" t="s">
+        <v>97</v>
+      </c>
+      <c r="F85" t="s">
+        <v>249</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B86" t="s">
+        <v>309</v>
+      </c>
+      <c r="C86" t="s">
+        <v>309</v>
+      </c>
+      <c r="D86" t="s">
+        <v>297</v>
+      </c>
+      <c r="E86" t="s">
+        <v>97</v>
+      </c>
+      <c r="F86" t="s">
+        <v>249</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B87" t="s">
+        <v>310</v>
+      </c>
+      <c r="C87" t="s">
+        <v>310</v>
+      </c>
+      <c r="D87" t="s">
+        <v>299</v>
+      </c>
+      <c r="E87" t="s">
+        <v>97</v>
+      </c>
+      <c r="F87" t="s">
+        <v>249</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B88" t="s">
+        <v>311</v>
+      </c>
+      <c r="C88" t="s">
+        <v>311</v>
+      </c>
+      <c r="D88" t="s">
+        <v>298</v>
+      </c>
+      <c r="E88" t="s">
+        <v>97</v>
+      </c>
+      <c r="F88" t="s">
+        <v>249</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B89" t="s">
+        <v>312</v>
+      </c>
+      <c r="C89" t="s">
+        <v>312</v>
+      </c>
+      <c r="D89" t="s">
+        <v>300</v>
+      </c>
+      <c r="E89" t="s">
+        <v>97</v>
+      </c>
+      <c r="F89" t="s">
+        <v>249</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B90" t="s">
+        <v>313</v>
+      </c>
+      <c r="C90" t="s">
+        <v>313</v>
+      </c>
+      <c r="D90" t="s">
+        <v>301</v>
+      </c>
+      <c r="E90" t="s">
+        <v>97</v>
+      </c>
+      <c r="F90" t="s">
+        <v>249</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B91" t="s">
+        <v>314</v>
+      </c>
+      <c r="C91" t="s">
+        <v>314</v>
+      </c>
+      <c r="D91" t="s">
+        <v>302</v>
+      </c>
+      <c r="E91" t="s">
+        <v>97</v>
+      </c>
+      <c r="F91" t="s">
+        <v>249</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B92" t="s">
+        <v>315</v>
+      </c>
+      <c r="C92" t="s">
+        <v>315</v>
+      </c>
+      <c r="D92" t="s">
+        <v>303</v>
+      </c>
+      <c r="E92" t="s">
+        <v>97</v>
+      </c>
+      <c r="F92" t="s">
+        <v>249</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B93" t="s">
+        <v>316</v>
+      </c>
+      <c r="C93" t="s">
+        <v>316</v>
+      </c>
+      <c r="D93" t="s">
+        <v>304</v>
+      </c>
+      <c r="E93" t="s">
+        <v>97</v>
+      </c>
+      <c r="F93" t="s">
+        <v>249</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B94" t="s">
+        <v>317</v>
+      </c>
+      <c r="C94" t="s">
+        <v>317</v>
+      </c>
+      <c r="D94" t="s">
+        <v>305</v>
+      </c>
+      <c r="E94" t="s">
+        <v>97</v>
+      </c>
+      <c r="F94" t="s">
+        <v>249</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B95" t="s">
+        <v>318</v>
+      </c>
+      <c r="C95" t="s">
+        <v>318</v>
+      </c>
+      <c r="D95" t="s">
+        <v>306</v>
+      </c>
+      <c r="E95" t="s">
+        <v>97</v>
+      </c>
+      <c r="F95" t="s">
+        <v>249</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B96" t="s">
+        <v>319</v>
+      </c>
+      <c r="C96" t="s">
+        <v>319</v>
+      </c>
+      <c r="D96" t="s">
+        <v>307</v>
+      </c>
+      <c r="E96" t="s">
+        <v>97</v>
+      </c>
+      <c r="F96" t="s">
+        <v>249</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B97" t="s">
+        <v>357</v>
+      </c>
+      <c r="C97" t="s">
+        <v>357</v>
+      </c>
+      <c r="D97" t="s">
+        <v>321</v>
+      </c>
+      <c r="E97" t="s">
+        <v>97</v>
+      </c>
+      <c r="F97" t="s">
+        <v>249</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B98" t="s">
+        <v>358</v>
+      </c>
+      <c r="C98" t="s">
+        <v>358</v>
+      </c>
+      <c r="D98" t="s">
+        <v>337</v>
+      </c>
+      <c r="E98" t="s">
+        <v>97</v>
+      </c>
+      <c r="F98" t="s">
+        <v>249</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B99" t="s">
+        <v>359</v>
+      </c>
+      <c r="C99" t="s">
+        <v>359</v>
+      </c>
+      <c r="D99" t="s">
+        <v>338</v>
+      </c>
+      <c r="E99" t="s">
+        <v>97</v>
+      </c>
+      <c r="F99" t="s">
+        <v>249</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B100" t="s">
+        <v>360</v>
+      </c>
+      <c r="C100" t="s">
+        <v>360</v>
+      </c>
+      <c r="D100" t="s">
+        <v>339</v>
+      </c>
+      <c r="E100" t="s">
+        <v>97</v>
+      </c>
+      <c r="F100" t="s">
+        <v>249</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B101" t="s">
+        <v>361</v>
+      </c>
+      <c r="C101" t="s">
+        <v>361</v>
+      </c>
+      <c r="D101" t="s">
+        <v>324</v>
+      </c>
+      <c r="E101" t="s">
+        <v>97</v>
+      </c>
+      <c r="F101" t="s">
+        <v>249</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B102" t="s">
+        <v>362</v>
+      </c>
+      <c r="C102" t="s">
+        <v>362</v>
+      </c>
+      <c r="D102" t="s">
+        <v>340</v>
+      </c>
+      <c r="E102" t="s">
+        <v>97</v>
+      </c>
+      <c r="F102" t="s">
+        <v>249</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B103" t="s">
+        <v>363</v>
+      </c>
+      <c r="C103" t="s">
+        <v>363</v>
+      </c>
+      <c r="D103" t="s">
+        <v>341</v>
+      </c>
+      <c r="E103" t="s">
+        <v>97</v>
+      </c>
+      <c r="F103" t="s">
+        <v>249</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B104" t="s">
+        <v>364</v>
+      </c>
+      <c r="C104" t="s">
+        <v>364</v>
+      </c>
+      <c r="D104" t="s">
+        <v>342</v>
+      </c>
+      <c r="E104" t="s">
+        <v>97</v>
+      </c>
+      <c r="F104" t="s">
+        <v>249</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B105" t="s">
+        <v>365</v>
+      </c>
+      <c r="C105" t="s">
+        <v>365</v>
+      </c>
+      <c r="D105" t="s">
+        <v>343</v>
+      </c>
+      <c r="E105" t="s">
+        <v>97</v>
+      </c>
+      <c r="F105" t="s">
+        <v>249</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B106" t="s">
+        <v>366</v>
+      </c>
+      <c r="C106" t="s">
+        <v>366</v>
+      </c>
+      <c r="D106" t="s">
+        <v>344</v>
+      </c>
+      <c r="E106" t="s">
+        <v>97</v>
+      </c>
+      <c r="F106" t="s">
+        <v>249</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B107" t="s">
+        <v>367</v>
+      </c>
+      <c r="C107" t="s">
+        <v>367</v>
+      </c>
+      <c r="D107" t="s">
+        <v>345</v>
+      </c>
+      <c r="E107" t="s">
+        <v>97</v>
+      </c>
+      <c r="F107" t="s">
+        <v>249</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B108" t="s">
+        <v>368</v>
+      </c>
+      <c r="C108" t="s">
+        <v>368</v>
+      </c>
+      <c r="D108" t="s">
+        <v>346</v>
+      </c>
+      <c r="E108" t="s">
+        <v>97</v>
+      </c>
+      <c r="F108" t="s">
+        <v>249</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B109" t="s">
+        <v>322</v>
+      </c>
+      <c r="C109" t="s">
+        <v>322</v>
+      </c>
+      <c r="D109" t="s">
+        <v>369</v>
+      </c>
+      <c r="E109" t="s">
+        <v>97</v>
+      </c>
+      <c r="F109" t="s">
+        <v>249</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B110" t="s">
+        <v>347</v>
+      </c>
+      <c r="C110" t="s">
+        <v>347</v>
+      </c>
+      <c r="D110" t="s">
+        <v>370</v>
+      </c>
+      <c r="E110" t="s">
+        <v>97</v>
+      </c>
+      <c r="F110" t="s">
+        <v>249</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B111" t="s">
+        <v>348</v>
+      </c>
+      <c r="C111" t="s">
+        <v>348</v>
+      </c>
+      <c r="D111" t="s">
+        <v>371</v>
+      </c>
+      <c r="E111" t="s">
+        <v>97</v>
+      </c>
+      <c r="F111" t="s">
+        <v>249</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B112" t="s">
+        <v>349</v>
+      </c>
+      <c r="C112" t="s">
+        <v>349</v>
+      </c>
+      <c r="D112" t="s">
+        <v>372</v>
+      </c>
+      <c r="E112" t="s">
+        <v>97</v>
+      </c>
+      <c r="F112" t="s">
+        <v>249</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B113" t="s">
+        <v>323</v>
+      </c>
+      <c r="C113" t="s">
+        <v>323</v>
+      </c>
+      <c r="D113" t="s">
+        <v>373</v>
+      </c>
+      <c r="E113" t="s">
+        <v>97</v>
+      </c>
+      <c r="F113" t="s">
+        <v>249</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B114" t="s">
+        <v>350</v>
+      </c>
+      <c r="C114" t="s">
+        <v>350</v>
+      </c>
+      <c r="D114" t="s">
+        <v>374</v>
+      </c>
+      <c r="E114" t="s">
+        <v>97</v>
+      </c>
+      <c r="F114" t="s">
+        <v>249</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B115" t="s">
+        <v>351</v>
+      </c>
+      <c r="C115" t="s">
+        <v>351</v>
+      </c>
+      <c r="D115" t="s">
+        <v>375</v>
+      </c>
+      <c r="E115" t="s">
+        <v>97</v>
+      </c>
+      <c r="F115" t="s">
+        <v>249</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B116" t="s">
+        <v>352</v>
+      </c>
+      <c r="C116" t="s">
+        <v>352</v>
+      </c>
+      <c r="D116" t="s">
+        <v>376</v>
+      </c>
+      <c r="E116" t="s">
+        <v>97</v>
+      </c>
+      <c r="F116" t="s">
+        <v>249</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B117" t="s">
+        <v>353</v>
+      </c>
+      <c r="C117" t="s">
+        <v>353</v>
+      </c>
+      <c r="D117" t="s">
+        <v>377</v>
+      </c>
+      <c r="E117" t="s">
+        <v>97</v>
+      </c>
+      <c r="F117" t="s">
+        <v>249</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B118" t="s">
+        <v>354</v>
+      </c>
+      <c r="C118" t="s">
+        <v>354</v>
+      </c>
+      <c r="D118" t="s">
+        <v>378</v>
+      </c>
+      <c r="E118" t="s">
+        <v>97</v>
+      </c>
+      <c r="F118" t="s">
+        <v>249</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B119" t="s">
+        <v>355</v>
+      </c>
+      <c r="C119" t="s">
+        <v>355</v>
+      </c>
+      <c r="D119" t="s">
+        <v>379</v>
+      </c>
+      <c r="E119" t="s">
+        <v>97</v>
+      </c>
+      <c r="F119" t="s">
+        <v>249</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B120" t="s">
+        <v>356</v>
+      </c>
+      <c r="C120" t="s">
+        <v>356</v>
+      </c>
+      <c r="D120" t="s">
+        <v>380</v>
+      </c>
+      <c r="E120" t="s">
+        <v>97</v>
+      </c>
+      <c r="F120" t="s">
+        <v>249</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B121" t="s">
+        <v>393</v>
+      </c>
+      <c r="C121" t="s">
+        <v>393</v>
+      </c>
+      <c r="D121" t="s">
+        <v>394</v>
+      </c>
+      <c r="E121" t="s">
+        <v>279</v>
+      </c>
+      <c r="F121" t="s">
+        <v>425</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B122" t="s">
+        <v>405</v>
+      </c>
+      <c r="C122" t="s">
+        <v>405</v>
+      </c>
+      <c r="D122" t="s">
+        <v>406</v>
+      </c>
+      <c r="E122" t="s">
+        <v>279</v>
+      </c>
+      <c r="F122" t="s">
+        <v>431</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B123" t="s">
+        <v>407</v>
+      </c>
+      <c r="C123" t="s">
+        <v>407</v>
+      </c>
+      <c r="D123" t="s">
+        <v>416</v>
+      </c>
+      <c r="E123" t="s">
+        <v>279</v>
+      </c>
+      <c r="F123" t="s">
+        <v>426</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B124" t="s">
+        <v>408</v>
+      </c>
+      <c r="C124" t="s">
+        <v>408</v>
+      </c>
+      <c r="D124" t="s">
+        <v>417</v>
+      </c>
+      <c r="E124" t="s">
+        <v>279</v>
+      </c>
+      <c r="F124" t="s">
+        <v>435</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B125" t="s">
+        <v>415</v>
+      </c>
+      <c r="C125" t="s">
+        <v>415</v>
+      </c>
+      <c r="D125" t="s">
+        <v>418</v>
+      </c>
+      <c r="E125" t="s">
+        <v>279</v>
+      </c>
+      <c r="F125" t="s">
+        <v>432</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B126" t="s">
+        <v>409</v>
+      </c>
+      <c r="C126" t="s">
+        <v>409</v>
+      </c>
+      <c r="D126" t="s">
+        <v>419</v>
+      </c>
+      <c r="E126" t="s">
+        <v>279</v>
+      </c>
+      <c r="F126" t="s">
+        <v>430</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B127" t="s">
+        <v>410</v>
+      </c>
+      <c r="C127" t="s">
+        <v>410</v>
+      </c>
+      <c r="D127" t="s">
+        <v>420</v>
+      </c>
+      <c r="E127" t="s">
+        <v>279</v>
+      </c>
+      <c r="F127" t="s">
+        <v>429</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B128" t="s">
+        <v>411</v>
+      </c>
+      <c r="C128" t="s">
+        <v>411</v>
+      </c>
+      <c r="D128" t="s">
+        <v>421</v>
+      </c>
+      <c r="E128" t="s">
+        <v>279</v>
+      </c>
+      <c r="F128" t="s">
+        <v>427</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B129" t="s">
+        <v>412</v>
+      </c>
+      <c r="C129" t="s">
+        <v>412</v>
+      </c>
+      <c r="D129" t="s">
+        <v>422</v>
+      </c>
+      <c r="E129" t="s">
+        <v>279</v>
+      </c>
+      <c r="F129" t="s">
+        <v>428</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B130" t="s">
+        <v>413</v>
+      </c>
+      <c r="C130" t="s">
+        <v>413</v>
+      </c>
+      <c r="D130" t="s">
+        <v>423</v>
+      </c>
+      <c r="E130" t="s">
+        <v>279</v>
+      </c>
+      <c r="F130" t="s">
+        <v>434</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B131" t="s">
+        <v>414</v>
+      </c>
+      <c r="C131" t="s">
+        <v>414</v>
+      </c>
+      <c r="D131" t="s">
+        <v>424</v>
+      </c>
+      <c r="E131" t="s">
+        <v>279</v>
+      </c>
+      <c r="F131" t="s">
+        <v>433</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B132" t="s">
+        <v>437</v>
+      </c>
+      <c r="C132" t="s">
+        <v>437</v>
+      </c>
+      <c r="D132" t="s">
+        <v>438</v>
+      </c>
+      <c r="E132" t="s">
+        <v>279</v>
+      </c>
+      <c r="F132" t="s">
+        <v>439</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B133" t="s">
+        <v>440</v>
+      </c>
+      <c r="C133" t="s">
+        <v>440</v>
+      </c>
+      <c r="D133" t="s">
+        <v>441</v>
+      </c>
+      <c r="E133" t="s">
+        <v>279</v>
+      </c>
+      <c r="F133" t="s">
+        <v>431</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B134" t="s">
+        <v>393</v>
+      </c>
+      <c r="C134" t="s">
+        <v>393</v>
+      </c>
+      <c r="D134" t="s">
+        <v>453</v>
+      </c>
+      <c r="E134" t="s">
+        <v>279</v>
+      </c>
+      <c r="F134" t="s">
+        <v>425</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B135" t="s">
+        <v>407</v>
+      </c>
+      <c r="C135" t="s">
+        <v>407</v>
+      </c>
+      <c r="D135" t="s">
+        <v>454</v>
+      </c>
+      <c r="E135" t="s">
+        <v>279</v>
+      </c>
+      <c r="F135" t="s">
+        <v>426</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B136" t="s">
+        <v>408</v>
+      </c>
+      <c r="C136" t="s">
+        <v>408</v>
+      </c>
+      <c r="D136" t="s">
+        <v>455</v>
+      </c>
+      <c r="E136" t="s">
+        <v>279</v>
+      </c>
+      <c r="F136" t="s">
+        <v>435</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B137" t="s">
+        <v>415</v>
+      </c>
+      <c r="C137" t="s">
+        <v>415</v>
+      </c>
+      <c r="D137" t="s">
+        <v>456</v>
+      </c>
+      <c r="E137" t="s">
+        <v>279</v>
+      </c>
+      <c r="F137" t="s">
+        <v>432</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B138" t="s">
+        <v>409</v>
+      </c>
+      <c r="C138" t="s">
+        <v>409</v>
+      </c>
+      <c r="D138" t="s">
+        <v>457</v>
+      </c>
+      <c r="E138" t="s">
+        <v>279</v>
+      </c>
+      <c r="F138" t="s">
+        <v>430</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B139" t="s">
+        <v>410</v>
+      </c>
+      <c r="C139" t="s">
+        <v>410</v>
+      </c>
+      <c r="D139" t="s">
+        <v>458</v>
+      </c>
+      <c r="E139" t="s">
+        <v>279</v>
+      </c>
+      <c r="F139" t="s">
+        <v>429</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B140" t="s">
+        <v>411</v>
+      </c>
+      <c r="C140" t="s">
+        <v>411</v>
+      </c>
+      <c r="D140" t="s">
+        <v>459</v>
+      </c>
+      <c r="E140" t="s">
+        <v>279</v>
+      </c>
+      <c r="F140" t="s">
+        <v>427</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B141" t="s">
+        <v>412</v>
+      </c>
+      <c r="C141" t="s">
+        <v>412</v>
+      </c>
+      <c r="D141" t="s">
+        <v>460</v>
+      </c>
+      <c r="E141" t="s">
+        <v>279</v>
+      </c>
+      <c r="F141" t="s">
+        <v>428</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B142" t="s">
+        <v>413</v>
+      </c>
+      <c r="C142" t="s">
+        <v>413</v>
+      </c>
+      <c r="D142" t="s">
+        <v>461</v>
+      </c>
+      <c r="E142" t="s">
+        <v>279</v>
+      </c>
+      <c r="F142" t="s">
+        <v>434</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B143" t="s">
+        <v>414</v>
+      </c>
+      <c r="C143" t="s">
+        <v>414</v>
+      </c>
+      <c r="D143" t="s">
+        <v>462</v>
+      </c>
+      <c r="E143" t="s">
+        <v>279</v>
+      </c>
+      <c r="F143" t="s">
+        <v>433</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B144" t="s">
+        <v>437</v>
+      </c>
+      <c r="C144" t="s">
+        <v>437</v>
+      </c>
+      <c r="D144" t="s">
+        <v>463</v>
+      </c>
+      <c r="E144" t="s">
+        <v>279</v>
+      </c>
+      <c r="F144" t="s">
+        <v>439</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B145" t="s">
+        <v>129</v>
+      </c>
+      <c r="C145" t="s">
+        <v>129</v>
+      </c>
+      <c r="D145" t="s">
+        <v>466</v>
+      </c>
+      <c r="E145" t="s">
+        <v>279</v>
+      </c>
+      <c r="F145" t="s">
+        <v>439</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B146" t="s">
+        <v>468</v>
+      </c>
+      <c r="C146" t="s">
+        <v>468</v>
+      </c>
+      <c r="D146" t="s">
+        <v>469</v>
+      </c>
+      <c r="E146" t="s">
+        <v>279</v>
+      </c>
+      <c r="F146" t="s">
+        <v>431</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B147" t="s">
+        <v>468</v>
+      </c>
+      <c r="C147" t="s">
+        <v>468</v>
+      </c>
+      <c r="D147" t="s">
+        <v>522</v>
+      </c>
+      <c r="E147" t="s">
+        <v>279</v>
+      </c>
+      <c r="F147" t="s">
+        <v>425</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B148" t="s">
+        <v>471</v>
+      </c>
+      <c r="C148" t="s">
+        <v>471</v>
+      </c>
+      <c r="D148" t="s">
+        <v>472</v>
+      </c>
+      <c r="E148" t="s">
+        <v>279</v>
+      </c>
+      <c r="F148" t="s">
+        <v>425</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B149" t="s">
+        <v>474</v>
+      </c>
+      <c r="C149" t="s">
+        <v>474</v>
+      </c>
+      <c r="D149" t="s">
+        <v>475</v>
+      </c>
+      <c r="E149" t="s">
+        <v>279</v>
+      </c>
+      <c r="F149" t="s">
+        <v>425</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B150" t="s">
+        <v>474</v>
+      </c>
+      <c r="C150" t="s">
+        <v>474</v>
+      </c>
+      <c r="D150" t="s">
+        <v>477</v>
+      </c>
+      <c r="E150" t="s">
+        <v>279</v>
+      </c>
+      <c r="F150" t="s">
+        <v>425</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B151" t="s">
+        <v>474</v>
+      </c>
+      <c r="C151" t="s">
+        <v>474</v>
+      </c>
+      <c r="D151" t="s">
+        <v>479</v>
+      </c>
+      <c r="E151" t="s">
+        <v>279</v>
+      </c>
+      <c r="F151" t="s">
+        <v>425</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B152" t="s">
+        <v>474</v>
+      </c>
+      <c r="C152" t="s">
+        <v>474</v>
+      </c>
+      <c r="D152" t="s">
+        <v>480</v>
+      </c>
+      <c r="E152" t="s">
+        <v>279</v>
+      </c>
+      <c r="F152" t="s">
+        <v>425</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B153" t="s">
+        <v>486</v>
+      </c>
+      <c r="C153" t="s">
+        <v>486</v>
+      </c>
+      <c r="D153" t="s">
+        <v>485</v>
+      </c>
+      <c r="E153" t="s">
         <v>154</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>13</v>
+      <c r="F153" t="s">
+        <v>482</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B154" t="s">
+        <v>486</v>
+      </c>
+      <c r="C154" t="s">
+        <v>486</v>
+      </c>
+      <c r="D154" t="s">
+        <v>484</v>
+      </c>
+      <c r="E154" t="s">
+        <v>154</v>
+      </c>
+      <c r="F154" t="s">
+        <v>482</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B155" t="s">
+        <v>486</v>
+      </c>
+      <c r="C155" t="s">
+        <v>486</v>
+      </c>
+      <c r="D155" t="s">
+        <v>488</v>
+      </c>
+      <c r="E155" t="s">
+        <v>154</v>
+      </c>
+      <c r="F155" t="s">
+        <v>482</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B156" t="s">
+        <v>490</v>
+      </c>
+      <c r="C156" t="s">
+        <v>490</v>
+      </c>
+      <c r="D156" t="s">
+        <v>528</v>
+      </c>
+      <c r="E156" t="s">
+        <v>491</v>
+      </c>
+      <c r="F156" t="s">
+        <v>492</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B157" t="s">
+        <v>486</v>
+      </c>
+      <c r="C157" t="s">
+        <v>486</v>
+      </c>
+      <c r="D157" t="s">
+        <v>529</v>
+      </c>
+      <c r="E157" t="s">
+        <v>154</v>
+      </c>
+      <c r="F157" t="s">
+        <v>482</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B158" t="s">
+        <v>486</v>
+      </c>
+      <c r="C158" t="s">
+        <v>486</v>
+      </c>
+      <c r="D158" t="s">
+        <v>495</v>
+      </c>
+      <c r="E158" t="s">
+        <v>154</v>
+      </c>
+      <c r="F158" t="s">
+        <v>496</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B159" t="s">
+        <v>503</v>
+      </c>
+      <c r="C159" t="s">
+        <v>503</v>
+      </c>
+      <c r="D159" t="s">
+        <v>504</v>
+      </c>
+      <c r="E159" t="s">
+        <v>147</v>
+      </c>
+      <c r="F159" t="s">
+        <v>24</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B160" t="s">
+        <v>506</v>
+      </c>
+      <c r="C160" t="s">
+        <v>506</v>
+      </c>
+      <c r="D160" t="s">
+        <v>507</v>
+      </c>
+      <c r="E160" t="s">
+        <v>147</v>
+      </c>
+      <c r="F160" t="s">
+        <v>508</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/leave/src/main/resources/Sanity.xlsx
+++ b/leave/src/main/resources/Sanity.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\Desktop\Automation_Project\leave\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\Desktop\yeten\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3A6DE0-D0DC-49E4-81D8-ED91D4E54941}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0831E6A4-2B0E-4719-AC71-01FDDC6CB15C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2005,8 +2005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B144" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D157" sqref="D157"/>
+    <sheetView tabSelected="1" topLeftCell="D33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3077,7 +3077,7 @@
         <v>138</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">

--- a/leave/src/main/resources/Sanity.xlsx
+++ b/leave/src/main/resources/Sanity.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\Desktop\yeten\Automation_Project\leave\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\Desktop\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6324C6B-4E14-4E43-9EF1-0FF92059B980}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3A6DE0-D0DC-49E4-81D8-ED91D4E54941}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TestCaseMaster" sheetId="2" r:id="rId1"/>
+    <sheet name="TestCaseMaster" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="530">
   <si>
     <t>TCID</t>
   </si>
@@ -467,6 +467,9 @@
     <t>DeactivationLeaveBalance</t>
   </si>
   <si>
+    <t>All_without_Creation</t>
+  </si>
+  <si>
     <t>40</t>
   </si>
   <si>
@@ -596,6 +599,12 @@
     <t>LeaveBalance_42_82</t>
   </si>
   <si>
+    <t>CarryForwardBalanceHourly_Total</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.Custom.CarryForwardTests.CarryForwardWithBalance_Hourly</t>
+  </si>
+  <si>
     <t>55</t>
   </si>
   <si>
@@ -614,24 +623,927 @@
     <t>com.darwinbox.leaves.Accural.Custom.LeaveBalanceTests.Daily.LeaveBalance_48EmployeeCreation_101_123</t>
   </si>
   <si>
+    <t>com.darwinbox.leaves.Accural.Custom.LeaveBalanceTests.Hourly.LeaveBalance_48EmployeeCreation_1_25</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.Custom.LeaveBalanceTests.Hourly.LeaveBalance_48EmployeeCreation_26_41</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.Custom.LeaveBalanceTests.Hourly.LeaveBalance_48EmployeeCreation_42_82</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.Custom.LeaveBalanceTests.Hourly.LeaveBalance_48EmployeeCreation_83_100</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.Custom.LeaveBalanceTests.Hourly.LeaveBalance_48EmployeeCreation_101_123</t>
+  </si>
+  <si>
     <t>56</t>
   </si>
   <si>
     <t>57</t>
   </si>
   <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>LeaveBalance_Hourly_1_25</t>
+  </si>
+  <si>
+    <t>LeaveBalance_Hourly_26_41</t>
+  </si>
+  <si>
+    <t>LeaveBalance_Hourly_83_100</t>
+  </si>
+  <si>
+    <t>LeaveBalance_Hourly_101_123</t>
+  </si>
+  <si>
     <t>com.darwinbox.leaves.Accural.Custom.Daily.MutlipleAllotment_P</t>
   </si>
   <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.Custom.MultipleAllotment.Hourly.MutlipleAllotment</t>
+  </si>
+  <si>
     <t>Leave Encashmnet</t>
   </si>
   <si>
     <t>com.darwinbox.leaves.Accural.Custom.MultipleAllotment.Daily.MutlipleAllotment</t>
   </si>
   <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>CarryForwardWithWorkingDays</t>
+  </si>
+  <si>
+    <t>Carry Forward Balance With Working Days</t>
+  </si>
+  <si>
+    <t>CFWD_WD</t>
+  </si>
+  <si>
+    <t>Accural//CarryForwardWithWorkingDays.xlsx</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>Multiple Allotment With Carry Forward</t>
+  </si>
+  <si>
+    <t>Accural//MultipleLeaveAllotmentWithCarryForward.xlsx</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.Custom.CarryForwardTests.CarryForwardWithBalance.probation</t>
+  </si>
+  <si>
+    <t>Probation</t>
+  </si>
+  <si>
     <t>CarryForward</t>
   </si>
   <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>Leave Adjustmwents - acticve Employee</t>
+  </si>
+  <si>
+    <t>LeaveAdjustments//LeaveAdjustmentTests.xlsx</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>Leave Adjustmwents - acticve Employee Over Utilization</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.LeaveAdjustments.ActiveEmployee.VerifyOverUtlizaionScenario</t>
+  </si>
+  <si>
+    <t>leaveBalanceTests</t>
+  </si>
+  <si>
+    <t>OverUtilizationTests</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.LeaveAdjustments.InActiveEmployee.CarryForwardScenario</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>Leave Adjustmwents -in  acticve Employee Carry Forward</t>
+  </si>
+  <si>
+    <t>Leave Adjustmwents -in  acticve Employee Carry Forward With Working Days</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.LeaveAdjustments.InActiveEmployee.CarryForwardWorkingDaysScenario</t>
+  </si>
+  <si>
+    <t>CarryForwardTests</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.LeaveAdjustments.ActiveEmployee.VerifyCFWithLeaveAdjustment</t>
+  </si>
+  <si>
+    <t>Sanity Check</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Sanity.Accural.CarryForwardChecks.CarryForwardWithLeavesApplied</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Sanity.Accural.CarryForwardChecks.CarryForwardWithLeaveEncashment</t>
+  </si>
+  <si>
+    <t>LeaveEncashmentSanity</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Sanity.Accural.CarryForwardChecks.CarryForwardWithLeaveEncashmentAndLeaves</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carry Forward With Leave Encashmnet </t>
+  </si>
+  <si>
+    <t>Carry Forward With Leave Encashmnet and Leaves</t>
+  </si>
+  <si>
+    <t>Carry Forward For two Cycles</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Sanity.Accural.CarryForwardChecks.CarryForwardBalanceForTwoCycles</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Sanity.Accural.CarryForwardChecks.CarryForwardBalanceForTwoCyclesWithLeaves</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>Carry Forward For two Cycles With Leaves Encashments and Adjustments</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Sanity.Accural.CarryForwardChecks.CarryForwardBalanceForTwoCyclesWithLeaveEncashmentAdjustment</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Sanity.Accural.CarryForwardChecks.CarryForwardCronCheck</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>Apply Adjusment In Past</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Sanity.Accural.AdjustmentChecks.ApplyAdjustmentInPast</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>Apply Adjusment In Future</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Sanity.Accural.AdjustmentChecks.ApplyAdjustmentInFuture</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>Production Bug - DBX -7557</t>
+  </si>
+  <si>
+    <t>CF_ALL</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>Carry forward With Tenure</t>
+  </si>
+  <si>
+    <t>Carry Forward Balance With Tenure</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.CarryForwardWithTenure</t>
+  </si>
+  <si>
+    <t>Accural//CarryForwardWithTenure.xlsx</t>
+  </si>
+  <si>
+    <t>CFWithTenure</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>DBX_7691_Scenario 1</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7691.CarryForwardWithLeaveEncashmentAndLeaves_S1</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Sanity.Accural.CarryForwardChecks.CarryForwardWithLeaveEncashmentAndLeaves.CalenderCycle</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Sanity.Accural.CarryForwardChecks.CarryForwardWithLeaveEncashmentAndLeaves.Febrauary</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Sanity.Accural.CarryForwardChecks.CarryForwardWithLeaveEncashmentAndLeaves.FinancialCycle</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Sanity.Accural.CarryForwardChecks.CarryForwardWithLeaveEncashmentAndLeaves.March</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Sanity.Accural.CarryForwardChecks.CarryForwardWithLeaveEncashmentAndLeaves.May</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Sanity.Accural.CarryForwardChecks.CarryForwardWithLeaveEncashmentAndLeaves.June</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Sanity.Accural.CarryForwardChecks.CarryForwardWithLeaveEncashmentAndLeaves.July</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Sanity.Accural.CarryForwardChecks.CarryForwardWithLeaveEncashmentAndLeaves.August</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Sanity.Accural.CarryForwardChecks.CarryForwardWithLeaveEncashmentAndLeaves.September</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Sanity.Accural.CarryForwardChecks.CarryForwardWithLeaveEncashmentAndLeaves.October</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Sanity.Accural.CarryForwardChecks.CarryForwardWithLeaveEncashmentAndLeaves.November</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Sanity.Accural.CarryForwardChecks.CarryForwardWithLeaveEncashmentAndLeaves.December</t>
+  </si>
+  <si>
+    <t>Carry Forward With Leave Encashmnet and Leaves-calendra</t>
+  </si>
+  <si>
+    <t>Carry Forward With Leave Encashmnet and Leaves-feb</t>
+  </si>
+  <si>
+    <t>Carry Forward With Leave Encashmnet and Leaves-march</t>
+  </si>
+  <si>
+    <t>Carry Forward With Leave Encashmnet and Leaves-fianancial</t>
+  </si>
+  <si>
+    <t>Carry Forward With Leave Encashmnet and Leaves-may</t>
+  </si>
+  <si>
+    <t>Carry Forward With Leave Encashmnet and Leaves-june</t>
+  </si>
+  <si>
+    <t>Carry Forward With Leave Encashmnet and Leaves-july</t>
+  </si>
+  <si>
+    <t>Carry Forward With Leave Encashmnet and Leaves-august</t>
+  </si>
+  <si>
+    <t>Carry Forward With Leave Encashmnet and Leaves-september</t>
+  </si>
+  <si>
+    <t>Carry Forward With Leave Encashmnet and Leaves-october</t>
+  </si>
+  <si>
+    <t>Carry Forward With Leave Encashmnet and Leaves-november</t>
+  </si>
+  <si>
+    <t>Carry Forward With Leave Encashmnet and Leaves-december</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7691.CarryForwardWithLeaveEncashmentAndLeaves_S2.August</t>
+  </si>
+  <si>
+    <t>DBX_7691_Scenario 1 August</t>
+  </si>
+  <si>
+    <t>DBX_7691_Scenario 1 Calender</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7691.CarryForwardWithLeaveEncashmentAndLeaves_S2.Calender</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7691.CarryForwardWithLeaveEncashmentAndLeaves_S2.December</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7691.CarryForwardWithLeaveEncashmentAndLeaves_S2.February</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7691.CarryForwardWithLeaveEncashmentAndLeaves_S2.Financial</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7691.CarryForwardWithLeaveEncashmentAndLeaves_S2.July</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7691.CarryForwardWithLeaveEncashmentAndLeaves_S2.June</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7691.CarryForwardWithLeaveEncashmentAndLeaves_S2.March</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7691.CarryForwardWithLeaveEncashmentAndLeaves_S2.May</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7691.CarryForwardWithLeaveEncashmentAndLeaves_S2.November</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7691.CarryForwardWithLeaveEncashmentAndLeaves_S2.October</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7691.CarryForwardWithLeaveEncashmentAndLeaves_S2.September</t>
+  </si>
+  <si>
+    <t>DBX_7691_Scenario 1 December</t>
+  </si>
+  <si>
+    <t>DBX_7691_Scenario 1 Febrauary</t>
+  </si>
+  <si>
+    <t>DBX_7691_Scenario 1 Financial</t>
+  </si>
+  <si>
+    <t>DBX_7691_Scenario 1 July</t>
+  </si>
+  <si>
+    <t>DBX_7691_Scenario 1 June</t>
+  </si>
+  <si>
+    <t>DBX_7691_Scenario 1 March</t>
+  </si>
+  <si>
+    <t>DBX_7691_Scenario 1 May</t>
+  </si>
+  <si>
+    <t>DBX_7691_Scenario 1 November</t>
+  </si>
+  <si>
+    <t>DBX_7691_Scenario 1 October</t>
+  </si>
+  <si>
+    <t>DBX_7691_Scenario 1 September</t>
+  </si>
+  <si>
+    <t>DBX_7692_Scenario 2 August</t>
+  </si>
+  <si>
+    <t>DBX_7692_Scenario 2 December</t>
+  </si>
+  <si>
+    <t>DBX_7692_Scenario 2 Febrauary</t>
+  </si>
+  <si>
+    <t>DBX_7692_Scenario 2 Financial</t>
+  </si>
+  <si>
+    <t>DBX_7692_Scenario 2 Calender</t>
+  </si>
+  <si>
+    <t>DBX_7692_Scenario 2 July</t>
+  </si>
+  <si>
+    <t>DBX_7692_Scenario 2 June</t>
+  </si>
+  <si>
+    <t>DBX_7692_Scenario 2 March</t>
+  </si>
+  <si>
+    <t>DBX_7692_Scenario 2 May</t>
+  </si>
+  <si>
+    <t>DBX_7692_Scenario 2 November</t>
+  </si>
+  <si>
+    <t>DBX_7692_Scenario 2 October</t>
+  </si>
+  <si>
+    <t>DBX_7692_Scenario 2 September</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7691.CarryForwardWithLeaveEncashmentAndLeaves_S1.August</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7691.CarryForwardWithLeaveEncashmentAndLeaves_S1.December</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7691.CarryForwardWithLeaveEncashmentAndLeaves_S1.February</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7691.CarryForwardWithLeaveEncashmentAndLeaves_S1.Financial</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7691.CarryForwardWithLeaveEncashmentAndLeaves_S1.Calender</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7691.CarryForwardWithLeaveEncashmentAndLeaves_S1.July</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7691.CarryForwardWithLeaveEncashmentAndLeaves_S1.June</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7691.CarryForwardWithLeaveEncashmentAndLeaves_S1.March</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7691.CarryForwardWithLeaveEncashmentAndLeaves_S1.May</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7691.CarryForwardWithLeaveEncashmentAndLeaves_S1.November</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7691.CarryForwardWithLeaveEncashmentAndLeaves_S1.October</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7691.CarryForwardWithLeaveEncashmentAndLeaves_S1.September</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>CarryForwardWithTenure Financial</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.TwoCycles.Financial</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>CarryForwardWithTenure August</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.TwoCycles.August</t>
+  </si>
+  <si>
+    <t>CarryForwardWithTenure Calender</t>
+  </si>
+  <si>
+    <t>CarryForwardWithTenure Febraury</t>
+  </si>
+  <si>
+    <t>CarryForwardWithTenure July</t>
+  </si>
+  <si>
+    <t>CarryForwardWithTenure June</t>
+  </si>
+  <si>
+    <t>CarryForwardWithTenure March</t>
+  </si>
+  <si>
+    <t>CarryForwardWithTenure May</t>
+  </si>
+  <si>
+    <t>CarryForwardWithTenure November</t>
+  </si>
+  <si>
+    <t>CarryForwardWithTenure October</t>
+  </si>
+  <si>
+    <t>CarryForwardWithTenure September</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.TwoCycles.Calender</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.TwoCycles.Febraury</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.TwoCycles.September</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.TwoCycles.July</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.TwoCycles.June</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.TwoCycles.March</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.TwoCycles.May</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.TwoCycles.November</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.TwoCycles.October</t>
+  </si>
+  <si>
+    <t>Financial</t>
+  </si>
+  <si>
+    <t>Calender</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>CarryForwardWithTenure December</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.TwoCycles.December</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>CarryForwardWithTenureWith Leaves August</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.TwoCyclesWithLeaves.August</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.TwoCyclesWithLeaves.Financial</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.TwoCyclesWithLeaves.Calender</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.TwoCyclesWithLeaves.Febraury</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.TwoCyclesWithLeaves.September</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.TwoCyclesWithLeaves.July</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.TwoCyclesWithLeaves.June</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.TwoCyclesWithLeaves.March</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.TwoCyclesWithLeaves.May</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.TwoCyclesWithLeaves.November</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.TwoCyclesWithLeaves.October</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.TwoCyclesWithLeaves.December</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.TestSelUtil</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>Carry Forward Tenure With Leave Encashment</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.TwoCyclesWithEncashment.August</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>Carry Forward Tenure With Leave Adjustment</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.TwoCyclesWithAdjustments.Financial</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7557 With CF Tenure </t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7557.CF_Tenure.One_One.Financial</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7557.CF_Tenure.One_Zero.Financial</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7557.CF_Tenure.Zero_One.Financial</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7557.CF_Tenure.Zero_Zero.Financial</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.MultipleAllotment.Daily.MultipleAllotmentWithDeactivation.SecondHalfTransferFirstHalfDeactivation</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.MultipleAllotment.Daily.MultipleAllotmentWithDeactivation.SecondHalfTranserSecondHalfDeactivate</t>
+  </si>
+  <si>
+    <t>Multiple Allotment With Tenure DBX 8440</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.MultipleAllotment.Daily.MultipleAllotmentWithDeactivation.FirstHalfTransferSecondHalfDeactivation</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>Query Dom</t>
+  </si>
+  <si>
+    <t>QueryDom.xlsx</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_8440.WorkingDays.SecondHalfTranserSecondHalfDeactivate</t>
+  </si>
+  <si>
+    <t>January_WD</t>
+  </si>
+  <si>
     <t>com.darwinbox.leaves.Accural.Deactivation</t>
   </si>
   <si>
@@ -647,9 +1559,33 @@
     <t>F_121_164</t>
   </si>
   <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>Working Days With Deactivation</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.WorkingDays.WDWithDeactivation</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>Working Days With Multiple Allotment</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.WorkingDays.MultipleAllotment.WorkingDaysWithMultipleAllotment</t>
+  </si>
+  <si>
+    <t>WD_MultipleAllotment</t>
+  </si>
+  <si>
     <t>com.darwinbox.leaves.Accural.WorkingDays.WorkingDays</t>
   </si>
   <si>
+    <t>com.darwinbox.leaves.Accural.WorkingDays.CarryForwardWithBalanceWorkingDays</t>
+  </si>
+  <si>
     <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForward.Financial.CarryForward_1_41</t>
   </si>
   <si>
@@ -665,17 +1601,53 @@
     <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithBalance.CarryForwardWithBalance_1_41</t>
   </si>
   <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithBalance.CarryForwardWithBalance_42_80</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithBalance.CarryForwardWithBalance_81_121</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithBalance.CarryForwardWithBalance_121_164</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.MutlipleAllotmentWithCarryForward</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.CarryForwardTests.CarryForwardWithTenure.TwoCyclesWithEncashment.Financial</t>
+  </si>
+  <si>
     <t>ClassName</t>
   </si>
   <si>
-    <t>Tenure_HighRadius_Monthly</t>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7557.CarryForward_one_one</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7557.CarryForward_one_zero</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7557.CarryForward_zero_one</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_7557.CarryForward_zero_zero</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_8440.MultipleAllotmentWithDeactivation.FirstHalfTransferFirstHalfDeactivation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -686,6 +1658,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1024,22 +2002,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37DE5A24-97FC-48C7-A7F8-D3E1FB2F2B22}">
-  <dimension ref="A1:G52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D31" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="B144" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D157" sqref="D157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="97" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.21875" style="1"/>
+    <col min="2" max="2" width="44.44140625" customWidth="1"/>
+    <col min="3" max="3" width="45.44140625" customWidth="1"/>
+    <col min="4" max="4" width="114.77734375" customWidth="1"/>
+    <col min="5" max="5" width="40.6640625"/>
     <col min="6" max="6" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="1" customWidth="1"/>
+    <col min="8" max="1023" width="8.21875"/>
+    <col min="1024" max="1025" width="8.5546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1053,7 +2033,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>204</v>
+        <v>523</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -1826,22 +2806,22 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B35" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="C35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D35" t="s">
-        <v>199</v>
+        <v>511</v>
       </c>
       <c r="E35" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F35" t="s">
-        <v>194</v>
+        <v>498</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>12</v>
@@ -1849,22 +2829,22 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B36" t="s">
+        <v>222</v>
+      </c>
+      <c r="C36" t="s">
+        <v>140</v>
+      </c>
+      <c r="D36" t="s">
+        <v>512</v>
+      </c>
+      <c r="E36" t="s">
         <v>141</v>
       </c>
-      <c r="B36" t="s">
-        <v>192</v>
-      </c>
-      <c r="C36" t="s">
-        <v>139</v>
-      </c>
-      <c r="D36" t="s">
-        <v>200</v>
-      </c>
-      <c r="E36" t="s">
-        <v>140</v>
-      </c>
       <c r="F36" t="s">
-        <v>195</v>
+        <v>499</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>12</v>
@@ -1872,22 +2852,22 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B37" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="C37" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D37" t="s">
-        <v>201</v>
+        <v>513</v>
       </c>
       <c r="E37" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F37" t="s">
-        <v>196</v>
+        <v>500</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>12</v>
@@ -1895,22 +2875,22 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B38" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="C38" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D38" t="s">
-        <v>202</v>
+        <v>514</v>
       </c>
       <c r="E38" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F38" t="s">
-        <v>197</v>
+        <v>501</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>12</v>
@@ -1918,22 +2898,22 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B39" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C39" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D39" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E39" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F39" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>12</v>
@@ -1941,22 +2921,22 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B40" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C40" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D40" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E40" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F40" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>12</v>
@@ -1964,22 +2944,22 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B41" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C41" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D41" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E41" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F41" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>12</v>
@@ -1987,22 +2967,22 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B42" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C42" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D42" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E42" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F42" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>12</v>
@@ -2010,22 +2990,22 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B43" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C43" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D43" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E43" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F43" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>12</v>
@@ -2033,22 +3013,22 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B44" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C44" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D44" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E44" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F44" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>12</v>
@@ -2056,7 +3036,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B45" t="s">
         <v>20</v>
@@ -2065,10 +3045,10 @@
         <v>20</v>
       </c>
       <c r="D45" t="s">
-        <v>198</v>
+        <v>509</v>
       </c>
       <c r="E45" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F45" t="s">
         <v>24</v>
@@ -2079,7 +3059,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B46" t="s">
         <v>137</v>
@@ -2088,21 +3068,21 @@
         <v>137</v>
       </c>
       <c r="D46" t="s">
-        <v>193</v>
+        <v>497</v>
       </c>
       <c r="E46" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F46" t="s">
-        <v>205</v>
+        <v>138</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B47" t="s">
         <v>46</v>
@@ -2111,10 +3091,10 @@
         <v>46</v>
       </c>
       <c r="D47" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="E47" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F47" t="s">
         <v>11</v>
@@ -2125,22 +3105,22 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B48" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C48" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="D48" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E48" t="s">
         <v>97</v>
       </c>
       <c r="F48" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>12</v>
@@ -2148,19 +3128,19 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B49" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C49" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D49" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="E49" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F49" t="s">
         <v>11</v>
@@ -2171,22 +3151,22 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B50" t="s">
         <v>95</v>
       </c>
       <c r="C50" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D50" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E50" t="s">
         <v>97</v>
       </c>
       <c r="F50" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>12</v>
@@ -2194,22 +3174,22 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="B51" t="s">
+        <v>167</v>
+      </c>
+      <c r="C51" t="s">
+        <v>168</v>
+      </c>
+      <c r="D51" t="s">
         <v>166</v>
-      </c>
-      <c r="C51" t="s">
-        <v>167</v>
-      </c>
-      <c r="D51" t="s">
-        <v>165</v>
       </c>
       <c r="E51" t="s">
         <v>97</v>
       </c>
       <c r="F51" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>12</v>
@@ -2217,28 +3197,2518 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B52" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C52" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D52" t="s">
+        <v>515</v>
+      </c>
+      <c r="E52" t="s">
+        <v>141</v>
+      </c>
+      <c r="F52" t="s">
+        <v>498</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B53" t="s">
+        <v>179</v>
+      </c>
+      <c r="C53" t="s">
+        <v>140</v>
+      </c>
+      <c r="D53" t="s">
+        <v>516</v>
+      </c>
+      <c r="E53" t="s">
+        <v>141</v>
+      </c>
+      <c r="F53" t="s">
+        <v>499</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B54" t="s">
+        <v>179</v>
+      </c>
+      <c r="C54" t="s">
+        <v>140</v>
+      </c>
+      <c r="D54" t="s">
+        <v>517</v>
+      </c>
+      <c r="E54" t="s">
+        <v>141</v>
+      </c>
+      <c r="F54" t="s">
+        <v>500</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B55" t="s">
+        <v>179</v>
+      </c>
+      <c r="C55" t="s">
+        <v>140</v>
+      </c>
+      <c r="D55" t="s">
+        <v>518</v>
+      </c>
+      <c r="E55" t="s">
+        <v>141</v>
+      </c>
+      <c r="F55" t="s">
+        <v>501</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B56" t="s">
+        <v>179</v>
+      </c>
+      <c r="C56" t="s">
+        <v>140</v>
+      </c>
+      <c r="D56" t="s">
+        <v>220</v>
+      </c>
+      <c r="E56" t="s">
+        <v>141</v>
+      </c>
+      <c r="F56" t="s">
+        <v>221</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B57" t="s">
+        <v>182</v>
+      </c>
+      <c r="C57" t="s">
+        <v>182</v>
+      </c>
+      <c r="D57" t="s">
+        <v>183</v>
+      </c>
+      <c r="E57" t="s">
+        <v>141</v>
+      </c>
+      <c r="F57" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B58" t="s">
+        <v>200</v>
+      </c>
+      <c r="C58" t="s">
+        <v>200</v>
+      </c>
+      <c r="D58" t="s">
+        <v>190</v>
+      </c>
+      <c r="E58" t="s">
+        <v>177</v>
+      </c>
+      <c r="F58" t="s">
+        <v>150</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B59" t="s">
+        <v>201</v>
+      </c>
+      <c r="C59" t="s">
+        <v>201</v>
+      </c>
+      <c r="D59" t="s">
+        <v>191</v>
+      </c>
+      <c r="E59" t="s">
+        <v>177</v>
+      </c>
+      <c r="F59" t="s">
+        <v>150</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B60" t="s">
+        <v>201</v>
+      </c>
+      <c r="C60" t="s">
+        <v>201</v>
+      </c>
+      <c r="D60" t="s">
+        <v>192</v>
+      </c>
+      <c r="E60" t="s">
+        <v>177</v>
+      </c>
+      <c r="F60" t="s">
+        <v>150</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B61" t="s">
+        <v>202</v>
+      </c>
+      <c r="C61" t="s">
+        <v>202</v>
+      </c>
+      <c r="D61" t="s">
+        <v>193</v>
+      </c>
+      <c r="E61" t="s">
+        <v>177</v>
+      </c>
+      <c r="F61" t="s">
+        <v>150</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B62" t="s">
         <v>203</v>
       </c>
-      <c r="E52" t="s">
+      <c r="C62" t="s">
+        <v>203</v>
+      </c>
+      <c r="D62" t="s">
+        <v>194</v>
+      </c>
+      <c r="E62" t="s">
+        <v>177</v>
+      </c>
+      <c r="F62" t="s">
+        <v>150</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B63" t="s">
+        <v>46</v>
+      </c>
+      <c r="C63" t="s">
+        <v>46</v>
+      </c>
+      <c r="D63" t="s">
+        <v>206</v>
+      </c>
+      <c r="E63" t="s">
+        <v>154</v>
+      </c>
+      <c r="F63" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B64" t="s">
+        <v>210</v>
+      </c>
+      <c r="C64" t="s">
+        <v>211</v>
+      </c>
+      <c r="D64" t="s">
+        <v>510</v>
+      </c>
+      <c r="E64" t="s">
+        <v>213</v>
+      </c>
+      <c r="F64" t="s">
+        <v>212</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B65" t="s">
+        <v>215</v>
+      </c>
+      <c r="C65" t="s">
+        <v>215</v>
+      </c>
+      <c r="D65" t="s">
+        <v>519</v>
+      </c>
+      <c r="E65" t="s">
+        <v>216</v>
+      </c>
+      <c r="F65" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B66" t="s">
+        <v>228</v>
+      </c>
+      <c r="C66" t="s">
+        <v>228</v>
+      </c>
+      <c r="D66" t="s">
+        <v>242</v>
+      </c>
+      <c r="E66" t="s">
+        <v>229</v>
+      </c>
+      <c r="F66" t="s">
+        <v>233</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B67" t="s">
+        <v>231</v>
+      </c>
+      <c r="C67" t="s">
+        <v>231</v>
+      </c>
+      <c r="D67" t="s">
+        <v>232</v>
+      </c>
+      <c r="E67" t="s">
+        <v>229</v>
+      </c>
+      <c r="F67" t="s">
+        <v>234</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B68" t="s">
+        <v>238</v>
+      </c>
+      <c r="C68" t="s">
+        <v>238</v>
+      </c>
+      <c r="D68" t="s">
+        <v>236</v>
+      </c>
+      <c r="E68" t="s">
+        <v>229</v>
+      </c>
+      <c r="F68" t="s">
+        <v>233</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B69" t="s">
+        <v>239</v>
+      </c>
+      <c r="C69" t="s">
+        <v>239</v>
+      </c>
+      <c r="D69" t="s">
+        <v>240</v>
+      </c>
+      <c r="E69" t="s">
+        <v>229</v>
+      </c>
+      <c r="F69" t="s">
+        <v>241</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B70" t="s">
+        <v>243</v>
+      </c>
+      <c r="C70" t="s">
         <v>140</v>
       </c>
-      <c r="F52" t="s">
-        <v>194</v>
-      </c>
-      <c r="G52" s="1" t="s">
+      <c r="D70" t="s">
+        <v>262</v>
+      </c>
+      <c r="E70" t="s">
+        <v>141</v>
+      </c>
+      <c r="F70" t="s">
+        <v>498</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B71" t="s">
+        <v>243</v>
+      </c>
+      <c r="C71" t="s">
+        <v>140</v>
+      </c>
+      <c r="D71" t="s">
+        <v>246</v>
+      </c>
+      <c r="E71" t="s">
+        <v>141</v>
+      </c>
+      <c r="F71" t="s">
+        <v>498</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B72" t="s">
+        <v>243</v>
+      </c>
+      <c r="C72" t="s">
+        <v>253</v>
+      </c>
+      <c r="D72" t="s">
+        <v>248</v>
+      </c>
+      <c r="E72" t="s">
+        <v>97</v>
+      </c>
+      <c r="F72" t="s">
+        <v>249</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B73" t="s">
+        <v>243</v>
+      </c>
+      <c r="C73" t="s">
+        <v>254</v>
+      </c>
+      <c r="D73" t="s">
+        <v>251</v>
+      </c>
+      <c r="E73" t="s">
+        <v>97</v>
+      </c>
+      <c r="F73" t="s">
+        <v>249</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B74" t="s">
+        <v>243</v>
+      </c>
+      <c r="C74" t="s">
+        <v>255</v>
+      </c>
+      <c r="D74" t="s">
+        <v>256</v>
+      </c>
+      <c r="E74" t="s">
+        <v>141</v>
+      </c>
+      <c r="F74" t="s">
+        <v>498</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B75" t="s">
+        <v>243</v>
+      </c>
+      <c r="C75" t="s">
+        <v>255</v>
+      </c>
+      <c r="D75" t="s">
+        <v>258</v>
+      </c>
+      <c r="E75" t="s">
+        <v>141</v>
+      </c>
+      <c r="F75" t="s">
+        <v>498</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B76" t="s">
+        <v>243</v>
+      </c>
+      <c r="C76" t="s">
+        <v>260</v>
+      </c>
+      <c r="D76" t="s">
+        <v>261</v>
+      </c>
+      <c r="E76" t="s">
+        <v>141</v>
+      </c>
+      <c r="F76" t="s">
+        <v>498</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B77" t="s">
+        <v>243</v>
+      </c>
+      <c r="C77" t="s">
+        <v>264</v>
+      </c>
+      <c r="D77" t="s">
+        <v>265</v>
+      </c>
+      <c r="E77" t="s">
+        <v>141</v>
+      </c>
+      <c r="F77" t="s">
+        <v>498</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B78" t="s">
+        <v>243</v>
+      </c>
+      <c r="C78" t="s">
+        <v>267</v>
+      </c>
+      <c r="D78" t="s">
+        <v>268</v>
+      </c>
+      <c r="E78" t="s">
+        <v>141</v>
+      </c>
+      <c r="F78" t="s">
+        <v>498</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B79" t="s">
+        <v>270</v>
+      </c>
+      <c r="C79" t="s">
+        <v>270</v>
+      </c>
+      <c r="D79" t="s">
+        <v>524</v>
+      </c>
+      <c r="E79" t="s">
+        <v>141</v>
+      </c>
+      <c r="F79" t="s">
+        <v>271</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B80" t="s">
+        <v>270</v>
+      </c>
+      <c r="C80" t="s">
+        <v>270</v>
+      </c>
+      <c r="D80" t="s">
+        <v>525</v>
+      </c>
+      <c r="E80" t="s">
+        <v>141</v>
+      </c>
+      <c r="F80" t="s">
+        <v>271</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B81" t="s">
+        <v>270</v>
+      </c>
+      <c r="C81" t="s">
+        <v>270</v>
+      </c>
+      <c r="D81" t="s">
+        <v>526</v>
+      </c>
+      <c r="E81" t="s">
+        <v>141</v>
+      </c>
+      <c r="F81" t="s">
+        <v>271</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B82" t="s">
+        <v>270</v>
+      </c>
+      <c r="C82" t="s">
+        <v>270</v>
+      </c>
+      <c r="D82" t="s">
+        <v>527</v>
+      </c>
+      <c r="E82" t="s">
+        <v>141</v>
+      </c>
+      <c r="F82" t="s">
+        <v>271</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B83" t="s">
+        <v>276</v>
+      </c>
+      <c r="C83" t="s">
+        <v>277</v>
+      </c>
+      <c r="D83" t="s">
+        <v>278</v>
+      </c>
+      <c r="E83" t="s">
+        <v>279</v>
+      </c>
+      <c r="F83" t="s">
+        <v>280</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B84" t="s">
+        <v>282</v>
+      </c>
+      <c r="C84" t="s">
+        <v>282</v>
+      </c>
+      <c r="D84" t="s">
+        <v>283</v>
+      </c>
+      <c r="E84" t="s">
+        <v>97</v>
+      </c>
+      <c r="F84" t="s">
+        <v>249</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B85" t="s">
+        <v>308</v>
+      </c>
+      <c r="C85" t="s">
+        <v>308</v>
+      </c>
+      <c r="D85" t="s">
+        <v>296</v>
+      </c>
+      <c r="E85" t="s">
+        <v>97</v>
+      </c>
+      <c r="F85" t="s">
+        <v>249</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B86" t="s">
+        <v>309</v>
+      </c>
+      <c r="C86" t="s">
+        <v>309</v>
+      </c>
+      <c r="D86" t="s">
+        <v>297</v>
+      </c>
+      <c r="E86" t="s">
+        <v>97</v>
+      </c>
+      <c r="F86" t="s">
+        <v>249</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B87" t="s">
+        <v>310</v>
+      </c>
+      <c r="C87" t="s">
+        <v>310</v>
+      </c>
+      <c r="D87" t="s">
+        <v>299</v>
+      </c>
+      <c r="E87" t="s">
+        <v>97</v>
+      </c>
+      <c r="F87" t="s">
+        <v>249</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B88" t="s">
+        <v>311</v>
+      </c>
+      <c r="C88" t="s">
+        <v>311</v>
+      </c>
+      <c r="D88" t="s">
+        <v>298</v>
+      </c>
+      <c r="E88" t="s">
+        <v>97</v>
+      </c>
+      <c r="F88" t="s">
+        <v>249</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B89" t="s">
+        <v>312</v>
+      </c>
+      <c r="C89" t="s">
+        <v>312</v>
+      </c>
+      <c r="D89" t="s">
+        <v>300</v>
+      </c>
+      <c r="E89" t="s">
+        <v>97</v>
+      </c>
+      <c r="F89" t="s">
+        <v>249</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B90" t="s">
+        <v>313</v>
+      </c>
+      <c r="C90" t="s">
+        <v>313</v>
+      </c>
+      <c r="D90" t="s">
+        <v>301</v>
+      </c>
+      <c r="E90" t="s">
+        <v>97</v>
+      </c>
+      <c r="F90" t="s">
+        <v>249</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B91" t="s">
+        <v>314</v>
+      </c>
+      <c r="C91" t="s">
+        <v>314</v>
+      </c>
+      <c r="D91" t="s">
+        <v>302</v>
+      </c>
+      <c r="E91" t="s">
+        <v>97</v>
+      </c>
+      <c r="F91" t="s">
+        <v>249</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B92" t="s">
+        <v>315</v>
+      </c>
+      <c r="C92" t="s">
+        <v>315</v>
+      </c>
+      <c r="D92" t="s">
+        <v>303</v>
+      </c>
+      <c r="E92" t="s">
+        <v>97</v>
+      </c>
+      <c r="F92" t="s">
+        <v>249</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B93" t="s">
+        <v>316</v>
+      </c>
+      <c r="C93" t="s">
+        <v>316</v>
+      </c>
+      <c r="D93" t="s">
+        <v>304</v>
+      </c>
+      <c r="E93" t="s">
+        <v>97</v>
+      </c>
+      <c r="F93" t="s">
+        <v>249</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B94" t="s">
+        <v>317</v>
+      </c>
+      <c r="C94" t="s">
+        <v>317</v>
+      </c>
+      <c r="D94" t="s">
+        <v>305</v>
+      </c>
+      <c r="E94" t="s">
+        <v>97</v>
+      </c>
+      <c r="F94" t="s">
+        <v>249</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B95" t="s">
+        <v>318</v>
+      </c>
+      <c r="C95" t="s">
+        <v>318</v>
+      </c>
+      <c r="D95" t="s">
+        <v>306</v>
+      </c>
+      <c r="E95" t="s">
+        <v>97</v>
+      </c>
+      <c r="F95" t="s">
+        <v>249</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B96" t="s">
+        <v>319</v>
+      </c>
+      <c r="C96" t="s">
+        <v>319</v>
+      </c>
+      <c r="D96" t="s">
+        <v>307</v>
+      </c>
+      <c r="E96" t="s">
+        <v>97</v>
+      </c>
+      <c r="F96" t="s">
+        <v>249</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B97" t="s">
+        <v>357</v>
+      </c>
+      <c r="C97" t="s">
+        <v>357</v>
+      </c>
+      <c r="D97" t="s">
+        <v>321</v>
+      </c>
+      <c r="E97" t="s">
+        <v>97</v>
+      </c>
+      <c r="F97" t="s">
+        <v>249</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B98" t="s">
+        <v>358</v>
+      </c>
+      <c r="C98" t="s">
+        <v>358</v>
+      </c>
+      <c r="D98" t="s">
+        <v>337</v>
+      </c>
+      <c r="E98" t="s">
+        <v>97</v>
+      </c>
+      <c r="F98" t="s">
+        <v>249</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B99" t="s">
+        <v>359</v>
+      </c>
+      <c r="C99" t="s">
+        <v>359</v>
+      </c>
+      <c r="D99" t="s">
+        <v>338</v>
+      </c>
+      <c r="E99" t="s">
+        <v>97</v>
+      </c>
+      <c r="F99" t="s">
+        <v>249</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B100" t="s">
+        <v>360</v>
+      </c>
+      <c r="C100" t="s">
+        <v>360</v>
+      </c>
+      <c r="D100" t="s">
+        <v>339</v>
+      </c>
+      <c r="E100" t="s">
+        <v>97</v>
+      </c>
+      <c r="F100" t="s">
+        <v>249</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B101" t="s">
+        <v>361</v>
+      </c>
+      <c r="C101" t="s">
+        <v>361</v>
+      </c>
+      <c r="D101" t="s">
+        <v>324</v>
+      </c>
+      <c r="E101" t="s">
+        <v>97</v>
+      </c>
+      <c r="F101" t="s">
+        <v>249</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B102" t="s">
+        <v>362</v>
+      </c>
+      <c r="C102" t="s">
+        <v>362</v>
+      </c>
+      <c r="D102" t="s">
+        <v>340</v>
+      </c>
+      <c r="E102" t="s">
+        <v>97</v>
+      </c>
+      <c r="F102" t="s">
+        <v>249</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B103" t="s">
+        <v>363</v>
+      </c>
+      <c r="C103" t="s">
+        <v>363</v>
+      </c>
+      <c r="D103" t="s">
+        <v>341</v>
+      </c>
+      <c r="E103" t="s">
+        <v>97</v>
+      </c>
+      <c r="F103" t="s">
+        <v>249</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B104" t="s">
+        <v>364</v>
+      </c>
+      <c r="C104" t="s">
+        <v>364</v>
+      </c>
+      <c r="D104" t="s">
+        <v>342</v>
+      </c>
+      <c r="E104" t="s">
+        <v>97</v>
+      </c>
+      <c r="F104" t="s">
+        <v>249</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B105" t="s">
+        <v>365</v>
+      </c>
+      <c r="C105" t="s">
+        <v>365</v>
+      </c>
+      <c r="D105" t="s">
+        <v>343</v>
+      </c>
+      <c r="E105" t="s">
+        <v>97</v>
+      </c>
+      <c r="F105" t="s">
+        <v>249</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B106" t="s">
+        <v>366</v>
+      </c>
+      <c r="C106" t="s">
+        <v>366</v>
+      </c>
+      <c r="D106" t="s">
+        <v>344</v>
+      </c>
+      <c r="E106" t="s">
+        <v>97</v>
+      </c>
+      <c r="F106" t="s">
+        <v>249</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B107" t="s">
+        <v>367</v>
+      </c>
+      <c r="C107" t="s">
+        <v>367</v>
+      </c>
+      <c r="D107" t="s">
+        <v>345</v>
+      </c>
+      <c r="E107" t="s">
+        <v>97</v>
+      </c>
+      <c r="F107" t="s">
+        <v>249</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B108" t="s">
+        <v>368</v>
+      </c>
+      <c r="C108" t="s">
+        <v>368</v>
+      </c>
+      <c r="D108" t="s">
+        <v>346</v>
+      </c>
+      <c r="E108" t="s">
+        <v>97</v>
+      </c>
+      <c r="F108" t="s">
+        <v>249</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B109" t="s">
+        <v>322</v>
+      </c>
+      <c r="C109" t="s">
+        <v>322</v>
+      </c>
+      <c r="D109" t="s">
+        <v>369</v>
+      </c>
+      <c r="E109" t="s">
+        <v>97</v>
+      </c>
+      <c r="F109" t="s">
+        <v>249</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B110" t="s">
+        <v>347</v>
+      </c>
+      <c r="C110" t="s">
+        <v>347</v>
+      </c>
+      <c r="D110" t="s">
+        <v>370</v>
+      </c>
+      <c r="E110" t="s">
+        <v>97</v>
+      </c>
+      <c r="F110" t="s">
+        <v>249</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B111" t="s">
+        <v>348</v>
+      </c>
+      <c r="C111" t="s">
+        <v>348</v>
+      </c>
+      <c r="D111" t="s">
+        <v>371</v>
+      </c>
+      <c r="E111" t="s">
+        <v>97</v>
+      </c>
+      <c r="F111" t="s">
+        <v>249</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B112" t="s">
+        <v>349</v>
+      </c>
+      <c r="C112" t="s">
+        <v>349</v>
+      </c>
+      <c r="D112" t="s">
+        <v>372</v>
+      </c>
+      <c r="E112" t="s">
+        <v>97</v>
+      </c>
+      <c r="F112" t="s">
+        <v>249</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B113" t="s">
+        <v>323</v>
+      </c>
+      <c r="C113" t="s">
+        <v>323</v>
+      </c>
+      <c r="D113" t="s">
+        <v>373</v>
+      </c>
+      <c r="E113" t="s">
+        <v>97</v>
+      </c>
+      <c r="F113" t="s">
+        <v>249</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B114" t="s">
+        <v>350</v>
+      </c>
+      <c r="C114" t="s">
+        <v>350</v>
+      </c>
+      <c r="D114" t="s">
+        <v>374</v>
+      </c>
+      <c r="E114" t="s">
+        <v>97</v>
+      </c>
+      <c r="F114" t="s">
+        <v>249</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B115" t="s">
+        <v>351</v>
+      </c>
+      <c r="C115" t="s">
+        <v>351</v>
+      </c>
+      <c r="D115" t="s">
+        <v>375</v>
+      </c>
+      <c r="E115" t="s">
+        <v>97</v>
+      </c>
+      <c r="F115" t="s">
+        <v>249</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B116" t="s">
+        <v>352</v>
+      </c>
+      <c r="C116" t="s">
+        <v>352</v>
+      </c>
+      <c r="D116" t="s">
+        <v>376</v>
+      </c>
+      <c r="E116" t="s">
+        <v>97</v>
+      </c>
+      <c r="F116" t="s">
+        <v>249</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B117" t="s">
+        <v>353</v>
+      </c>
+      <c r="C117" t="s">
+        <v>353</v>
+      </c>
+      <c r="D117" t="s">
+        <v>377</v>
+      </c>
+      <c r="E117" t="s">
+        <v>97</v>
+      </c>
+      <c r="F117" t="s">
+        <v>249</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B118" t="s">
+        <v>354</v>
+      </c>
+      <c r="C118" t="s">
+        <v>354</v>
+      </c>
+      <c r="D118" t="s">
+        <v>378</v>
+      </c>
+      <c r="E118" t="s">
+        <v>97</v>
+      </c>
+      <c r="F118" t="s">
+        <v>249</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B119" t="s">
+        <v>355</v>
+      </c>
+      <c r="C119" t="s">
+        <v>355</v>
+      </c>
+      <c r="D119" t="s">
+        <v>379</v>
+      </c>
+      <c r="E119" t="s">
+        <v>97</v>
+      </c>
+      <c r="F119" t="s">
+        <v>249</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B120" t="s">
+        <v>356</v>
+      </c>
+      <c r="C120" t="s">
+        <v>356</v>
+      </c>
+      <c r="D120" t="s">
+        <v>380</v>
+      </c>
+      <c r="E120" t="s">
+        <v>97</v>
+      </c>
+      <c r="F120" t="s">
+        <v>249</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B121" t="s">
+        <v>393</v>
+      </c>
+      <c r="C121" t="s">
+        <v>393</v>
+      </c>
+      <c r="D121" t="s">
+        <v>394</v>
+      </c>
+      <c r="E121" t="s">
+        <v>279</v>
+      </c>
+      <c r="F121" t="s">
+        <v>425</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B122" t="s">
+        <v>405</v>
+      </c>
+      <c r="C122" t="s">
+        <v>405</v>
+      </c>
+      <c r="D122" t="s">
+        <v>406</v>
+      </c>
+      <c r="E122" t="s">
+        <v>279</v>
+      </c>
+      <c r="F122" t="s">
+        <v>431</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B123" t="s">
+        <v>407</v>
+      </c>
+      <c r="C123" t="s">
+        <v>407</v>
+      </c>
+      <c r="D123" t="s">
+        <v>416</v>
+      </c>
+      <c r="E123" t="s">
+        <v>279</v>
+      </c>
+      <c r="F123" t="s">
+        <v>426</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B124" t="s">
+        <v>408</v>
+      </c>
+      <c r="C124" t="s">
+        <v>408</v>
+      </c>
+      <c r="D124" t="s">
+        <v>417</v>
+      </c>
+      <c r="E124" t="s">
+        <v>279</v>
+      </c>
+      <c r="F124" t="s">
+        <v>435</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B125" t="s">
+        <v>415</v>
+      </c>
+      <c r="C125" t="s">
+        <v>415</v>
+      </c>
+      <c r="D125" t="s">
+        <v>418</v>
+      </c>
+      <c r="E125" t="s">
+        <v>279</v>
+      </c>
+      <c r="F125" t="s">
+        <v>432</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B126" t="s">
+        <v>409</v>
+      </c>
+      <c r="C126" t="s">
+        <v>409</v>
+      </c>
+      <c r="D126" t="s">
+        <v>419</v>
+      </c>
+      <c r="E126" t="s">
+        <v>279</v>
+      </c>
+      <c r="F126" t="s">
+        <v>430</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B127" t="s">
+        <v>410</v>
+      </c>
+      <c r="C127" t="s">
+        <v>410</v>
+      </c>
+      <c r="D127" t="s">
+        <v>420</v>
+      </c>
+      <c r="E127" t="s">
+        <v>279</v>
+      </c>
+      <c r="F127" t="s">
+        <v>429</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B128" t="s">
+        <v>411</v>
+      </c>
+      <c r="C128" t="s">
+        <v>411</v>
+      </c>
+      <c r="D128" t="s">
+        <v>421</v>
+      </c>
+      <c r="E128" t="s">
+        <v>279</v>
+      </c>
+      <c r="F128" t="s">
+        <v>427</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B129" t="s">
+        <v>412</v>
+      </c>
+      <c r="C129" t="s">
+        <v>412</v>
+      </c>
+      <c r="D129" t="s">
+        <v>422</v>
+      </c>
+      <c r="E129" t="s">
+        <v>279</v>
+      </c>
+      <c r="F129" t="s">
+        <v>428</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B130" t="s">
+        <v>413</v>
+      </c>
+      <c r="C130" t="s">
+        <v>413</v>
+      </c>
+      <c r="D130" t="s">
+        <v>423</v>
+      </c>
+      <c r="E130" t="s">
+        <v>279</v>
+      </c>
+      <c r="F130" t="s">
+        <v>434</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B131" t="s">
+        <v>414</v>
+      </c>
+      <c r="C131" t="s">
+        <v>414</v>
+      </c>
+      <c r="D131" t="s">
+        <v>424</v>
+      </c>
+      <c r="E131" t="s">
+        <v>279</v>
+      </c>
+      <c r="F131" t="s">
+        <v>433</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B132" t="s">
+        <v>437</v>
+      </c>
+      <c r="C132" t="s">
+        <v>437</v>
+      </c>
+      <c r="D132" t="s">
+        <v>438</v>
+      </c>
+      <c r="E132" t="s">
+        <v>279</v>
+      </c>
+      <c r="F132" t="s">
+        <v>439</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B133" t="s">
+        <v>440</v>
+      </c>
+      <c r="C133" t="s">
+        <v>440</v>
+      </c>
+      <c r="D133" t="s">
+        <v>441</v>
+      </c>
+      <c r="E133" t="s">
+        <v>279</v>
+      </c>
+      <c r="F133" t="s">
+        <v>431</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B134" t="s">
+        <v>393</v>
+      </c>
+      <c r="C134" t="s">
+        <v>393</v>
+      </c>
+      <c r="D134" t="s">
+        <v>453</v>
+      </c>
+      <c r="E134" t="s">
+        <v>279</v>
+      </c>
+      <c r="F134" t="s">
+        <v>425</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B135" t="s">
+        <v>407</v>
+      </c>
+      <c r="C135" t="s">
+        <v>407</v>
+      </c>
+      <c r="D135" t="s">
+        <v>454</v>
+      </c>
+      <c r="E135" t="s">
+        <v>279</v>
+      </c>
+      <c r="F135" t="s">
+        <v>426</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B136" t="s">
+        <v>408</v>
+      </c>
+      <c r="C136" t="s">
+        <v>408</v>
+      </c>
+      <c r="D136" t="s">
+        <v>455</v>
+      </c>
+      <c r="E136" t="s">
+        <v>279</v>
+      </c>
+      <c r="F136" t="s">
+        <v>435</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B137" t="s">
+        <v>415</v>
+      </c>
+      <c r="C137" t="s">
+        <v>415</v>
+      </c>
+      <c r="D137" t="s">
+        <v>456</v>
+      </c>
+      <c r="E137" t="s">
+        <v>279</v>
+      </c>
+      <c r="F137" t="s">
+        <v>432</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B138" t="s">
+        <v>409</v>
+      </c>
+      <c r="C138" t="s">
+        <v>409</v>
+      </c>
+      <c r="D138" t="s">
+        <v>457</v>
+      </c>
+      <c r="E138" t="s">
+        <v>279</v>
+      </c>
+      <c r="F138" t="s">
+        <v>430</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B139" t="s">
+        <v>410</v>
+      </c>
+      <c r="C139" t="s">
+        <v>410</v>
+      </c>
+      <c r="D139" t="s">
+        <v>458</v>
+      </c>
+      <c r="E139" t="s">
+        <v>279</v>
+      </c>
+      <c r="F139" t="s">
+        <v>429</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B140" t="s">
+        <v>411</v>
+      </c>
+      <c r="C140" t="s">
+        <v>411</v>
+      </c>
+      <c r="D140" t="s">
+        <v>459</v>
+      </c>
+      <c r="E140" t="s">
+        <v>279</v>
+      </c>
+      <c r="F140" t="s">
+        <v>427</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B141" t="s">
+        <v>412</v>
+      </c>
+      <c r="C141" t="s">
+        <v>412</v>
+      </c>
+      <c r="D141" t="s">
+        <v>460</v>
+      </c>
+      <c r="E141" t="s">
+        <v>279</v>
+      </c>
+      <c r="F141" t="s">
+        <v>428</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B142" t="s">
+        <v>413</v>
+      </c>
+      <c r="C142" t="s">
+        <v>413</v>
+      </c>
+      <c r="D142" t="s">
+        <v>461</v>
+      </c>
+      <c r="E142" t="s">
+        <v>279</v>
+      </c>
+      <c r="F142" t="s">
+        <v>434</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B143" t="s">
+        <v>414</v>
+      </c>
+      <c r="C143" t="s">
+        <v>414</v>
+      </c>
+      <c r="D143" t="s">
+        <v>462</v>
+      </c>
+      <c r="E143" t="s">
+        <v>279</v>
+      </c>
+      <c r="F143" t="s">
+        <v>433</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B144" t="s">
+        <v>437</v>
+      </c>
+      <c r="C144" t="s">
+        <v>437</v>
+      </c>
+      <c r="D144" t="s">
+        <v>463</v>
+      </c>
+      <c r="E144" t="s">
+        <v>279</v>
+      </c>
+      <c r="F144" t="s">
+        <v>439</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B145" t="s">
+        <v>129</v>
+      </c>
+      <c r="C145" t="s">
+        <v>129</v>
+      </c>
+      <c r="D145" t="s">
+        <v>466</v>
+      </c>
+      <c r="E145" t="s">
+        <v>279</v>
+      </c>
+      <c r="F145" t="s">
+        <v>439</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B146" t="s">
+        <v>468</v>
+      </c>
+      <c r="C146" t="s">
+        <v>468</v>
+      </c>
+      <c r="D146" t="s">
+        <v>469</v>
+      </c>
+      <c r="E146" t="s">
+        <v>279</v>
+      </c>
+      <c r="F146" t="s">
+        <v>431</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B147" t="s">
+        <v>468</v>
+      </c>
+      <c r="C147" t="s">
+        <v>468</v>
+      </c>
+      <c r="D147" t="s">
+        <v>522</v>
+      </c>
+      <c r="E147" t="s">
+        <v>279</v>
+      </c>
+      <c r="F147" t="s">
+        <v>425</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B148" t="s">
+        <v>471</v>
+      </c>
+      <c r="C148" t="s">
+        <v>471</v>
+      </c>
+      <c r="D148" t="s">
+        <v>472</v>
+      </c>
+      <c r="E148" t="s">
+        <v>279</v>
+      </c>
+      <c r="F148" t="s">
+        <v>425</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B149" t="s">
+        <v>474</v>
+      </c>
+      <c r="C149" t="s">
+        <v>474</v>
+      </c>
+      <c r="D149" t="s">
+        <v>475</v>
+      </c>
+      <c r="E149" t="s">
+        <v>279</v>
+      </c>
+      <c r="F149" t="s">
+        <v>425</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B150" t="s">
+        <v>474</v>
+      </c>
+      <c r="C150" t="s">
+        <v>474</v>
+      </c>
+      <c r="D150" t="s">
+        <v>477</v>
+      </c>
+      <c r="E150" t="s">
+        <v>279</v>
+      </c>
+      <c r="F150" t="s">
+        <v>425</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B151" t="s">
+        <v>474</v>
+      </c>
+      <c r="C151" t="s">
+        <v>474</v>
+      </c>
+      <c r="D151" t="s">
+        <v>479</v>
+      </c>
+      <c r="E151" t="s">
+        <v>279</v>
+      </c>
+      <c r="F151" t="s">
+        <v>425</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B152" t="s">
+        <v>474</v>
+      </c>
+      <c r="C152" t="s">
+        <v>474</v>
+      </c>
+      <c r="D152" t="s">
+        <v>480</v>
+      </c>
+      <c r="E152" t="s">
+        <v>279</v>
+      </c>
+      <c r="F152" t="s">
+        <v>425</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B153" t="s">
+        <v>486</v>
+      </c>
+      <c r="C153" t="s">
+        <v>486</v>
+      </c>
+      <c r="D153" t="s">
+        <v>485</v>
+      </c>
+      <c r="E153" t="s">
+        <v>154</v>
+      </c>
+      <c r="F153" t="s">
+        <v>482</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B154" t="s">
+        <v>486</v>
+      </c>
+      <c r="C154" t="s">
+        <v>486</v>
+      </c>
+      <c r="D154" t="s">
+        <v>484</v>
+      </c>
+      <c r="E154" t="s">
+        <v>154</v>
+      </c>
+      <c r="F154" t="s">
+        <v>482</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B155" t="s">
+        <v>486</v>
+      </c>
+      <c r="C155" t="s">
+        <v>486</v>
+      </c>
+      <c r="D155" t="s">
+        <v>488</v>
+      </c>
+      <c r="E155" t="s">
+        <v>154</v>
+      </c>
+      <c r="F155" t="s">
+        <v>482</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B156" t="s">
+        <v>490</v>
+      </c>
+      <c r="C156" t="s">
+        <v>490</v>
+      </c>
+      <c r="D156" t="s">
+        <v>528</v>
+      </c>
+      <c r="E156" t="s">
+        <v>491</v>
+      </c>
+      <c r="F156" t="s">
+        <v>492</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B157" t="s">
+        <v>486</v>
+      </c>
+      <c r="C157" t="s">
+        <v>486</v>
+      </c>
+      <c r="D157" t="s">
+        <v>529</v>
+      </c>
+      <c r="E157" t="s">
+        <v>154</v>
+      </c>
+      <c r="F157" t="s">
+        <v>482</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B158" t="s">
+        <v>486</v>
+      </c>
+      <c r="C158" t="s">
+        <v>486</v>
+      </c>
+      <c r="D158" t="s">
+        <v>495</v>
+      </c>
+      <c r="E158" t="s">
+        <v>154</v>
+      </c>
+      <c r="F158" t="s">
+        <v>496</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B159" t="s">
+        <v>503</v>
+      </c>
+      <c r="C159" t="s">
+        <v>503</v>
+      </c>
+      <c r="D159" t="s">
+        <v>504</v>
+      </c>
+      <c r="E159" t="s">
+        <v>147</v>
+      </c>
+      <c r="F159" t="s">
+        <v>24</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B160" t="s">
+        <v>506</v>
+      </c>
+      <c r="C160" t="s">
+        <v>506</v>
+      </c>
+      <c r="D160" t="s">
+        <v>507</v>
+      </c>
+      <c r="E160" t="s">
+        <v>147</v>
+      </c>
+      <c r="F160" t="s">
+        <v>508</v>
+      </c>
+      <c r="G160" s="1" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/leave/src/main/resources/Sanity.xlsx
+++ b/leave/src/main/resources/Sanity.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\Desktop\Automation_Project\leave\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\Desktop\yeten\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3A6DE0-D0DC-49E4-81D8-ED91D4E54941}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0FAF70-5459-4D2E-8565-77BDA941B66A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="468" yWindow="516" windowWidth="22572" windowHeight="11844" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCaseMaster" sheetId="1" r:id="rId1"/>
@@ -2005,8 +2005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B144" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D157" sqref="D157"/>
+    <sheetView tabSelected="1" topLeftCell="D144" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E155" sqref="E155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/leave/src/main/resources/Sanity.xlsx
+++ b/leave/src/main/resources/Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\Desktop\yeten\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0FAF70-5459-4D2E-8565-77BDA941B66A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616A0244-3E85-451D-9268-92F1C2DDD8C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="468" yWindow="516" windowWidth="22572" windowHeight="11844" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1505,21 +1505,12 @@
     <t>158</t>
   </si>
   <si>
-    <t>com.darwinbox.leaves.Accural.MultipleAllotment.Daily.MultipleAllotmentWithDeactivation.SecondHalfTransferFirstHalfDeactivation</t>
-  </si>
-  <si>
-    <t>com.darwinbox.leaves.Accural.MultipleAllotment.Daily.MultipleAllotmentWithDeactivation.SecondHalfTranserSecondHalfDeactivate</t>
-  </si>
-  <si>
     <t>Multiple Allotment With Tenure DBX 8440</t>
   </si>
   <si>
     <t>159</t>
   </si>
   <si>
-    <t>com.darwinbox.leaves.Accural.MultipleAllotment.Daily.MultipleAllotmentWithDeactivation.FirstHalfTransferSecondHalfDeactivation</t>
-  </si>
-  <si>
     <t>160</t>
   </si>
   <si>
@@ -1641,6 +1632,15 @@
   </si>
   <si>
     <t>com.darwinbox.leaves.ProductionIssues.DBX_8440.MultipleAllotmentWithDeactivation.FirstHalfTransferFirstHalfDeactivation</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_8440.MultipleAllotmentWithDeactivation.SecondHalfTranserSecondHalfDeactivate</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_8440.MultipleAllotmentWithDeactivation.SecondHalfTransferFirstHalfDeactivation</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_8440.MultipleAllotmentWithDeactivation.FirstHalfTransferSecondHalfDeactivation</t>
   </si>
 </sst>
 </file>
@@ -2005,8 +2005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D144" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E155" sqref="E155"/>
+    <sheetView tabSelected="1" topLeftCell="C144" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D155" sqref="D155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2033,7 +2033,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -2815,13 +2815,13 @@
         <v>140</v>
       </c>
       <c r="D35" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E35" t="s">
         <v>141</v>
       </c>
       <c r="F35" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>12</v>
@@ -2838,13 +2838,13 @@
         <v>140</v>
       </c>
       <c r="D36" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E36" t="s">
         <v>141</v>
       </c>
       <c r="F36" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>12</v>
@@ -2861,13 +2861,13 @@
         <v>140</v>
       </c>
       <c r="D37" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E37" t="s">
         <v>141</v>
       </c>
       <c r="F37" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>12</v>
@@ -2884,13 +2884,13 @@
         <v>140</v>
       </c>
       <c r="D38" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E38" t="s">
         <v>141</v>
       </c>
       <c r="F38" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>12</v>
@@ -3045,7 +3045,7 @@
         <v>20</v>
       </c>
       <c r="D45" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E45" t="s">
         <v>147</v>
@@ -3068,7 +3068,7 @@
         <v>137</v>
       </c>
       <c r="D46" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E46" t="s">
         <v>149</v>
@@ -3206,13 +3206,13 @@
         <v>140</v>
       </c>
       <c r="D52" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E52" t="s">
         <v>141</v>
       </c>
       <c r="F52" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>12</v>
@@ -3229,13 +3229,13 @@
         <v>140</v>
       </c>
       <c r="D53" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E53" t="s">
         <v>141</v>
       </c>
       <c r="F53" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>12</v>
@@ -3252,13 +3252,13 @@
         <v>140</v>
       </c>
       <c r="D54" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E54" t="s">
         <v>141</v>
       </c>
       <c r="F54" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>12</v>
@@ -3275,13 +3275,13 @@
         <v>140</v>
       </c>
       <c r="D55" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E55" t="s">
         <v>141</v>
       </c>
       <c r="F55" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>12</v>
@@ -3482,7 +3482,7 @@
         <v>211</v>
       </c>
       <c r="D64" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E64" t="s">
         <v>213</v>
@@ -3505,7 +3505,7 @@
         <v>215</v>
       </c>
       <c r="D65" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E65" t="s">
         <v>216</v>
@@ -3626,7 +3626,7 @@
         <v>141</v>
       </c>
       <c r="F70" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>6</v>
@@ -3649,7 +3649,7 @@
         <v>141</v>
       </c>
       <c r="F71" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>6</v>
@@ -3718,7 +3718,7 @@
         <v>141</v>
       </c>
       <c r="F74" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>6</v>
@@ -3741,7 +3741,7 @@
         <v>141</v>
       </c>
       <c r="F75" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>6</v>
@@ -3764,7 +3764,7 @@
         <v>141</v>
       </c>
       <c r="F76" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>6</v>
@@ -3787,7 +3787,7 @@
         <v>141</v>
       </c>
       <c r="F77" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>6</v>
@@ -3810,7 +3810,7 @@
         <v>141</v>
       </c>
       <c r="F78" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>6</v>
@@ -3827,7 +3827,7 @@
         <v>270</v>
       </c>
       <c r="D79" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E79" t="s">
         <v>141</v>
@@ -3850,7 +3850,7 @@
         <v>270</v>
       </c>
       <c r="D80" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="E80" t="s">
         <v>141</v>
@@ -3873,7 +3873,7 @@
         <v>270</v>
       </c>
       <c r="D81" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E81" t="s">
         <v>141</v>
@@ -3896,7 +3896,7 @@
         <v>270</v>
       </c>
       <c r="D82" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="E82" t="s">
         <v>141</v>
@@ -5391,7 +5391,7 @@
         <v>468</v>
       </c>
       <c r="D147" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E147" t="s">
         <v>279</v>
@@ -5520,16 +5520,16 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B153" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C153" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D153" t="s">
-        <v>485</v>
+        <v>527</v>
       </c>
       <c r="E153" t="s">
         <v>154</v>
@@ -5543,16 +5543,16 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B154" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C154" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D154" t="s">
-        <v>484</v>
+        <v>528</v>
       </c>
       <c r="E154" t="s">
         <v>154</v>
@@ -5566,16 +5566,16 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B155" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C155" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D155" t="s">
-        <v>488</v>
+        <v>529</v>
       </c>
       <c r="E155" t="s">
         <v>154</v>
@@ -5589,22 +5589,22 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B156" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C156" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D156" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E156" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F156" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G156" s="1" t="s">
         <v>12</v>
@@ -5612,16 +5612,16 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B157" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C157" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D157" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="E157" t="s">
         <v>154</v>
@@ -5635,22 +5635,22 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B158" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C158" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D158" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E158" t="s">
         <v>154</v>
       </c>
       <c r="F158" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>12</v>
@@ -5658,16 +5658,16 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B159" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C159" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D159" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E159" t="s">
         <v>147</v>
@@ -5681,22 +5681,22 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B160" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C160" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D160" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E160" t="s">
         <v>147</v>
       </c>
       <c r="F160" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G160" s="1" t="s">
         <v>12</v>

--- a/leave/src/main/resources/Sanity.xlsx
+++ b/leave/src/main/resources/Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\Desktop\yeten\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616A0244-3E85-451D-9268-92F1C2DDD8C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A47693-B9D1-4370-8890-66B58E96FF0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="468" yWindow="516" windowWidth="22572" windowHeight="11844" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -506,9 +506,6 @@
     <t>dummySheet</t>
   </si>
   <si>
-    <t>com.darwinbox.leaves.Accural.Custom.Tenure</t>
-  </si>
-  <si>
     <t>Accural//Tenure_Leave_Scenarios.xlsx</t>
   </si>
   <si>
@@ -677,9 +674,6 @@
     <t>Leave Encashmnet</t>
   </si>
   <si>
-    <t>com.darwinbox.leaves.Accural.Custom.MultipleAllotment.Daily.MutlipleAllotment</t>
-  </si>
-  <si>
     <t>62</t>
   </si>
   <si>
@@ -1641,6 +1635,12 @@
   </si>
   <si>
     <t>com.darwinbox.leaves.ProductionIssues.DBX_8440.MultipleAllotmentWithDeactivation.FirstHalfTransferSecondHalfDeactivation</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.Tenure</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.MultipleAllotment.Daily.MutlipleAllotment</t>
   </si>
 </sst>
 </file>
@@ -2005,8 +2005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C144" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D155" sqref="D155"/>
+    <sheetView tabSelected="1" topLeftCell="D25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D44" activeCellId="1" sqref="D47 D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2033,7 +2033,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -2809,19 +2809,19 @@
         <v>139</v>
       </c>
       <c r="B35" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C35" t="s">
         <v>140</v>
       </c>
       <c r="D35" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E35" t="s">
         <v>141</v>
       </c>
       <c r="F35" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>12</v>
@@ -2832,19 +2832,19 @@
         <v>142</v>
       </c>
       <c r="B36" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C36" t="s">
         <v>140</v>
       </c>
       <c r="D36" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E36" t="s">
         <v>141</v>
       </c>
       <c r="F36" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>12</v>
@@ -2855,19 +2855,19 @@
         <v>145</v>
       </c>
       <c r="B37" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C37" t="s">
         <v>140</v>
       </c>
       <c r="D37" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E37" t="s">
         <v>141</v>
       </c>
       <c r="F37" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>12</v>
@@ -2878,19 +2878,19 @@
         <v>146</v>
       </c>
       <c r="B38" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C38" t="s">
         <v>140</v>
       </c>
       <c r="D38" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E38" t="s">
         <v>141</v>
       </c>
       <c r="F38" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>12</v>
@@ -2907,10 +2907,10 @@
         <v>143</v>
       </c>
       <c r="D39" t="s">
+        <v>528</v>
+      </c>
+      <c r="E39" t="s">
         <v>151</v>
-      </c>
-      <c r="E39" t="s">
-        <v>152</v>
       </c>
       <c r="F39" t="s">
         <v>144</v>
@@ -2921,19 +2921,19 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B40" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C40" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E40" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F40" t="s">
         <v>150</v>
@@ -2944,19 +2944,19 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D41" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F41" t="s">
         <v>150</v>
@@ -2967,19 +2967,19 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B42" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D42" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F42" t="s">
         <v>150</v>
@@ -2990,19 +2990,19 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B43" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C43" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D43" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E43" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F43" t="s">
         <v>150</v>
@@ -3013,19 +3013,19 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F44" t="s">
         <v>150</v>
@@ -3036,7 +3036,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B45" t="s">
         <v>20</v>
@@ -3045,7 +3045,7 @@
         <v>20</v>
       </c>
       <c r="D45" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E45" t="s">
         <v>147</v>
@@ -3059,7 +3059,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B46" t="s">
         <v>137</v>
@@ -3068,7 +3068,7 @@
         <v>137</v>
       </c>
       <c r="D46" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E46" t="s">
         <v>149</v>
@@ -3082,7 +3082,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B47" t="s">
         <v>46</v>
@@ -3091,10 +3091,10 @@
         <v>46</v>
       </c>
       <c r="D47" t="s">
-        <v>208</v>
+        <v>529</v>
       </c>
       <c r="E47" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F47" t="s">
         <v>11</v>
@@ -3105,22 +3105,22 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B48" t="s">
+        <v>154</v>
+      </c>
+      <c r="C48" t="s">
+        <v>206</v>
+      </c>
+      <c r="D48" t="s">
         <v>155</v>
-      </c>
-      <c r="C48" t="s">
-        <v>207</v>
-      </c>
-      <c r="D48" t="s">
-        <v>156</v>
       </c>
       <c r="E48" t="s">
         <v>97</v>
       </c>
       <c r="F48" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>12</v>
@@ -3128,19 +3128,19 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B49" t="s">
+        <v>159</v>
+      </c>
+      <c r="C49" t="s">
+        <v>159</v>
+      </c>
+      <c r="D49" t="s">
+        <v>203</v>
+      </c>
+      <c r="E49" t="s">
         <v>160</v>
-      </c>
-      <c r="C49" t="s">
-        <v>160</v>
-      </c>
-      <c r="D49" t="s">
-        <v>204</v>
-      </c>
-      <c r="E49" t="s">
-        <v>161</v>
       </c>
       <c r="F49" t="s">
         <v>11</v>
@@ -3151,22 +3151,22 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B50" t="s">
         <v>95</v>
       </c>
       <c r="C50" t="s">
+        <v>162</v>
+      </c>
+      <c r="D50" t="s">
         <v>163</v>
-      </c>
-      <c r="D50" t="s">
-        <v>164</v>
       </c>
       <c r="E50" t="s">
         <v>97</v>
       </c>
       <c r="F50" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>12</v>
@@ -3174,16 +3174,16 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B51" t="s">
+        <v>166</v>
+      </c>
+      <c r="C51" t="s">
         <v>167</v>
       </c>
-      <c r="C51" t="s">
-        <v>168</v>
-      </c>
       <c r="D51" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E51" t="s">
         <v>97</v>
@@ -3197,22 +3197,22 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B52" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C52" t="s">
         <v>140</v>
       </c>
       <c r="D52" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E52" t="s">
         <v>141</v>
       </c>
       <c r="F52" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>12</v>
@@ -3220,22 +3220,22 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B53" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C53" t="s">
         <v>140</v>
       </c>
       <c r="D53" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E53" t="s">
         <v>141</v>
       </c>
       <c r="F53" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>12</v>
@@ -3243,22 +3243,22 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B54" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C54" t="s">
         <v>140</v>
       </c>
       <c r="D54" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E54" t="s">
         <v>141</v>
       </c>
       <c r="F54" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>12</v>
@@ -3266,22 +3266,22 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B55" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C55" t="s">
         <v>140</v>
       </c>
       <c r="D55" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E55" t="s">
         <v>141</v>
       </c>
       <c r="F55" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>12</v>
@@ -3289,22 +3289,22 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B56" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C56" t="s">
         <v>140</v>
       </c>
       <c r="D56" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E56" t="s">
         <v>141</v>
       </c>
       <c r="F56" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>12</v>
@@ -3312,16 +3312,16 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B57" t="s">
+        <v>181</v>
+      </c>
+      <c r="C57" t="s">
+        <v>181</v>
+      </c>
+      <c r="D57" t="s">
         <v>182</v>
-      </c>
-      <c r="C57" t="s">
-        <v>182</v>
-      </c>
-      <c r="D57" t="s">
-        <v>183</v>
       </c>
       <c r="E57" t="s">
         <v>141</v>
@@ -3335,19 +3335,19 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B58" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C58" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D58" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E58" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F58" t="s">
         <v>150</v>
@@ -3358,19 +3358,19 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B59" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C59" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D59" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F59" t="s">
         <v>150</v>
@@ -3381,19 +3381,19 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B60" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C60" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D60" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E60" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F60" t="s">
         <v>150</v>
@@ -3404,19 +3404,19 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B61" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C61" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D61" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E61" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F61" t="s">
         <v>150</v>
@@ -3427,19 +3427,19 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B62" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C62" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D62" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E62" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F62" t="s">
         <v>150</v>
@@ -3450,7 +3450,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B63" t="s">
         <v>46</v>
@@ -3459,10 +3459,10 @@
         <v>46</v>
       </c>
       <c r="D63" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E63" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F63" t="s">
         <v>11</v>
@@ -3473,22 +3473,22 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B64" t="s">
+        <v>208</v>
+      </c>
+      <c r="C64" t="s">
+        <v>209</v>
+      </c>
+      <c r="D64" t="s">
+        <v>505</v>
+      </c>
+      <c r="E64" t="s">
+        <v>211</v>
+      </c>
+      <c r="F64" t="s">
         <v>210</v>
-      </c>
-      <c r="C64" t="s">
-        <v>211</v>
-      </c>
-      <c r="D64" t="s">
-        <v>507</v>
-      </c>
-      <c r="E64" t="s">
-        <v>213</v>
-      </c>
-      <c r="F64" t="s">
-        <v>212</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>12</v>
@@ -3496,19 +3496,19 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B65" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C65" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D65" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E65" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F65" t="s">
         <v>11</v>
@@ -3519,22 +3519,22 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B66" t="s">
+        <v>226</v>
+      </c>
+      <c r="C66" t="s">
+        <v>226</v>
+      </c>
+      <c r="D66" t="s">
+        <v>240</v>
+      </c>
+      <c r="E66" t="s">
         <v>227</v>
       </c>
-      <c r="B66" t="s">
-        <v>228</v>
-      </c>
-      <c r="C66" t="s">
-        <v>228</v>
-      </c>
-      <c r="D66" t="s">
-        <v>242</v>
-      </c>
-      <c r="E66" t="s">
-        <v>229</v>
-      </c>
       <c r="F66" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>12</v>
@@ -3542,22 +3542,22 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B67" t="s">
+        <v>229</v>
+      </c>
+      <c r="C67" t="s">
+        <v>229</v>
+      </c>
+      <c r="D67" t="s">
         <v>230</v>
       </c>
-      <c r="B67" t="s">
-        <v>231</v>
-      </c>
-      <c r="C67" t="s">
-        <v>231</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
+        <v>227</v>
+      </c>
+      <c r="F67" t="s">
         <v>232</v>
-      </c>
-      <c r="E67" t="s">
-        <v>229</v>
-      </c>
-      <c r="F67" t="s">
-        <v>234</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>12</v>
@@ -3565,22 +3565,22 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B68" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C68" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D68" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E68" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F68" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>12</v>
@@ -3588,22 +3588,22 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B69" t="s">
         <v>237</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
+        <v>237</v>
+      </c>
+      <c r="D69" t="s">
+        <v>238</v>
+      </c>
+      <c r="E69" t="s">
+        <v>227</v>
+      </c>
+      <c r="F69" t="s">
         <v>239</v>
-      </c>
-      <c r="C69" t="s">
-        <v>239</v>
-      </c>
-      <c r="D69" t="s">
-        <v>240</v>
-      </c>
-      <c r="E69" t="s">
-        <v>229</v>
-      </c>
-      <c r="F69" t="s">
-        <v>241</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>12</v>
@@ -3611,22 +3611,22 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B70" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C70" t="s">
         <v>140</v>
       </c>
       <c r="D70" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E70" t="s">
         <v>141</v>
       </c>
       <c r="F70" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>6</v>
@@ -3634,22 +3634,22 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B71" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C71" t="s">
         <v>140</v>
       </c>
       <c r="D71" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E71" t="s">
         <v>141</v>
       </c>
       <c r="F71" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>6</v>
@@ -3657,22 +3657,22 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B72" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C72" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D72" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E72" t="s">
         <v>97</v>
       </c>
       <c r="F72" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>12</v>
@@ -3680,22 +3680,22 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B73" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C73" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D73" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E73" t="s">
         <v>97</v>
       </c>
       <c r="F73" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>12</v>
@@ -3703,22 +3703,22 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B74" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C74" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D74" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E74" t="s">
         <v>141</v>
       </c>
       <c r="F74" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>6</v>
@@ -3726,22 +3726,22 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B75" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C75" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D75" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E75" t="s">
         <v>141</v>
       </c>
       <c r="F75" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>6</v>
@@ -3749,22 +3749,22 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B76" t="s">
+        <v>241</v>
+      </c>
+      <c r="C76" t="s">
+        <v>258</v>
+      </c>
+      <c r="D76" t="s">
         <v>259</v>
-      </c>
-      <c r="B76" t="s">
-        <v>243</v>
-      </c>
-      <c r="C76" t="s">
-        <v>260</v>
-      </c>
-      <c r="D76" t="s">
-        <v>261</v>
       </c>
       <c r="E76" t="s">
         <v>141</v>
       </c>
       <c r="F76" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>6</v>
@@ -3772,22 +3772,22 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B77" t="s">
+        <v>241</v>
+      </c>
+      <c r="C77" t="s">
+        <v>262</v>
+      </c>
+      <c r="D77" t="s">
         <v>263</v>
-      </c>
-      <c r="B77" t="s">
-        <v>243</v>
-      </c>
-      <c r="C77" t="s">
-        <v>264</v>
-      </c>
-      <c r="D77" t="s">
-        <v>265</v>
       </c>
       <c r="E77" t="s">
         <v>141</v>
       </c>
       <c r="F77" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>6</v>
@@ -3795,22 +3795,22 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B78" t="s">
+        <v>241</v>
+      </c>
+      <c r="C78" t="s">
+        <v>265</v>
+      </c>
+      <c r="D78" t="s">
         <v>266</v>
-      </c>
-      <c r="B78" t="s">
-        <v>243</v>
-      </c>
-      <c r="C78" t="s">
-        <v>267</v>
-      </c>
-      <c r="D78" t="s">
-        <v>268</v>
       </c>
       <c r="E78" t="s">
         <v>141</v>
       </c>
       <c r="F78" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>6</v>
@@ -3818,22 +3818,22 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B79" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C79" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D79" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E79" t="s">
         <v>141</v>
       </c>
       <c r="F79" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>6</v>
@@ -3841,22 +3841,22 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B80" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C80" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D80" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E80" t="s">
         <v>141</v>
       </c>
       <c r="F80" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>6</v>
@@ -3864,22 +3864,22 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B81" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C81" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D81" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E81" t="s">
         <v>141</v>
       </c>
       <c r="F81" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>6</v>
@@ -3887,22 +3887,22 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B82" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C82" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D82" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E82" t="s">
         <v>141</v>
       </c>
       <c r="F82" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>6</v>
@@ -3910,22 +3910,22 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B83" t="s">
+        <v>274</v>
+      </c>
+      <c r="C83" t="s">
         <v>275</v>
       </c>
-      <c r="B83" t="s">
+      <c r="D83" t="s">
         <v>276</v>
       </c>
-      <c r="C83" t="s">
+      <c r="E83" t="s">
         <v>277</v>
       </c>
-      <c r="D83" t="s">
+      <c r="F83" t="s">
         <v>278</v>
-      </c>
-      <c r="E83" t="s">
-        <v>279</v>
-      </c>
-      <c r="F83" t="s">
-        <v>280</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>12</v>
@@ -3933,22 +3933,22 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B84" t="s">
+        <v>280</v>
+      </c>
+      <c r="C84" t="s">
+        <v>280</v>
+      </c>
+      <c r="D84" t="s">
         <v>281</v>
-      </c>
-      <c r="B84" t="s">
-        <v>282</v>
-      </c>
-      <c r="C84" t="s">
-        <v>282</v>
-      </c>
-      <c r="D84" t="s">
-        <v>283</v>
       </c>
       <c r="E84" t="s">
         <v>97</v>
       </c>
       <c r="F84" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>6</v>
@@ -3956,22 +3956,22 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B85" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C85" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D85" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E85" t="s">
         <v>97</v>
       </c>
       <c r="F85" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>6</v>
@@ -3979,22 +3979,22 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B86" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C86" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D86" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E86" t="s">
         <v>97</v>
       </c>
       <c r="F86" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>16</v>
@@ -4002,22 +4002,22 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B87" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C87" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D87" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E87" t="s">
         <v>97</v>
       </c>
       <c r="F87" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>19</v>
@@ -4025,22 +4025,22 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B88" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C88" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D88" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E88" t="s">
         <v>97</v>
       </c>
       <c r="F88" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>13</v>
@@ -4048,22 +4048,22 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B89" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C89" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D89" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E89" t="s">
         <v>97</v>
       </c>
       <c r="F89" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>25</v>
@@ -4071,22 +4071,22 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B90" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C90" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D90" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E90" t="s">
         <v>97</v>
       </c>
       <c r="F90" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>28</v>
@@ -4094,22 +4094,22 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B91" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C91" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D91" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E91" t="s">
         <v>97</v>
       </c>
       <c r="F91" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>31</v>
@@ -4117,22 +4117,22 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B92" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C92" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D92" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E92" t="s">
         <v>97</v>
       </c>
       <c r="F92" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>34</v>
@@ -4140,22 +4140,22 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B93" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C93" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D93" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E93" t="s">
         <v>97</v>
       </c>
       <c r="F93" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>37</v>
@@ -4163,22 +4163,22 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B94" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C94" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D94" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E94" t="s">
         <v>97</v>
       </c>
       <c r="F94" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>40</v>
@@ -4186,22 +4186,22 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B95" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C95" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D95" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E95" t="s">
         <v>97</v>
       </c>
       <c r="F95" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>45</v>
@@ -4209,22 +4209,22 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B96" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C96" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D96" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E96" t="s">
         <v>97</v>
       </c>
       <c r="F96" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>47</v>
@@ -4232,22 +4232,22 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B97" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C97" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D97" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E97" t="s">
         <v>97</v>
       </c>
       <c r="F97" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>34</v>
@@ -4255,22 +4255,22 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B98" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C98" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D98" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E98" t="s">
         <v>97</v>
       </c>
       <c r="F98" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>47</v>
@@ -4278,22 +4278,22 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B99" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C99" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D99" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E99" t="s">
         <v>97</v>
       </c>
       <c r="F99" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>16</v>
@@ -4301,22 +4301,22 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B100" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C100" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D100" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E100" t="s">
         <v>97</v>
       </c>
       <c r="F100" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>13</v>
@@ -4324,22 +4324,22 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B101" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C101" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D101" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E101" t="s">
         <v>97</v>
       </c>
       <c r="F101" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>6</v>
@@ -4347,22 +4347,22 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B102" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C102" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D102" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E102" t="s">
         <v>97</v>
       </c>
       <c r="F102" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>31</v>
@@ -4370,22 +4370,22 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B103" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C103" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D103" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E103" t="s">
         <v>97</v>
       </c>
       <c r="F103" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>28</v>
@@ -4393,22 +4393,22 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B104" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C104" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D104" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E104" t="s">
         <v>97</v>
       </c>
       <c r="F104" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>19</v>
@@ -4416,22 +4416,22 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B105" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C105" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D105" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E105" t="s">
         <v>97</v>
       </c>
       <c r="F105" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>25</v>
@@ -4439,22 +4439,22 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B106" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C106" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D106" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E106" t="s">
         <v>97</v>
       </c>
       <c r="F106" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>45</v>
@@ -4462,22 +4462,22 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B107" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C107" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D107" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E107" t="s">
         <v>97</v>
       </c>
       <c r="F107" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>40</v>
@@ -4485,22 +4485,22 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B108" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C108" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D108" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E108" t="s">
         <v>97</v>
       </c>
       <c r="F108" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>37</v>
@@ -4508,22 +4508,22 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B109" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C109" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D109" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E109" t="s">
         <v>97</v>
       </c>
       <c r="F109" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>34</v>
@@ -4531,22 +4531,22 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B110" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C110" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D110" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E110" t="s">
         <v>97</v>
       </c>
       <c r="F110" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>47</v>
@@ -4554,22 +4554,22 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B111" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C111" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D111" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E111" t="s">
         <v>97</v>
       </c>
       <c r="F111" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>16</v>
@@ -4577,22 +4577,22 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B112" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C112" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D112" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E112" t="s">
         <v>97</v>
       </c>
       <c r="F112" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>13</v>
@@ -4600,22 +4600,22 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B113" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C113" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D113" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E113" t="s">
         <v>97</v>
       </c>
       <c r="F113" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>6</v>
@@ -4623,22 +4623,22 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B114" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C114" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D114" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E114" t="s">
         <v>97</v>
       </c>
       <c r="F114" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>31</v>
@@ -4646,22 +4646,22 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B115" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C115" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D115" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E115" t="s">
         <v>97</v>
       </c>
       <c r="F115" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>28</v>
@@ -4669,22 +4669,22 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B116" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C116" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D116" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E116" t="s">
         <v>97</v>
       </c>
       <c r="F116" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>19</v>
@@ -4692,22 +4692,22 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B117" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C117" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D117" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E117" t="s">
         <v>97</v>
       </c>
       <c r="F117" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>25</v>
@@ -4715,22 +4715,22 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B118" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C118" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D118" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E118" t="s">
         <v>97</v>
       </c>
       <c r="F118" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>45</v>
@@ -4738,22 +4738,22 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B119" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C119" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D119" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E119" t="s">
         <v>97</v>
       </c>
       <c r="F119" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>40</v>
@@ -4761,22 +4761,22 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B120" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C120" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D120" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E120" t="s">
         <v>97</v>
       </c>
       <c r="F120" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>37</v>
@@ -4784,22 +4784,22 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B121" t="s">
+        <v>391</v>
+      </c>
+      <c r="C121" t="s">
+        <v>391</v>
+      </c>
+      <c r="D121" t="s">
         <v>392</v>
       </c>
-      <c r="B121" t="s">
-        <v>393</v>
-      </c>
-      <c r="C121" t="s">
-        <v>393</v>
-      </c>
-      <c r="D121" t="s">
-        <v>394</v>
-      </c>
       <c r="E121" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F121" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>12</v>
@@ -4807,22 +4807,22 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B122" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C122" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D122" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E122" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F122" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>12</v>
@@ -4830,22 +4830,22 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B123" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C123" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D123" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E123" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F123" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>12</v>
@@ -4853,22 +4853,22 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B124" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C124" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D124" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E124" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F124" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>12</v>
@@ -4876,22 +4876,22 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B125" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C125" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D125" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E125" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F125" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>12</v>
@@ -4899,22 +4899,22 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B126" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C126" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D126" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E126" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F126" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>12</v>
@@ -4922,22 +4922,22 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B127" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C127" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D127" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E127" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F127" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>12</v>
@@ -4945,22 +4945,22 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B128" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C128" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D128" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E128" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F128" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>12</v>
@@ -4968,22 +4968,22 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B129" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C129" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D129" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E129" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F129" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>12</v>
@@ -4991,22 +4991,22 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B130" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C130" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D130" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E130" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F130" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>12</v>
@@ -5014,22 +5014,22 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B131" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C131" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D131" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E131" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F131" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>12</v>
@@ -5037,22 +5037,22 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B132" t="s">
+        <v>435</v>
+      </c>
+      <c r="C132" t="s">
+        <v>435</v>
+      </c>
+      <c r="D132" t="s">
         <v>436</v>
       </c>
-      <c r="B132" t="s">
+      <c r="E132" t="s">
+        <v>277</v>
+      </c>
+      <c r="F132" t="s">
         <v>437</v>
-      </c>
-      <c r="C132" t="s">
-        <v>437</v>
-      </c>
-      <c r="D132" t="s">
-        <v>438</v>
-      </c>
-      <c r="E132" t="s">
-        <v>279</v>
-      </c>
-      <c r="F132" t="s">
-        <v>439</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>12</v>
@@ -5060,22 +5060,22 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B133" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C133" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D133" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E133" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F133" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>12</v>
@@ -5083,22 +5083,22 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B134" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C134" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D134" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E134" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F134" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>12</v>
@@ -5106,22 +5106,22 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B135" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C135" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D135" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E135" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F135" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>12</v>
@@ -5129,22 +5129,22 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B136" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C136" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D136" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E136" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F136" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>12</v>
@@ -5152,22 +5152,22 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B137" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C137" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D137" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E137" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F137" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G137" s="1" t="s">
         <v>12</v>
@@ -5175,22 +5175,22 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B138" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C138" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D138" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E138" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F138" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>12</v>
@@ -5198,22 +5198,22 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B139" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C139" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D139" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E139" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F139" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>12</v>
@@ -5221,22 +5221,22 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B140" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C140" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D140" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E140" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F140" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>12</v>
@@ -5244,22 +5244,22 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B141" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C141" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D141" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E141" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F141" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G141" s="1" t="s">
         <v>12</v>
@@ -5267,22 +5267,22 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B142" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C142" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D142" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E142" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F142" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G142" s="1" t="s">
         <v>12</v>
@@ -5290,22 +5290,22 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B143" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C143" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D143" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E143" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F143" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>12</v>
@@ -5313,22 +5313,22 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B144" t="s">
+        <v>435</v>
+      </c>
+      <c r="C144" t="s">
+        <v>435</v>
+      </c>
+      <c r="D144" t="s">
+        <v>461</v>
+      </c>
+      <c r="E144" t="s">
+        <v>277</v>
+      </c>
+      <c r="F144" t="s">
         <v>437</v>
-      </c>
-      <c r="C144" t="s">
-        <v>437</v>
-      </c>
-      <c r="D144" t="s">
-        <v>463</v>
-      </c>
-      <c r="E144" t="s">
-        <v>279</v>
-      </c>
-      <c r="F144" t="s">
-        <v>439</v>
       </c>
       <c r="G144" s="1" t="s">
         <v>12</v>
@@ -5336,7 +5336,7 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B145" t="s">
         <v>129</v>
@@ -5345,13 +5345,13 @@
         <v>129</v>
       </c>
       <c r="D145" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E145" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F145" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>6</v>
@@ -5359,22 +5359,22 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B146" t="s">
+        <v>466</v>
+      </c>
+      <c r="C146" t="s">
+        <v>466</v>
+      </c>
+      <c r="D146" t="s">
         <v>467</v>
       </c>
-      <c r="B146" t="s">
-        <v>468</v>
-      </c>
-      <c r="C146" t="s">
-        <v>468</v>
-      </c>
-      <c r="D146" t="s">
-        <v>469</v>
-      </c>
       <c r="E146" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F146" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G146" s="1" t="s">
         <v>12</v>
@@ -5382,22 +5382,22 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B147" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C147" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D147" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E147" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F147" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>12</v>
@@ -5405,22 +5405,22 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B148" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C148" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D148" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E148" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F148" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>12</v>
@@ -5428,22 +5428,22 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B149" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C149" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D149" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E149" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F149" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G149" s="1" t="s">
         <v>6</v>
@@ -5451,22 +5451,22 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B150" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C150" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D150" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E150" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F150" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G150" s="1" t="s">
         <v>6</v>
@@ -5474,22 +5474,22 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B151" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C151" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D151" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E151" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F151" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G151" s="1" t="s">
         <v>6</v>
@@ -5497,22 +5497,22 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B152" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C152" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D152" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E152" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F152" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G152" s="1" t="s">
         <v>6</v>
@@ -5520,22 +5520,22 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B153" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C153" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D153" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E153" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F153" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G153" s="1" t="s">
         <v>12</v>
@@ -5543,22 +5543,22 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B154" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C154" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D154" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E154" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F154" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G154" s="1" t="s">
         <v>12</v>
@@ -5566,22 +5566,22 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B155" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C155" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D155" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E155" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F155" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G155" s="1" t="s">
         <v>12</v>
@@ -5589,22 +5589,22 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B156" t="s">
+        <v>485</v>
+      </c>
+      <c r="C156" t="s">
+        <v>485</v>
+      </c>
+      <c r="D156" t="s">
+        <v>523</v>
+      </c>
+      <c r="E156" t="s">
+        <v>486</v>
+      </c>
+      <c r="F156" t="s">
         <v>487</v>
-      </c>
-      <c r="C156" t="s">
-        <v>487</v>
-      </c>
-      <c r="D156" t="s">
-        <v>525</v>
-      </c>
-      <c r="E156" t="s">
-        <v>488</v>
-      </c>
-      <c r="F156" t="s">
-        <v>489</v>
       </c>
       <c r="G156" s="1" t="s">
         <v>12</v>
@@ -5612,22 +5612,22 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B157" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C157" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D157" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E157" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F157" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G157" s="1" t="s">
         <v>12</v>
@@ -5635,22 +5635,22 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B158" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C158" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D158" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E158" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F158" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>12</v>
@@ -5658,16 +5658,16 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B159" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C159" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D159" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E159" t="s">
         <v>147</v>
@@ -5681,22 +5681,22 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B160" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C160" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D160" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E160" t="s">
         <v>147</v>
       </c>
       <c r="F160" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G160" s="1" t="s">
         <v>12</v>

--- a/leave/src/main/resources/Sanity.xlsx
+++ b/leave/src/main/resources/Sanity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\Desktop\yeten\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A47693-B9D1-4370-8890-66B58E96FF0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59D2470-B11D-4987-A88C-DFFC9587D614}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="468" yWindow="516" windowWidth="22572" windowHeight="11844" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="22572" windowHeight="11844" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCaseMaster" sheetId="1" r:id="rId1"/>
@@ -605,21 +605,6 @@
     <t>55</t>
   </si>
   <si>
-    <t>com.darwinbox.leaves.Accural.Custom.LeaveBalanceTests.Daily.LeaveBalance_48EmployeeCreation_1_25</t>
-  </si>
-  <si>
-    <t>com.darwinbox.leaves.Accural.Custom.LeaveBalanceTests.Daily.LeaveBalance_48EmployeeCreation_26_41</t>
-  </si>
-  <si>
-    <t>com.darwinbox.leaves.Accural.Custom.LeaveBalanceTests.Daily.LeaveBalance_48EmployeeCreation_42_82</t>
-  </si>
-  <si>
-    <t>com.darwinbox.leaves.Accural.Custom.LeaveBalanceTests.Daily.LeaveBalance_48EmployeeCreation_83_100</t>
-  </si>
-  <si>
-    <t>com.darwinbox.leaves.Accural.Custom.LeaveBalanceTests.Daily.LeaveBalance_48EmployeeCreation_101_123</t>
-  </si>
-  <si>
     <t>com.darwinbox.leaves.Accural.Custom.LeaveBalanceTests.Hourly.LeaveBalance_48EmployeeCreation_1_25</t>
   </si>
   <si>
@@ -1641,6 +1626,21 @@
   </si>
   <si>
     <t>com.darwinbox.leaves.Accural.MultipleAllotment.Daily.MutlipleAllotment</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.LeaveBalanceTests.Daily.LeaveBalance_48EmployeeCreation_1_25</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.LeaveBalanceTests.Daily.LeaveBalance_48EmployeeCreation_26_41</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.LeaveBalanceTests.Daily.LeaveBalance_48EmployeeCreation_42_82</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.LeaveBalanceTests.Daily.LeaveBalance_48EmployeeCreation_83_100</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.LeaveBalanceTests.Daily.LeaveBalance_48EmployeeCreation_101_123</t>
   </si>
 </sst>
 </file>
@@ -2005,8 +2005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D44" activeCellId="1" sqref="D47 D44"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2033,7 +2033,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -2809,19 +2809,19 @@
         <v>139</v>
       </c>
       <c r="B35" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C35" t="s">
         <v>140</v>
       </c>
       <c r="D35" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="E35" t="s">
         <v>141</v>
       </c>
       <c r="F35" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>12</v>
@@ -2832,19 +2832,19 @@
         <v>142</v>
       </c>
       <c r="B36" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C36" t="s">
         <v>140</v>
       </c>
       <c r="D36" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="E36" t="s">
         <v>141</v>
       </c>
       <c r="F36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>12</v>
@@ -2855,19 +2855,19 @@
         <v>145</v>
       </c>
       <c r="B37" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C37" t="s">
         <v>140</v>
       </c>
       <c r="D37" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="E37" t="s">
         <v>141</v>
       </c>
       <c r="F37" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>12</v>
@@ -2878,19 +2878,19 @@
         <v>146</v>
       </c>
       <c r="B38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C38" t="s">
         <v>140</v>
       </c>
       <c r="D38" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="E38" t="s">
         <v>141</v>
       </c>
       <c r="F38" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>12</v>
@@ -2907,7 +2907,7 @@
         <v>143</v>
       </c>
       <c r="D39" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="E39" t="s">
         <v>151</v>
@@ -2930,7 +2930,7 @@
         <v>169</v>
       </c>
       <c r="D40" t="s">
-        <v>184</v>
+        <v>525</v>
       </c>
       <c r="E40" t="s">
         <v>176</v>
@@ -2953,7 +2953,7 @@
         <v>170</v>
       </c>
       <c r="D41" t="s">
-        <v>185</v>
+        <v>526</v>
       </c>
       <c r="E41" t="s">
         <v>176</v>
@@ -2976,7 +2976,7 @@
         <v>180</v>
       </c>
       <c r="D42" t="s">
-        <v>186</v>
+        <v>527</v>
       </c>
       <c r="E42" t="s">
         <v>176</v>
@@ -2999,7 +2999,7 @@
         <v>171</v>
       </c>
       <c r="D43" t="s">
-        <v>187</v>
+        <v>528</v>
       </c>
       <c r="E43" t="s">
         <v>176</v>
@@ -3022,7 +3022,7 @@
         <v>172</v>
       </c>
       <c r="D44" t="s">
-        <v>188</v>
+        <v>529</v>
       </c>
       <c r="E44" t="s">
         <v>176</v>
@@ -3045,7 +3045,7 @@
         <v>20</v>
       </c>
       <c r="D45" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="E45" t="s">
         <v>147</v>
@@ -3068,7 +3068,7 @@
         <v>137</v>
       </c>
       <c r="D46" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="E46" t="s">
         <v>149</v>
@@ -3091,7 +3091,7 @@
         <v>46</v>
       </c>
       <c r="D47" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E47" t="s">
         <v>153</v>
@@ -3111,7 +3111,7 @@
         <v>154</v>
       </c>
       <c r="C48" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D48" t="s">
         <v>155</v>
@@ -3137,7 +3137,7 @@
         <v>159</v>
       </c>
       <c r="D49" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E49" t="s">
         <v>160</v>
@@ -3174,7 +3174,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B51" t="s">
         <v>166</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B52" t="s">
         <v>178</v>
@@ -3206,13 +3206,13 @@
         <v>140</v>
       </c>
       <c r="D52" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="E52" t="s">
         <v>141</v>
       </c>
       <c r="F52" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>12</v>
@@ -3220,7 +3220,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B53" t="s">
         <v>178</v>
@@ -3229,13 +3229,13 @@
         <v>140</v>
       </c>
       <c r="D53" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="E53" t="s">
         <v>141</v>
       </c>
       <c r="F53" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>12</v>
@@ -3243,7 +3243,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B54" t="s">
         <v>178</v>
@@ -3252,13 +3252,13 @@
         <v>140</v>
       </c>
       <c r="D54" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="E54" t="s">
         <v>141</v>
       </c>
       <c r="F54" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>12</v>
@@ -3266,7 +3266,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B55" t="s">
         <v>178</v>
@@ -3275,13 +3275,13 @@
         <v>140</v>
       </c>
       <c r="D55" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="E55" t="s">
         <v>141</v>
       </c>
       <c r="F55" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>12</v>
@@ -3289,7 +3289,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B56" t="s">
         <v>178</v>
@@ -3298,13 +3298,13 @@
         <v>140</v>
       </c>
       <c r="D56" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E56" t="s">
         <v>141</v>
       </c>
       <c r="F56" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>12</v>
@@ -3312,7 +3312,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B57" t="s">
         <v>181</v>
@@ -3335,16 +3335,16 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B58" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C58" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D58" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E58" t="s">
         <v>176</v>
@@ -3358,16 +3358,16 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B59" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C59" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D59" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -3381,16 +3381,16 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B60" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C60" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D60" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E60" t="s">
         <v>176</v>
@@ -3404,16 +3404,16 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B61" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C61" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D61" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E61" t="s">
         <v>176</v>
@@ -3427,16 +3427,16 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B62" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C62" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D62" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E62" t="s">
         <v>176</v>
@@ -3450,7 +3450,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B63" t="s">
         <v>46</v>
@@ -3459,7 +3459,7 @@
         <v>46</v>
       </c>
       <c r="D63" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E63" t="s">
         <v>153</v>
@@ -3473,22 +3473,22 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B64" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C64" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D64" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="E64" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F64" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>12</v>
@@ -3496,19 +3496,19 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B65" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C65" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D65" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="E65" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F65" t="s">
         <v>11</v>
@@ -3519,22 +3519,22 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B66" t="s">
+        <v>221</v>
+      </c>
+      <c r="C66" t="s">
+        <v>221</v>
+      </c>
+      <c r="D66" t="s">
+        <v>235</v>
+      </c>
+      <c r="E66" t="s">
+        <v>222</v>
+      </c>
+      <c r="F66" t="s">
         <v>226</v>
-      </c>
-      <c r="C66" t="s">
-        <v>226</v>
-      </c>
-      <c r="D66" t="s">
-        <v>240</v>
-      </c>
-      <c r="E66" t="s">
-        <v>227</v>
-      </c>
-      <c r="F66" t="s">
-        <v>231</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>12</v>
@@ -3542,22 +3542,22 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B67" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C67" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D67" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E67" t="s">
+        <v>222</v>
+      </c>
+      <c r="F67" t="s">
         <v>227</v>
-      </c>
-      <c r="F67" t="s">
-        <v>232</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>12</v>
@@ -3565,22 +3565,22 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B68" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C68" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D68" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E68" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F68" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>12</v>
@@ -3588,22 +3588,22 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B69" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C69" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D69" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E69" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F69" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>12</v>
@@ -3611,22 +3611,22 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B70" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C70" t="s">
         <v>140</v>
       </c>
       <c r="D70" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E70" t="s">
         <v>141</v>
       </c>
       <c r="F70" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>6</v>
@@ -3634,22 +3634,22 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B71" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C71" t="s">
         <v>140</v>
       </c>
       <c r="D71" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E71" t="s">
         <v>141</v>
       </c>
       <c r="F71" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>6</v>
@@ -3657,22 +3657,22 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B72" t="s">
+        <v>236</v>
+      </c>
+      <c r="C72" t="s">
+        <v>246</v>
+      </c>
+      <c r="D72" t="s">
         <v>241</v>
-      </c>
-      <c r="C72" t="s">
-        <v>251</v>
-      </c>
-      <c r="D72" t="s">
-        <v>246</v>
       </c>
       <c r="E72" t="s">
         <v>97</v>
       </c>
       <c r="F72" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>12</v>
@@ -3680,22 +3680,22 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B73" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C73" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D73" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E73" t="s">
         <v>97</v>
       </c>
       <c r="F73" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>12</v>
@@ -3703,22 +3703,22 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B74" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C74" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D74" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E74" t="s">
         <v>141</v>
       </c>
       <c r="F74" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>6</v>
@@ -3726,22 +3726,22 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B75" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C75" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D75" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E75" t="s">
         <v>141</v>
       </c>
       <c r="F75" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>6</v>
@@ -3749,22 +3749,22 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B76" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C76" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D76" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E76" t="s">
         <v>141</v>
       </c>
       <c r="F76" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>6</v>
@@ -3772,22 +3772,22 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B77" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C77" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D77" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E77" t="s">
         <v>141</v>
       </c>
       <c r="F77" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>6</v>
@@ -3795,22 +3795,22 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B78" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C78" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D78" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E78" t="s">
         <v>141</v>
       </c>
       <c r="F78" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>6</v>
@@ -3818,22 +3818,22 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B79" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C79" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D79" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="E79" t="s">
         <v>141</v>
       </c>
       <c r="F79" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>6</v>
@@ -3841,22 +3841,22 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B80" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C80" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D80" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="E80" t="s">
         <v>141</v>
       </c>
       <c r="F80" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>6</v>
@@ -3864,22 +3864,22 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B81" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C81" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D81" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="E81" t="s">
         <v>141</v>
       </c>
       <c r="F81" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>6</v>
@@ -3887,22 +3887,22 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B82" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C82" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D82" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="E82" t="s">
         <v>141</v>
       </c>
       <c r="F82" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>6</v>
@@ -3910,22 +3910,22 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B83" t="s">
+        <v>269</v>
+      </c>
+      <c r="C83" t="s">
+        <v>270</v>
+      </c>
+      <c r="D83" t="s">
+        <v>271</v>
+      </c>
+      <c r="E83" t="s">
+        <v>272</v>
+      </c>
+      <c r="F83" t="s">
         <v>273</v>
-      </c>
-      <c r="B83" t="s">
-        <v>274</v>
-      </c>
-      <c r="C83" t="s">
-        <v>275</v>
-      </c>
-      <c r="D83" t="s">
-        <v>276</v>
-      </c>
-      <c r="E83" t="s">
-        <v>277</v>
-      </c>
-      <c r="F83" t="s">
-        <v>278</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>12</v>
@@ -3933,22 +3933,22 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B84" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C84" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D84" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E84" t="s">
         <v>97</v>
       </c>
       <c r="F84" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>6</v>
@@ -3956,22 +3956,22 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B85" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C85" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D85" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E85" t="s">
         <v>97</v>
       </c>
       <c r="F85" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>6</v>
@@ -3979,22 +3979,22 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B86" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C86" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D86" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E86" t="s">
         <v>97</v>
       </c>
       <c r="F86" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>16</v>
@@ -4002,22 +4002,22 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B87" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C87" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D87" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E87" t="s">
         <v>97</v>
       </c>
       <c r="F87" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>19</v>
@@ -4025,22 +4025,22 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B88" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C88" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D88" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E88" t="s">
         <v>97</v>
       </c>
       <c r="F88" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>13</v>
@@ -4048,22 +4048,22 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B89" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C89" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D89" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E89" t="s">
         <v>97</v>
       </c>
       <c r="F89" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>25</v>
@@ -4071,22 +4071,22 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B90" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C90" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D90" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E90" t="s">
         <v>97</v>
       </c>
       <c r="F90" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>28</v>
@@ -4094,22 +4094,22 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B91" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C91" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D91" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E91" t="s">
         <v>97</v>
       </c>
       <c r="F91" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>31</v>
@@ -4117,22 +4117,22 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B92" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C92" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D92" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E92" t="s">
         <v>97</v>
       </c>
       <c r="F92" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>34</v>
@@ -4140,22 +4140,22 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B93" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C93" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D93" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E93" t="s">
         <v>97</v>
       </c>
       <c r="F93" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>37</v>
@@ -4163,22 +4163,22 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B94" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C94" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D94" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E94" t="s">
         <v>97</v>
       </c>
       <c r="F94" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>40</v>
@@ -4186,22 +4186,22 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B95" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C95" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D95" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E95" t="s">
         <v>97</v>
       </c>
       <c r="F95" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>45</v>
@@ -4209,22 +4209,22 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B96" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C96" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D96" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E96" t="s">
         <v>97</v>
       </c>
       <c r="F96" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>47</v>
@@ -4232,22 +4232,22 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B97" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C97" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D97" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E97" t="s">
         <v>97</v>
       </c>
       <c r="F97" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>34</v>
@@ -4255,22 +4255,22 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B98" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C98" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D98" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="E98" t="s">
         <v>97</v>
       </c>
       <c r="F98" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>47</v>
@@ -4278,22 +4278,22 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B99" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C99" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D99" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E99" t="s">
         <v>97</v>
       </c>
       <c r="F99" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>16</v>
@@ -4301,22 +4301,22 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B100" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C100" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D100" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="E100" t="s">
         <v>97</v>
       </c>
       <c r="F100" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>13</v>
@@ -4324,22 +4324,22 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B101" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C101" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D101" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E101" t="s">
         <v>97</v>
       </c>
       <c r="F101" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>6</v>
@@ -4347,22 +4347,22 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B102" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C102" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D102" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="E102" t="s">
         <v>97</v>
       </c>
       <c r="F102" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>31</v>
@@ -4370,22 +4370,22 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B103" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C103" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D103" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E103" t="s">
         <v>97</v>
       </c>
       <c r="F103" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>28</v>
@@ -4393,22 +4393,22 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B104" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C104" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D104" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="E104" t="s">
         <v>97</v>
       </c>
       <c r="F104" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>19</v>
@@ -4416,22 +4416,22 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B105" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C105" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D105" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="E105" t="s">
         <v>97</v>
       </c>
       <c r="F105" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>25</v>
@@ -4439,22 +4439,22 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B106" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C106" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D106" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E106" t="s">
         <v>97</v>
       </c>
       <c r="F106" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>45</v>
@@ -4462,22 +4462,22 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B107" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C107" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D107" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="E107" t="s">
         <v>97</v>
       </c>
       <c r="F107" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>40</v>
@@ -4485,22 +4485,22 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B108" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C108" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="D108" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E108" t="s">
         <v>97</v>
       </c>
       <c r="F108" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>37</v>
@@ -4508,22 +4508,22 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B109" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C109" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D109" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E109" t="s">
         <v>97</v>
       </c>
       <c r="F109" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>34</v>
@@ -4531,22 +4531,22 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B110" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C110" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D110" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E110" t="s">
         <v>97</v>
       </c>
       <c r="F110" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>47</v>
@@ -4554,22 +4554,22 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B111" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C111" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D111" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="E111" t="s">
         <v>97</v>
       </c>
       <c r="F111" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>16</v>
@@ -4577,22 +4577,22 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B112" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C112" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D112" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E112" t="s">
         <v>97</v>
       </c>
       <c r="F112" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>13</v>
@@ -4600,22 +4600,22 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B113" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C113" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D113" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="E113" t="s">
         <v>97</v>
       </c>
       <c r="F113" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>6</v>
@@ -4623,22 +4623,22 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B114" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C114" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D114" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E114" t="s">
         <v>97</v>
       </c>
       <c r="F114" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>31</v>
@@ -4646,22 +4646,22 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B115" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C115" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D115" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="E115" t="s">
         <v>97</v>
       </c>
       <c r="F115" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>28</v>
@@ -4669,22 +4669,22 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B116" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C116" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D116" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="E116" t="s">
         <v>97</v>
       </c>
       <c r="F116" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>19</v>
@@ -4692,22 +4692,22 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B117" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C117" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="D117" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="E117" t="s">
         <v>97</v>
       </c>
       <c r="F117" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>25</v>
@@ -4715,22 +4715,22 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B118" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C118" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D118" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E118" t="s">
         <v>97</v>
       </c>
       <c r="F118" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>45</v>
@@ -4738,22 +4738,22 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B119" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C119" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D119" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="E119" t="s">
         <v>97</v>
       </c>
       <c r="F119" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>40</v>
@@ -4761,22 +4761,22 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B120" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C120" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D120" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="E120" t="s">
         <v>97</v>
       </c>
       <c r="F120" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>37</v>
@@ -4784,22 +4784,22 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B121" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C121" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D121" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="E121" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F121" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>12</v>
@@ -4807,22 +4807,22 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B122" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C122" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D122" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="E122" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F122" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>12</v>
@@ -4830,22 +4830,22 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B123" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C123" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D123" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="E123" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F123" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>12</v>
@@ -4853,22 +4853,22 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B124" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C124" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D124" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="E124" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F124" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>12</v>
@@ -4876,22 +4876,22 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B125" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C125" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D125" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E125" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F125" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>12</v>
@@ -4899,22 +4899,22 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B126" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C126" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D126" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="E126" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F126" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>12</v>
@@ -4922,22 +4922,22 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B127" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C127" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D127" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="E127" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F127" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>12</v>
@@ -4945,22 +4945,22 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B128" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C128" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D128" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="E128" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F128" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>12</v>
@@ -4968,22 +4968,22 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B129" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C129" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D129" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="E129" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F129" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>12</v>
@@ -4991,22 +4991,22 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B130" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C130" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D130" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="E130" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F130" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>12</v>
@@ -5014,22 +5014,22 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B131" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C131" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="D131" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="E131" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F131" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>12</v>
@@ -5037,22 +5037,22 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B132" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C132" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D132" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="E132" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F132" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>12</v>
@@ -5060,22 +5060,22 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B133" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C133" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D133" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="E133" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F133" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>12</v>
@@ -5083,22 +5083,22 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B134" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C134" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D134" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="E134" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F134" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>12</v>
@@ -5106,22 +5106,22 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B135" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C135" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D135" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="E135" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F135" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>12</v>
@@ -5129,22 +5129,22 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B136" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C136" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D136" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="E136" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F136" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>12</v>
@@ -5152,22 +5152,22 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B137" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C137" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D137" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="E137" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F137" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G137" s="1" t="s">
         <v>12</v>
@@ -5175,22 +5175,22 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B138" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C138" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D138" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="E138" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F138" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>12</v>
@@ -5198,22 +5198,22 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B139" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C139" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D139" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E139" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F139" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>12</v>
@@ -5221,22 +5221,22 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B140" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C140" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D140" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="E140" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F140" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>12</v>
@@ -5244,22 +5244,22 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B141" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C141" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D141" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E141" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F141" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G141" s="1" t="s">
         <v>12</v>
@@ -5267,22 +5267,22 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B142" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C142" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D142" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="E142" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F142" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="G142" s="1" t="s">
         <v>12</v>
@@ -5290,22 +5290,22 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B143" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C143" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="D143" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="E143" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F143" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>12</v>
@@ -5313,22 +5313,22 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B144" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C144" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D144" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E144" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F144" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="G144" s="1" t="s">
         <v>12</v>
@@ -5336,7 +5336,7 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B145" t="s">
         <v>129</v>
@@ -5345,13 +5345,13 @@
         <v>129</v>
       </c>
       <c r="D145" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="E145" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F145" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>6</v>
@@ -5359,22 +5359,22 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="B146" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C146" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="D146" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="E146" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F146" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="G146" s="1" t="s">
         <v>12</v>
@@ -5382,22 +5382,22 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B147" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C147" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="D147" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="E147" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F147" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>12</v>
@@ -5405,22 +5405,22 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B148" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C148" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="D148" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="E148" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F148" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>12</v>
@@ -5428,22 +5428,22 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B149" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C149" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="D149" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="E149" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F149" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="G149" s="1" t="s">
         <v>6</v>
@@ -5451,22 +5451,22 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B150" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C150" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="D150" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="E150" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F150" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="G150" s="1" t="s">
         <v>6</v>
@@ -5474,22 +5474,22 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B151" t="s">
+        <v>467</v>
+      </c>
+      <c r="C151" t="s">
+        <v>467</v>
+      </c>
+      <c r="D151" t="s">
         <v>472</v>
       </c>
-      <c r="C151" t="s">
-        <v>472</v>
-      </c>
-      <c r="D151" t="s">
-        <v>477</v>
-      </c>
       <c r="E151" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F151" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="G151" s="1" t="s">
         <v>6</v>
@@ -5497,22 +5497,22 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="B152" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C152" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="D152" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="E152" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F152" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="G152" s="1" t="s">
         <v>6</v>
@@ -5520,22 +5520,22 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B153" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C153" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D153" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E153" t="s">
         <v>153</v>
       </c>
       <c r="F153" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="G153" s="1" t="s">
         <v>12</v>
@@ -5543,22 +5543,22 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B154" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C154" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D154" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="E154" t="s">
         <v>153</v>
       </c>
       <c r="F154" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="G154" s="1" t="s">
         <v>12</v>
@@ -5566,22 +5566,22 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="B155" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C155" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D155" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="E155" t="s">
         <v>153</v>
       </c>
       <c r="F155" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="G155" s="1" t="s">
         <v>12</v>
@@ -5589,22 +5589,22 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B156" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C156" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="D156" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="E156" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="F156" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="G156" s="1" t="s">
         <v>12</v>
@@ -5612,22 +5612,22 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="B157" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C157" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D157" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E157" t="s">
         <v>153</v>
       </c>
       <c r="F157" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="G157" s="1" t="s">
         <v>12</v>
@@ -5635,22 +5635,22 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B158" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C158" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D158" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="E158" t="s">
         <v>153</v>
       </c>
       <c r="F158" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>12</v>
@@ -5658,16 +5658,16 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="B159" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C159" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="D159" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="E159" t="s">
         <v>147</v>
@@ -5681,22 +5681,22 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B160" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C160" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="D160" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="E160" t="s">
         <v>147</v>
       </c>
       <c r="F160" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="G160" s="1" t="s">
         <v>12</v>

--- a/leave/src/main/resources/Sanity.xlsx
+++ b/leave/src/main/resources/Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\Desktop\yeten\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59D2470-B11D-4987-A88C-DFFC9587D614}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6985BBBF-5CD3-4F78-BAE1-B8D512E10290}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="22572" windowHeight="11844" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2005,8 +2005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/leave/src/main/resources/Sanity.xlsx
+++ b/leave/src/main/resources/Sanity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\Desktop\yeten\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6985BBBF-5CD3-4F78-BAE1-B8D512E10290}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F6E4C4-56A0-4923-8BA2-F28EFFFAEF69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="22572" windowHeight="11844" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCaseMaster" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="530">
   <si>
     <t>TCID</t>
   </si>
@@ -1607,9 +1607,6 @@
     <t>com.darwinbox.leaves.ProductionIssues.DBX_7557.CarryForward_zero_zero</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>com.darwinbox.leaves.ProductionIssues.DBX_8440.MultipleAllotmentWithDeactivation.FirstHalfTransferFirstHalfDeactivation</t>
   </si>
   <si>
@@ -1641,6 +1638,9 @@
   </si>
   <si>
     <t>com.darwinbox.leaves.Accural.LeaveBalanceTests.Daily.LeaveBalance_48EmployeeCreation_101_123</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_8440.WorkingDays.SecondHalfTransferFirstHalfDeactivation</t>
   </si>
 </sst>
 </file>
@@ -2003,10 +2003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G160"/>
+  <dimension ref="A1:G161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" topLeftCell="D54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2907,7 +2907,7 @@
         <v>143</v>
       </c>
       <c r="D39" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E39" t="s">
         <v>151</v>
@@ -2930,7 +2930,7 @@
         <v>169</v>
       </c>
       <c r="D40" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E40" t="s">
         <v>176</v>
@@ -2953,7 +2953,7 @@
         <v>170</v>
       </c>
       <c r="D41" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E41" t="s">
         <v>176</v>
@@ -2976,7 +2976,7 @@
         <v>180</v>
       </c>
       <c r="D42" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E42" t="s">
         <v>176</v>
@@ -2999,7 +2999,7 @@
         <v>171</v>
       </c>
       <c r="D43" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E43" t="s">
         <v>176</v>
@@ -3022,7 +3022,7 @@
         <v>172</v>
       </c>
       <c r="D44" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E44" t="s">
         <v>176</v>
@@ -3091,7 +3091,7 @@
         <v>46</v>
       </c>
       <c r="D47" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E47" t="s">
         <v>153</v>
@@ -5529,7 +5529,7 @@
         <v>477</v>
       </c>
       <c r="D153" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E153" t="s">
         <v>153</v>
@@ -5552,7 +5552,7 @@
         <v>477</v>
       </c>
       <c r="D154" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E154" t="s">
         <v>153</v>
@@ -5575,7 +5575,7 @@
         <v>477</v>
       </c>
       <c r="D155" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E155" t="s">
         <v>153</v>
@@ -5597,9 +5597,6 @@
       <c r="C156" t="s">
         <v>480</v>
       </c>
-      <c r="D156" t="s">
-        <v>518</v>
-      </c>
       <c r="E156" t="s">
         <v>481</v>
       </c>
@@ -5621,7 +5618,7 @@
         <v>477</v>
       </c>
       <c r="D157" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E157" t="s">
         <v>153</v>
@@ -5699,6 +5696,29 @@
         <v>498</v>
       </c>
       <c r="G160" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B161" t="s">
+        <v>477</v>
+      </c>
+      <c r="C161" t="s">
+        <v>477</v>
+      </c>
+      <c r="D161" t="s">
+        <v>529</v>
+      </c>
+      <c r="E161" t="s">
+        <v>153</v>
+      </c>
+      <c r="F161" t="s">
+        <v>486</v>
+      </c>
+      <c r="G161" s="1" t="s">
         <v>12</v>
       </c>
     </row>

--- a/leave/src/main/resources/Sanity.xlsx
+++ b/leave/src/main/resources/Sanity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\Desktop\yeten\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F6E4C4-56A0-4923-8BA2-F28EFFFAEF69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D8C943-70D5-46A4-B978-EF634BFE975B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="468" yWindow="516" windowWidth="22572" windowHeight="11844" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCaseMaster" sheetId="1" r:id="rId1"/>
@@ -2005,8 +2005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView tabSelected="1" topLeftCell="D38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/leave/src/main/resources/Sanity.xlsx
+++ b/leave/src/main/resources/Sanity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\Desktop\yeten\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D8C943-70D5-46A4-B978-EF634BFE975B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157C4279-9D63-44EA-8464-B183536C047C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="468" yWindow="516" windowWidth="22572" windowHeight="11844" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="468" yWindow="1116" windowWidth="22572" windowHeight="11844" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCaseMaster" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="535">
   <si>
     <t>TCID</t>
   </si>
@@ -1641,6 +1641,21 @@
   </si>
   <si>
     <t>com.darwinbox.leaves.ProductionIssues.DBX_8440.WorkingDays.SecondHalfTransferFirstHalfDeactivation</t>
+  </si>
+  <si>
+    <t>asmple</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.sas</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.ProductionIssues.DBX_8612.createRequestsForEmp</t>
+  </si>
+  <si>
+    <t>168</t>
   </si>
 </sst>
 </file>
@@ -2003,10 +2018,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G161"/>
+  <dimension ref="A1:G163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="D152" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E160" sqref="E160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3761,13 +3776,13 @@
         <v>254</v>
       </c>
       <c r="E76" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="F76" t="s">
-        <v>488</v>
+        <v>242</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -5719,6 +5734,52 @@
         <v>486</v>
       </c>
       <c r="G161" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B162" t="s">
+        <v>530</v>
+      </c>
+      <c r="C162" t="s">
+        <v>531</v>
+      </c>
+      <c r="D162" t="s">
+        <v>532</v>
+      </c>
+      <c r="E162" t="s">
+        <v>153</v>
+      </c>
+      <c r="F162" t="s">
+        <v>486</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B163" t="s">
+        <v>530</v>
+      </c>
+      <c r="C163" t="s">
+        <v>531</v>
+      </c>
+      <c r="D163" t="s">
+        <v>533</v>
+      </c>
+      <c r="E163" t="s">
+        <v>141</v>
+      </c>
+      <c r="F163" t="s">
+        <v>488</v>
+      </c>
+      <c r="G163" s="1" t="s">
         <v>12</v>
       </c>
     </row>

--- a/leave/src/main/resources/Sanity.xlsx
+++ b/leave/src/main/resources/Sanity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\Desktop\yeten\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157C4279-9D63-44EA-8464-B183536C047C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE87653-A48C-4F2A-8FB1-7AEB596DA29E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="468" yWindow="1116" windowWidth="22572" windowHeight="11844" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCaseMaster" sheetId="1" r:id="rId1"/>
@@ -2021,7 +2021,7 @@
   <dimension ref="A1:G163"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D152" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E160" sqref="E160"/>
+      <selection activeCell="F159" sqref="F159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5780,7 +5780,7 @@
         <v>488</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/leave/src/main/resources/Sanity.xlsx
+++ b/leave/src/main/resources/Sanity.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\Desktop\yeten\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE87653-A48C-4F2A-8FB1-7AEB596DA29E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0E7888-052D-46B1-9A28-21EEC8777D74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,15 +23,12 @@
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="542">
   <si>
     <t>TCID</t>
   </si>
@@ -1656,6 +1653,27 @@
   </si>
   <si>
     <t>168</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.MultipleAllotment.Daily.Fiancial.MutlipleAllotmentWithEncashment</t>
+  </si>
+  <si>
+    <t>Sanity//Accural//MultipleLeaveAllotment.xlsx</t>
+  </si>
+  <si>
+    <t>Multiple Allotment With Encashment- Financial</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>Multiple Allotment With Leaves- Financial</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.MultipleAllotment.Daily.Fiancial.MutlipleAllotmentWithLeaves</t>
   </si>
 </sst>
 </file>
@@ -2018,10 +2036,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G163"/>
+  <dimension ref="A1:G165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D152" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F159" sqref="F159"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A165" sqref="A165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5783,6 +5801,52 @@
         <v>6</v>
       </c>
     </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B164" t="s">
+        <v>538</v>
+      </c>
+      <c r="C164" t="s">
+        <v>538</v>
+      </c>
+      <c r="D164" t="s">
+        <v>536</v>
+      </c>
+      <c r="E164" t="s">
+        <v>537</v>
+      </c>
+      <c r="F164" t="s">
+        <v>418</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B165" t="s">
+        <v>540</v>
+      </c>
+      <c r="C165" t="s">
+        <v>540</v>
+      </c>
+      <c r="D165" t="s">
+        <v>541</v>
+      </c>
+      <c r="E165" t="s">
+        <v>537</v>
+      </c>
+      <c r="F165" t="s">
+        <v>418</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/leave/src/main/resources/Sanity.xlsx
+++ b/leave/src/main/resources/Sanity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\Desktop\yeten\Automation_Project\leave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0E7888-052D-46B1-9A28-21EEC8777D74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A6EB60-A319-4CD7-94E9-B440027F250C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="468" yWindow="516" windowWidth="22572" windowHeight="11844" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCaseMaster" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="545">
   <si>
     <t>TCID</t>
   </si>
@@ -1674,6 +1674,15 @@
   </si>
   <si>
     <t>com.darwinbox.leaves.Accural.MultipleAllotment.Daily.Fiancial.MutlipleAllotmentWithLeaves</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>com.darwinbox.leaves.Accural.WorkingDays.MultipleAllotment.MAWithCF.WorkingDaysWithMultipleAllotmentCF</t>
+  </si>
+  <si>
+    <t>WorkingDaysWithMultipleAllotmentCF</t>
   </si>
 </sst>
 </file>
@@ -2036,10 +2045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G165"/>
+  <dimension ref="A1:G166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A165" sqref="A165"/>
+    <sheetView tabSelected="1" topLeftCell="D151" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F165" sqref="F165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2049,7 +2058,7 @@
     <col min="3" max="3" width="45.44140625" customWidth="1"/>
     <col min="4" max="4" width="114.77734375" customWidth="1"/>
     <col min="5" max="5" width="40.6640625"/>
-    <col min="6" max="6" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.44140625" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" style="1" customWidth="1"/>
     <col min="8" max="1023" width="8.21875"/>
     <col min="1024" max="1025" width="8.5546875"/>
@@ -5844,6 +5853,29 @@
         <v>418</v>
       </c>
       <c r="G165" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B166" t="s">
+        <v>540</v>
+      </c>
+      <c r="C166" t="s">
+        <v>540</v>
+      </c>
+      <c r="D166" t="s">
+        <v>543</v>
+      </c>
+      <c r="E166" t="s">
+        <v>147</v>
+      </c>
+      <c r="F166" t="s">
+        <v>544</v>
+      </c>
+      <c r="G166" s="1" t="s">
         <v>12</v>
       </c>
     </row>
